--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="387">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -430,6 +430,12 @@
     <t>dataset_type</t>
   </si>
   <si>
+    <t>HiFi-Slide</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
+  </si>
+  <si>
     <t>SNARE-seq2</t>
   </si>
   <si>
@@ -550,12 +556,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
-    <t>HiFi-Slides</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000195</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -1336,60 +1336,72 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
+  </si>
+  <si>
+    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent Kit (200 Cycles); PN 20012864</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
-  </si>
-  <si>
-    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
   </si>
   <si>
@@ -1402,12 +1414,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
   </si>
   <si>
-    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
-  </si>
-  <si>
     <t>sequencing_read_format</t>
   </si>
   <si>
@@ -1564,7 +1570,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-22T10:32:23-08:00</t>
+    <t>2023-11-24T09:45:47-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1875,37 +1881,37 @@
         <v>305</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
@@ -1913,7 +1919,7 @@
         <v>62</v>
       </c>
       <c r="AZ2" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -2029,7 +2035,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$12</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$13</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
@@ -2833,7 +2839,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2933,6 +2939,14 @@
       </c>
       <c r="B12" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>330</v>
+      </c>
+      <c r="B13" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2950,10 +2964,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
@@ -2974,18 +2988,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6">
@@ -2998,10 +3012,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
   </sheetData>
@@ -3035,18 +3049,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B3" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B4" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
@@ -3067,66 +3081,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -3194,18 +3208,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B1" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="3">
@@ -3218,18 +3232,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B5" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
   </sheetData>
@@ -3377,16 +3391,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="B1" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C1" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="D1" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="2">
@@ -3394,13 +3408,13 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C2" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D2" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="391">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -751,6 +751,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
     <t>Keyence</t>
   </si>
   <si>
@@ -874,6 +880,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
     <t>Axio Observer 5</t>
   </si>
   <si>
@@ -1570,7 +1582,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-11-24T09:45:47-08:00</t>
+    <t>2023-12-22T09:51:06-06:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1779,139 +1791,139 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
@@ -1919,7 +1931,7 @@
         <v>62</v>
       </c>
       <c r="AZ2" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -1934,10 +1946,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$14</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$38</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$39</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2076,26 +2088,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2113,32 +2125,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -2156,17 +2168,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>
@@ -2184,26 +2196,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
   </sheetData>
@@ -2221,27 +2233,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -2259,42 +2271,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B5" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2312,10 +2324,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2333,10 +2345,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2354,10 +2366,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2375,18 +2387,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -2681,18 +2693,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2710,58 +2722,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B2" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B3" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B5" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B6" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2779,34 +2791,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2847,106 +2859,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B6" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B9" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B10" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B11" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B12" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B13" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2964,58 +2976,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3033,114 +3045,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B9" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B10" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B11" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B12" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B13" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B14" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -3158,18 +3170,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -3187,10 +3199,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3208,42 +3220,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B1" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B3" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B4" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3391,16 +3403,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B1" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
@@ -3408,13 +3420,13 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C2" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D2" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3447,7 +3459,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3565,6 +3577,14 @@
         <v>124</v>
       </c>
     </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3572,7 +3592,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3580,306 +3600,314 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B1" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B5" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B9" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B12" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B13" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B14" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B15" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B16" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B17" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B20" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B24" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B25" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B26" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B27" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B31" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B33" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B35" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B37" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B38" t="s">
-        <v>201</v>
+        <v>203</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>204</v>
+      </c>
+      <c r="B39" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -3897,42 +3925,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -3950,26 +3978,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3987,32 +4015,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="401">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -709,6 +709,12 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
@@ -793,6 +799,12 @@
     <t>https://identifiers.org/RRID:SCR_010233</t>
   </si>
   <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
     <t>Ionpath</t>
   </si>
   <si>
@@ -826,6 +838,12 @@
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
@@ -844,6 +862,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
     <t>NanoZoomer 2.0-HT</t>
   </si>
   <si>
@@ -856,6 +880,12 @@
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -1582,7 +1612,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2023-12-22T09:51:06-06:00</t>
+    <t>2024-01-09T21:22:15-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1791,139 +1821,139 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>207</v>
+        <v>217</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>219</v>
+        <v>229</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>221</v>
+        <v>231</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>222</v>
+        <v>232</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>235</v>
+        <v>245</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>241</v>
+        <v>251</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>242</v>
+        <v>252</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>243</v>
+        <v>253</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>259</v>
+        <v>269</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>260</v>
+        <v>270</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>263</v>
+        <v>273</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>264</v>
+        <v>274</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>265</v>
+        <v>275</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>272</v>
+        <v>282</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>277</v>
+        <v>287</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>283</v>
+        <v>293</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>299</v>
+        <v>309</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>306</v>
+        <v>316</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>307</v>
+        <v>317</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>308</v>
+        <v>318</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>337</v>
+        <v>347</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>338</v>
+        <v>348</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>339</v>
+        <v>349</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>369</v>
+        <v>379</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>370</v>
+        <v>380</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>381</v>
+        <v>391</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>382</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
@@ -1931,7 +1961,7 @@
         <v>62</v>
       </c>
       <c r="AZ2" t="s">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -1946,10 +1976,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$15</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$39</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$42</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2088,26 +2118,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2125,32 +2155,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>236</v>
+        <v>246</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>237</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>239</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>240</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -2168,17 +2198,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -2196,26 +2226,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>243</v>
       </c>
       <c r="B3" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -2233,27 +2263,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>244</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>245</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>246</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>
@@ -2271,42 +2301,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s">
-        <v>249</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="B2" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="B3" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="B4" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="B5" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -2324,10 +2354,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>261</v>
+        <v>271</v>
       </c>
       <c r="B1" t="s">
-        <v>262</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2345,10 +2375,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2366,10 +2396,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>267</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2387,18 +2417,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="B1" t="s">
-        <v>274</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2693,18 +2723,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>278</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s">
-        <v>281</v>
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -2722,58 +2752,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B1" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="B2" t="s">
-        <v>288</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>292</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="B5" t="s">
-        <v>294</v>
+        <v>304</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B6" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>297</v>
+        <v>307</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2791,34 +2821,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
-        <v>301</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2859,106 +2889,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>312</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s">
-        <v>313</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s">
-        <v>317</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s">
-        <v>319</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>320</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>322</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
-        <v>323</v>
+        <v>333</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>324</v>
+        <v>334</v>
       </c>
       <c r="B8" t="s">
-        <v>325</v>
+        <v>335</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>326</v>
+        <v>336</v>
       </c>
       <c r="B9" t="s">
-        <v>327</v>
+        <v>337</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>328</v>
+        <v>338</v>
       </c>
       <c r="B10" t="s">
-        <v>329</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="B11" t="s">
-        <v>331</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="B12" t="s">
-        <v>333</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B13" t="s">
-        <v>335</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2976,58 +3006,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>340</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s">
-        <v>341</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>342</v>
+        <v>352</v>
       </c>
       <c r="B4" t="s">
-        <v>343</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>344</v>
+        <v>354</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -3045,114 +3075,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
       <c r="B2" t="s">
-        <v>232</v>
+        <v>242</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>351</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>353</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>355</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s">
-        <v>356</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s">
-        <v>360</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>371</v>
       </c>
       <c r="B11" t="s">
-        <v>362</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>375</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s">
-        <v>368</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3170,18 +3200,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>289</v>
+        <v>299</v>
       </c>
       <c r="B1" t="s">
-        <v>290</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -3199,10 +3229,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B1" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3220,42 +3250,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>373</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s">
-        <v>374</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>375</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s">
-        <v>376</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="B3" t="s">
-        <v>296</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>377</v>
+        <v>387</v>
       </c>
       <c r="B4" t="s">
-        <v>378</v>
+        <v>388</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>379</v>
+        <v>389</v>
       </c>
       <c r="B5" t="s">
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3403,16 +3433,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B1" t="s">
-        <v>385</v>
+        <v>395</v>
       </c>
       <c r="C1" t="s">
-        <v>387</v>
+        <v>397</v>
       </c>
       <c r="D1" t="s">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
@@ -3420,13 +3450,13 @@
         <v>62</v>
       </c>
       <c r="B2" t="s">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="C2" t="s">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="D2" t="s">
-        <v>390</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3459,7 +3489,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3585,6 +3615,22 @@
         <v>126</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>127</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3592,7 +3638,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3600,314 +3646,338 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="B2" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="B3" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B6" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B9" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B15" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B16" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B20" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B21" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B22" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B24" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B25" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B26" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B27" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B28" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B29" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B30" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B31" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B32" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B33" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B34" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B35" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B36" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B37" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B38" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B39" t="s">
-        <v>205</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>210</v>
+      </c>
+      <c r="B40" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>212</v>
+      </c>
+      <c r="B41" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>214</v>
+      </c>
+      <c r="B42" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -3925,42 +3995,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B3" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="B5" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>
@@ -3978,26 +4048,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B1" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>212</v>
+        <v>222</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="B3" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4015,32 +4085,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>223</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>224</v>
+        <v>234</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>225</v>
+        <v>235</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>226</v>
+        <v>236</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>227</v>
+        <v>237</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>228</v>
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="409">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -709,6 +709,12 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>In-House</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
+  </si>
+  <si>
     <t>BGI Genomics</t>
   </si>
   <si>
@@ -757,6 +763,12 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -874,12 +886,24 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024448</t>
   </si>
   <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
     <t>DNBSEQ-T7</t>
   </si>
   <si>
@@ -976,6 +1000,12 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
     <t>QTRAP 5500</t>
   </si>
   <si>
@@ -1468,12 +1498,6 @@
     <t>preparation_instrument_vendor</t>
   </si>
   <si>
-    <t>In-House</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
-  </si>
-  <si>
     <t>HTX Technologies</t>
   </si>
   <si>
@@ -1612,7 +1636,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-09T21:22:15-08:00</t>
+    <t>2024-01-29T14:35:01-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1744,58 +1768,58 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" style="2" width="16.6875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" style="3" width="6.33984375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" style="4" width="23.45703125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" style="5" width="12.28515625" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" style="6" width="12.66796875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" style="7" width="10.8984375" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" style="8" width="28.46484375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" style="9" width="27.87109375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" style="10" width="28.5625" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" style="11" width="27.40234375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" style="12" width="47.64453125" customWidth="true" bestFit="true"/>
-    <col min="12" max="12" style="13" width="46.48828125" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" style="14" width="16.90625" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" style="15" width="9.81640625" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" style="16" width="14.234375" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" style="17" width="13.0546875" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" style="18" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" style="19" width="10.45703125" customWidth="true" bestFit="true"/>
-    <col min="19" max="19" style="20" width="9.27734375" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" style="21" width="8.875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" style="22" width="17.390625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" style="23" width="30.11328125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" style="24" width="28.9765625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" style="25" width="27.81640625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" style="26" width="23.71875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" style="27" width="28.0625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" style="28" width="25.5859375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" style="29" width="24.42578125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" style="30" width="26.8671875" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" style="31" width="25.70703125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" style="32" width="25.44140625" customWidth="true" bestFit="true"/>
-    <col min="32" max="32" style="33" width="24.28125" customWidth="true" bestFit="true"/>
-    <col min="33" max="33" style="34" width="13.09375" customWidth="true" bestFit="true"/>
-    <col min="34" max="34" style="35" width="40.37109375" customWidth="true" bestFit="true"/>
-    <col min="35" max="35" style="36" width="32.83203125" customWidth="true" bestFit="true"/>
-    <col min="36" max="36" style="37" width="21.18359375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" style="38" width="19.3046875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" style="39" width="19.66015625" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" style="40" width="19.91796875" customWidth="true" bestFit="true"/>
-    <col min="40" max="40" style="41" width="28.66015625" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" style="42" width="22.09375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" style="43" width="22.93359375" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" style="44" width="19.6484375" customWidth="true" bestFit="true"/>
-    <col min="44" max="44" style="45" width="16.19140625" customWidth="true" bestFit="true"/>
-    <col min="45" max="45" style="46" width="29.08203125" customWidth="true" bestFit="true"/>
-    <col min="46" max="46" style="47" width="28.48828125" customWidth="true" bestFit="true"/>
-    <col min="47" max="47" style="48" width="25.23046875" customWidth="true" bestFit="true"/>
-    <col min="48" max="48" style="49" width="29.35546875" customWidth="true" bestFit="true"/>
-    <col min="49" max="49" style="50" width="28.1953125" customWidth="true" bestFit="true"/>
-    <col min="50" max="50" style="51" width="17.39453125" customWidth="true" bestFit="true"/>
-    <col min="51" max="51" style="52" width="22.1796875" customWidth="true" bestFit="true"/>
-    <col min="52" max="52" style="53" width="19.61328125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" style="2" width="14.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" style="3" width="5.46875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" style="4" width="20.234375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" style="5" width="10.59765625" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" style="6" width="10.9296875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" style="7" width="9.40234375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" style="8" width="24.5546875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" style="9" width="24.0390625" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" style="10" width="24.63671875" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" style="11" width="23.63671875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" style="12" width="41.1015625" customWidth="true" bestFit="true"/>
+    <col min="12" max="12" style="13" width="40.1015625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" style="14" width="14.5859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" style="15" width="8.46484375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" style="16" width="12.27734375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" style="17" width="11.26171875" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" style="18" width="10.9140625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" style="19" width="9.01953125" customWidth="true" bestFit="true"/>
+    <col min="19" max="19" style="20" width="8.00390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" style="21" width="7.65625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" style="22" width="15.00390625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" style="23" width="25.9765625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" style="24" width="24.99609375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" style="25" width="23.99609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" style="26" width="20.4609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" style="27" width="24.20703125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" style="28" width="22.0703125" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" style="29" width="21.0703125" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" style="30" width="23.17578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" style="31" width="22.17578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" style="32" width="21.9453125" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" style="33" width="20.9453125" customWidth="true" bestFit="true"/>
+    <col min="33" max="33" style="34" width="11.296875" customWidth="true" bestFit="true"/>
+    <col min="34" max="34" style="35" width="34.82421875" customWidth="true" bestFit="true"/>
+    <col min="35" max="35" style="36" width="28.32421875" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" style="37" width="18.2734375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" style="38" width="16.65234375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" style="39" width="16.9609375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" style="40" width="17.18359375" customWidth="true" bestFit="true"/>
+    <col min="40" max="40" style="41" width="24.72265625" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" style="42" width="19.05859375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" style="43" width="19.78125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" style="44" width="16.94921875" customWidth="true" bestFit="true"/>
+    <col min="44" max="44" style="45" width="13.96484375" customWidth="true" bestFit="true"/>
+    <col min="45" max="45" style="46" width="25.0859375" customWidth="true" bestFit="true"/>
+    <col min="46" max="46" style="47" width="24.57421875" customWidth="true" bestFit="true"/>
+    <col min="47" max="47" style="48" width="21.765625" customWidth="true" bestFit="true"/>
+    <col min="48" max="48" style="49" width="25.3203125" customWidth="true" bestFit="true"/>
+    <col min="49" max="49" style="50" width="24.3203125" customWidth="true" bestFit="true"/>
+    <col min="50" max="50" style="51" width="15.00390625" customWidth="true" bestFit="true"/>
+    <col min="51" max="51" style="52" width="19.1328125" customWidth="true" bestFit="true"/>
+    <col min="52" max="52" style="53" width="16.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1821,147 +1845,147 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>228</v>
+        <v>238</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>229</v>
+        <v>239</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>231</v>
+        <v>241</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>232</v>
+        <v>242</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>239</v>
+        <v>249</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>245</v>
+        <v>255</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>253</v>
+        <v>263</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>269</v>
+        <v>279</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>274</v>
+        <v>284</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>275</v>
+        <v>285</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>276</v>
+        <v>286</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>280</v>
+        <v>290</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>281</v>
+        <v>291</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>282</v>
+        <v>292</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>287</v>
+        <v>297</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>292</v>
+        <v>302</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>293</v>
+        <v>303</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>294</v>
+        <v>304</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>309</v>
+        <v>319</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>316</v>
+        <v>326</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>318</v>
+        <v>328</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>319</v>
+        <v>329</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>346</v>
+        <v>356</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>347</v>
+        <v>357</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>348</v>
+        <v>358</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>349</v>
+        <v>359</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>358</v>
+        <v>366</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>382</v>
+        <v>390</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
-      <c r="D2" t="s">
+      <c r="D2" t="s" s="5">
         <v>62</v>
       </c>
-      <c r="AZ2" t="s">
-        <v>393</v>
+      <c r="AZ2" t="s" s="53">
+        <v>401</v>
       </c>
     </row>
   </sheetData>
@@ -1976,10 +2000,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$17</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$42</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -1993,7 +2017,7 @@
       <formula2/>
     </dataValidation>
     <dataValidation type="list" sqref="L2:L1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'time_since_acquisition_instrument_calibration_unit'!$A$1:$A$3</formula1>
+      <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_offset'!$A$1:$A$6</formula1>
@@ -2117,27 +2141,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" t="s">
-        <v>241</v>
+      <c r="A1" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>251</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
+      <c r="A3" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2154,33 +2178,33 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>246</v>
+      <c r="A1" t="s" s="0">
+        <v>256</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>247</v>
+      <c r="A2" t="s" s="0">
+        <v>257</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>235</v>
+      <c r="A3" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>248</v>
+      <c r="A4" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>249</v>
+      <c r="A5" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>250</v>
+      <c r="A6" t="s" s="0">
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -2197,18 +2221,18 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>233</v>
+      <c r="A1" t="s" s="0">
+        <v>243</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>248</v>
+      <c r="A3" t="s" s="0">
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2225,27 +2249,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B1" t="s">
-        <v>241</v>
+      <c r="A1" t="s" s="0">
+        <v>250</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>251</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>243</v>
-      </c>
-      <c r="B3" t="s">
-        <v>244</v>
+      <c r="A3" t="s" s="0">
+        <v>253</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -2262,28 +2286,28 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>254</v>
+      <c r="A1" t="s" s="0">
+        <v>264</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>237</v>
+      <c r="A3" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>255</v>
+      <c r="A4" t="s" s="0">
+        <v>265</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>256</v>
+      <c r="A5" t="s" s="0">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2300,43 +2324,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B1" t="s">
-        <v>259</v>
+      <c r="A1" t="s" s="0">
+        <v>268</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>269</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>260</v>
-      </c>
-      <c r="B2" t="s">
-        <v>261</v>
+      <c r="A2" t="s" s="0">
+        <v>270</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>271</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>262</v>
-      </c>
-      <c r="B3" t="s">
-        <v>263</v>
+      <c r="A3" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>273</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>264</v>
-      </c>
-      <c r="B4" t="s">
-        <v>265</v>
+      <c r="A4" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>275</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>266</v>
-      </c>
-      <c r="B5" t="s">
-        <v>267</v>
+      <c r="A5" t="s" s="0">
+        <v>276</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2353,11 +2377,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>271</v>
-      </c>
-      <c r="B1" t="s">
-        <v>272</v>
+      <c r="A1" t="s" s="0">
+        <v>281</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2374,11 +2398,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" t="s">
-        <v>278</v>
+      <c r="A1" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2395,11 +2419,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>277</v>
-      </c>
-      <c r="B1" t="s">
-        <v>278</v>
+      <c r="A1" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2416,19 +2440,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>283</v>
-      </c>
-      <c r="B1" t="s">
-        <v>284</v>
+      <c r="A1" t="s" s="0">
+        <v>293</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>294</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>285</v>
-      </c>
-      <c r="B2" t="s">
-        <v>286</v>
+      <c r="A2" t="s" s="0">
+        <v>295</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2445,266 +2469,266 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>4</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>5</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>7</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>10</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>11</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>15</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>16</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>17</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>19</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>21</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>23</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>25</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>26</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>27</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>29</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>30</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>31</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>33</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>35</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>37</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
+      <c r="A18" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" t="s" s="0">
         <v>39</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
+      <c r="A19" t="s" s="0">
         <v>40</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" t="s" s="0">
         <v>41</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
+      <c r="A20" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" t="s" s="0">
         <v>43</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
+      <c r="A21" t="s" s="0">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" t="s" s="0">
         <v>45</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
+      <c r="A22" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" t="s" s="0">
         <v>47</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
+      <c r="A23" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" t="s" s="0">
         <v>49</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
+      <c r="A24" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" t="s" s="0">
         <v>51</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
+      <c r="A25" t="s" s="0">
         <v>52</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" t="s" s="0">
         <v>53</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
+      <c r="A26" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" t="s" s="0">
         <v>55</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
+      <c r="A27" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" t="s" s="0">
         <v>57</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
+      <c r="A28" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" t="s" s="0">
         <v>59</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
+      <c r="A29" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" t="s" s="0">
         <v>61</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
+      <c r="A30" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" t="s" s="0">
         <v>63</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
+      <c r="A31" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" t="s" s="0">
         <v>65</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
+      <c r="A32" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" t="s" s="0">
         <v>67</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
+      <c r="A33" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" t="s" s="0">
         <v>69</v>
       </c>
     </row>
@@ -2722,19 +2746,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" t="s">
-        <v>289</v>
+      <c r="A1" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>299</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>290</v>
-      </c>
-      <c r="B2" t="s">
-        <v>291</v>
+      <c r="A2" t="s" s="0">
+        <v>300</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2751,59 +2775,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>295</v>
-      </c>
-      <c r="B1" t="s">
-        <v>296</v>
+      <c r="A1" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>306</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>297</v>
-      </c>
-      <c r="B2" t="s">
-        <v>298</v>
+      <c r="A2" t="s" s="0">
+        <v>307</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>308</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>299</v>
-      </c>
-      <c r="B3" t="s">
-        <v>300</v>
+      <c r="A3" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>310</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>301</v>
-      </c>
-      <c r="B4" t="s">
-        <v>302</v>
+      <c r="A4" t="s" s="0">
+        <v>311</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>312</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>303</v>
-      </c>
-      <c r="B5" t="s">
-        <v>304</v>
+      <c r="A5" t="s" s="0">
+        <v>313</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>314</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>305</v>
-      </c>
-      <c r="B6" t="s">
-        <v>306</v>
+      <c r="A6" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>316</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>307</v>
-      </c>
-      <c r="B7" t="s">
-        <v>308</v>
+      <c r="A7" t="s" s="0">
+        <v>317</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2820,35 +2844,35 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B1" t="s">
-        <v>311</v>
+      <c r="A1" t="s" s="0">
+        <v>320</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>321</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>312</v>
-      </c>
-      <c r="B3" t="s">
-        <v>313</v>
+      <c r="A3" t="s" s="0">
+        <v>322</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>323</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B4" t="s">
-        <v>315</v>
+      <c r="A4" t="s" s="0">
+        <v>324</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -2865,12 +2889,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -2888,107 +2912,107 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B1" t="s">
-        <v>321</v>
+      <c r="A1" t="s" s="0">
+        <v>330</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>331</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>322</v>
-      </c>
-      <c r="B2" t="s">
-        <v>323</v>
+      <c r="A2" t="s" s="0">
+        <v>332</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>333</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>324</v>
-      </c>
-      <c r="B3" t="s">
-        <v>325</v>
+      <c r="A3" t="s" s="0">
+        <v>334</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>335</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>326</v>
-      </c>
-      <c r="B4" t="s">
-        <v>327</v>
+      <c r="A4" t="s" s="0">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>337</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>328</v>
-      </c>
-      <c r="B5" t="s">
-        <v>329</v>
+      <c r="A5" t="s" s="0">
+        <v>338</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>339</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B6" t="s">
-        <v>331</v>
+      <c r="A6" t="s" s="0">
+        <v>340</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>341</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>332</v>
-      </c>
-      <c r="B7" t="s">
-        <v>333</v>
+      <c r="A7" t="s" s="0">
+        <v>342</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>343</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B8" t="s">
-        <v>335</v>
+      <c r="A8" t="s" s="0">
+        <v>344</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>345</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>336</v>
-      </c>
-      <c r="B9" t="s">
-        <v>337</v>
+      <c r="A9" t="s" s="0">
+        <v>346</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>347</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>338</v>
-      </c>
-      <c r="B10" t="s">
-        <v>339</v>
+      <c r="A10" t="s" s="0">
+        <v>348</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>349</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>340</v>
-      </c>
-      <c r="B11" t="s">
-        <v>341</v>
+      <c r="A11" t="s" s="0">
+        <v>350</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>351</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>342</v>
-      </c>
-      <c r="B12" t="s">
-        <v>343</v>
+      <c r="A12" t="s" s="0">
+        <v>352</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>353</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>344</v>
-      </c>
-      <c r="B13" t="s">
-        <v>345</v>
+      <c r="A13" t="s" s="0">
+        <v>354</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3005,59 +3029,59 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B1" t="s">
-        <v>351</v>
+      <c r="A1" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>118</v>
+      <c r="A2" t="s" s="0">
+        <v>121</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>122</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>235</v>
-      </c>
-      <c r="B3" t="s">
-        <v>242</v>
+      <c r="A3" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>352</v>
-      </c>
-      <c r="B4" t="s">
-        <v>353</v>
+      <c r="A4" t="s" s="0">
+        <v>360</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>361</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>354</v>
-      </c>
-      <c r="B5" t="s">
-        <v>355</v>
+      <c r="A5" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>363</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" t="s">
-        <v>122</v>
+      <c r="A6" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>126</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>356</v>
-      </c>
-      <c r="B7" t="s">
-        <v>357</v>
+      <c r="A7" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -3074,115 +3098,115 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" t="s">
-        <v>139</v>
+      <c r="A1" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B2" t="s">
-        <v>242</v>
+      <c r="A2" t="s" s="0">
+        <v>245</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>252</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>359</v>
-      </c>
-      <c r="B3" t="s">
-        <v>360</v>
+      <c r="A3" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>368</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B4" t="s">
-        <v>362</v>
+      <c r="A4" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>370</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>194</v>
-      </c>
-      <c r="B5" t="s">
-        <v>195</v>
+      <c r="A5" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>196</v>
-      </c>
-      <c r="B6" t="s">
-        <v>197</v>
+      <c r="A6" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>363</v>
-      </c>
-      <c r="B7" t="s">
-        <v>364</v>
+      <c r="A7" t="s" s="0">
+        <v>371</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>372</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" t="s">
-        <v>366</v>
+      <c r="A8" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>374</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>367</v>
-      </c>
-      <c r="B9" t="s">
-        <v>368</v>
+      <c r="A9" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>376</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>369</v>
-      </c>
-      <c r="B10" t="s">
-        <v>370</v>
+      <c r="A10" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>378</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>371</v>
-      </c>
-      <c r="B11" t="s">
-        <v>372</v>
+      <c r="A11" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>380</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>373</v>
-      </c>
-      <c r="B12" t="s">
-        <v>374</v>
+      <c r="A12" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>382</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>375</v>
-      </c>
-      <c r="B13" t="s">
-        <v>376</v>
+      <c r="A13" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>384</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>377</v>
-      </c>
-      <c r="B14" t="s">
-        <v>378</v>
+      <c r="A14" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3199,19 +3223,19 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" t="s">
-        <v>300</v>
+      <c r="A1" t="s" s="0">
+        <v>309</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>310</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>295</v>
-      </c>
-      <c r="B2" t="s">
-        <v>296</v>
+      <c r="A2" t="s" s="0">
+        <v>305</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3228,11 +3252,11 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>226</v>
-      </c>
-      <c r="B1" t="s">
-        <v>227</v>
+      <c r="A1" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -3249,43 +3273,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B1" t="s">
-        <v>384</v>
+      <c r="A1" t="s" s="0">
+        <v>391</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>392</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>385</v>
-      </c>
-      <c r="B2" t="s">
-        <v>386</v>
+      <c r="A2" t="s" s="0">
+        <v>393</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>394</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>305</v>
-      </c>
-      <c r="B3" t="s">
-        <v>306</v>
+      <c r="A3" t="s" s="0">
+        <v>315</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>316</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>387</v>
-      </c>
-      <c r="B4" t="s">
-        <v>388</v>
+      <c r="A4" t="s" s="0">
+        <v>395</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>396</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>389</v>
-      </c>
-      <c r="B5" t="s">
-        <v>390</v>
+      <c r="A5" t="s" s="0">
+        <v>397</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3302,90 +3326,90 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>71</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>72</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>74</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>75</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>76</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>78</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>80</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>82</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>83</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>84</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>86</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>88</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>90</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>92</v>
       </c>
     </row>
@@ -3403,12 +3427,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -3425,38 +3449,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="20.19140625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="27.9921875" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="79.78125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="17.41796875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="9.65234375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="24.1484375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="68.8203125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D1" t="s">
-        <v>399</v>
+      <c r="A1" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>403</v>
+      </c>
+      <c r="C1" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="D1" t="s" s="0">
+        <v>407</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>62</v>
       </c>
-      <c r="B2" t="s">
-        <v>396</v>
-      </c>
-      <c r="C2" t="s">
-        <v>398</v>
-      </c>
-      <c r="D2" t="s">
-        <v>400</v>
+      <c r="B2" t="s" s="0">
+        <v>404</v>
+      </c>
+      <c r="C2" t="s" s="0">
+        <v>406</v>
+      </c>
+      <c r="D2" t="s" s="0">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3473,12 +3497,12 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>94</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>95</v>
       </c>
     </row>
@@ -3489,146 +3513,162 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" t="s" s="0">
         <v>98</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
+      <c r="A2" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s" s="0">
         <v>100</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
+      <c r="A3" t="s" s="0">
         <v>101</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" t="s" s="0">
         <v>102</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
+      <c r="A4" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" t="s" s="0">
         <v>104</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
+      <c r="A5" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" t="s" s="0">
         <v>106</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
+      <c r="A6" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" t="s" s="0">
         <v>108</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
+      <c r="A7" t="s" s="0">
         <v>109</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" t="s" s="0">
         <v>110</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
+      <c r="A8" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" t="s" s="0">
         <v>112</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
+      <c r="A9" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" t="s" s="0">
         <v>114</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
+      <c r="A10" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" t="s" s="0">
         <v>116</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
+      <c r="A11" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" t="s" s="0">
         <v>118</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
+      <c r="A12" t="s" s="0">
         <v>119</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" t="s" s="0">
         <v>120</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
+      <c r="A13" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" t="s" s="0">
         <v>122</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
+      <c r="A14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" t="s" s="0">
         <v>124</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
+      <c r="A15" t="s" s="0">
         <v>125</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" t="s" s="0">
         <v>126</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
+      <c r="A16" t="s" s="0">
         <v>127</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" t="s" s="0">
         <v>128</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
+      <c r="A17" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" t="s" s="0">
         <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>134</v>
       </c>
     </row>
   </sheetData>
@@ -3638,346 +3678,370 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B1" t="s">
-        <v>133</v>
+      <c r="A1" t="s" s="0">
+        <v>136</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>137</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B2" t="s">
-        <v>135</v>
+      <c r="A2" t="s" s="0">
+        <v>138</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>139</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B3" t="s">
-        <v>137</v>
+      <c r="A3" t="s" s="0">
+        <v>140</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>141</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>138</v>
-      </c>
-      <c r="B4" t="s">
-        <v>139</v>
+      <c r="A4" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>143</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B5" t="s">
-        <v>141</v>
+      <c r="A5" t="s" s="0">
+        <v>144</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>145</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>142</v>
-      </c>
-      <c r="B6" t="s">
-        <v>143</v>
+      <c r="A6" t="s" s="0">
+        <v>146</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>147</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s">
-        <v>144</v>
-      </c>
-      <c r="B7" t="s">
-        <v>145</v>
+      <c r="A7" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>149</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" t="s">
-        <v>147</v>
+      <c r="A8" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>151</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" t="s">
-        <v>149</v>
+      <c r="A9" t="s" s="0">
+        <v>152</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>153</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s">
-        <v>150</v>
-      </c>
-      <c r="B10" t="s">
-        <v>151</v>
+      <c r="A10" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>155</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s">
-        <v>152</v>
-      </c>
-      <c r="B11" t="s">
-        <v>153</v>
+      <c r="A11" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>157</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s">
-        <v>154</v>
-      </c>
-      <c r="B12" t="s">
-        <v>155</v>
+      <c r="A12" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>159</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s">
-        <v>156</v>
-      </c>
-      <c r="B13" t="s">
-        <v>157</v>
+      <c r="A13" t="s" s="0">
+        <v>160</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>161</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" t="s">
-        <v>159</v>
+      <c r="A14" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>163</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="s">
-        <v>160</v>
-      </c>
-      <c r="B15" t="s">
-        <v>161</v>
+      <c r="A15" t="s" s="0">
+        <v>164</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>165</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s">
-        <v>162</v>
-      </c>
-      <c r="B16" t="s">
-        <v>163</v>
+      <c r="A16" t="s" s="0">
+        <v>166</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>167</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s">
-        <v>164</v>
-      </c>
-      <c r="B17" t="s">
-        <v>165</v>
+      <c r="A17" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>169</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B18" t="s">
-        <v>167</v>
+      <c r="A18" t="s" s="0">
+        <v>170</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>171</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" t="s">
-        <v>169</v>
+      <c r="A19" t="s" s="0">
+        <v>172</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>173</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="s">
-        <v>170</v>
-      </c>
-      <c r="B20" t="s">
-        <v>171</v>
+      <c r="A20" t="s" s="0">
+        <v>174</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>175</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B21" t="s">
-        <v>173</v>
+      <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="s">
-        <v>174</v>
-      </c>
-      <c r="B22" t="s">
-        <v>175</v>
+      <c r="A22" t="s" s="0">
+        <v>178</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>179</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s">
-        <v>176</v>
-      </c>
-      <c r="B23" t="s">
-        <v>177</v>
+      <c r="A23" t="s" s="0">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>181</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="s">
-        <v>178</v>
-      </c>
-      <c r="B24" t="s">
-        <v>179</v>
+      <c r="A24" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>183</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="s">
-        <v>180</v>
-      </c>
-      <c r="B25" t="s">
-        <v>181</v>
+      <c r="A25" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>185</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s">
-        <v>182</v>
-      </c>
-      <c r="B26" t="s">
-        <v>183</v>
+      <c r="A26" t="s" s="0">
+        <v>186</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>187</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="s">
-        <v>184</v>
-      </c>
-      <c r="B27" t="s">
-        <v>185</v>
+      <c r="A27" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>189</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s">
-        <v>186</v>
-      </c>
-      <c r="B28" t="s">
-        <v>187</v>
+      <c r="A28" t="s" s="0">
+        <v>190</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>191</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s">
-        <v>188</v>
-      </c>
-      <c r="B29" t="s">
-        <v>189</v>
+      <c r="A29" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>193</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="s">
-        <v>190</v>
-      </c>
-      <c r="B30" t="s">
-        <v>191</v>
+      <c r="A30" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>195</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>192</v>
-      </c>
-      <c r="B31" t="s">
-        <v>193</v>
+      <c r="A31" t="s" s="0">
+        <v>196</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>197</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" t="s">
-        <v>195</v>
+      <c r="A32" t="s" s="0">
+        <v>198</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>199</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="s">
-        <v>196</v>
-      </c>
-      <c r="B33" t="s">
-        <v>197</v>
+      <c r="A33" t="s" s="0">
+        <v>200</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>201</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="s">
-        <v>198</v>
-      </c>
-      <c r="B34" t="s">
-        <v>199</v>
+      <c r="A34" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>203</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s">
-        <v>200</v>
-      </c>
-      <c r="B35" t="s">
-        <v>201</v>
+      <c r="A35" t="s" s="0">
+        <v>204</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>205</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s">
-        <v>202</v>
-      </c>
-      <c r="B36" t="s">
-        <v>203</v>
+      <c r="A36" t="s" s="0">
+        <v>206</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>207</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="s">
-        <v>204</v>
-      </c>
-      <c r="B37" t="s">
-        <v>205</v>
+      <c r="A37" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="s">
-        <v>206</v>
-      </c>
-      <c r="B38" t="s">
-        <v>207</v>
+      <c r="A38" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>211</v>
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="s">
-        <v>208</v>
-      </c>
-      <c r="B39" t="s">
-        <v>209</v>
+      <c r="A39" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>213</v>
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="s">
-        <v>210</v>
-      </c>
-      <c r="B40" t="s">
-        <v>211</v>
+      <c r="A40" t="s" s="0">
+        <v>214</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>215</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="s">
-        <v>212</v>
-      </c>
-      <c r="B41" t="s">
-        <v>213</v>
+      <c r="A41" t="s" s="0">
+        <v>216</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>217</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s">
-        <v>214</v>
-      </c>
-      <c r="B42" t="s">
-        <v>215</v>
+      <c r="A42" t="s" s="0">
+        <v>218</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>220</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>222</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -3994,43 +4058,43 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" t="s">
-        <v>219</v>
+      <c r="A1" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>220</v>
-      </c>
-      <c r="B2" t="s">
-        <v>221</v>
+      <c r="A2" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>222</v>
-      </c>
-      <c r="B3" t="s">
-        <v>223</v>
+      <c r="A3" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>224</v>
-      </c>
-      <c r="B4" t="s">
-        <v>225</v>
+      <c r="A4" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>226</v>
-      </c>
-      <c r="B5" t="s">
-        <v>227</v>
+      <c r="A5" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4047,27 +4111,27 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>220</v>
-      </c>
-      <c r="B1" t="s">
-        <v>221</v>
+      <c r="A1" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>231</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>222</v>
-      </c>
-      <c r="B2" t="s">
-        <v>223</v>
+      <c r="A2" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>224</v>
-      </c>
-      <c r="B3" t="s">
-        <v>225</v>
+      <c r="A3" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
@@ -4084,33 +4148,33 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
-        <v>233</v>
+      <c r="A1" t="s" s="0">
+        <v>243</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s">
-        <v>234</v>
+      <c r="A2" t="s" s="0">
+        <v>244</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s">
-        <v>235</v>
+      <c r="A3" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s">
-        <v>236</v>
+      <c r="A4" t="s" s="0">
+        <v>246</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s">
-        <v>237</v>
+      <c r="A5" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s">
-        <v>238</v>
+      <c r="A6" t="s" s="0">
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="427">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1339,6 +1339,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
   </si>
   <si>
+    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000322</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
   </si>
   <si>
@@ -1357,6 +1363,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
+    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN-120267</t>
   </si>
   <si>
@@ -1375,6 +1387,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
   </si>
   <si>
+    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000321</t>
+  </si>
+  <si>
     <t>sample_indexing_kit</t>
   </si>
   <si>
@@ -1438,6 +1456,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (300 Cycles); PN 20028317</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000318</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (100 Cycles); PN 20046811</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000323</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
   </si>
   <si>
@@ -1468,6 +1498,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq 6000 S4 Reagent Kit v1.5 (300 cycles); PN 20028312</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000319</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
   </si>
   <si>
@@ -1582,6 +1618,18 @@
     <t>preparation_instrument_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000324</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000325</t>
+  </si>
+  <si>
     <t>probe_hybridization_time_value</t>
   </si>
   <si>
@@ -1615,6 +1663,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
   </si>
   <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
+  </si>
+  <si>
     <t>is_custom_probes_used</t>
   </si>
   <si>
@@ -1636,7 +1690,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-01-29T14:35:01-08:00</t>
+    <t>2024-02-08T09:17:07-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1932,52 +1986,52 @@
         <v>304</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>388</v>
+        <v>404</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>389</v>
+        <v>405</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>399</v>
+        <v>417</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>400</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
@@ -1985,7 +2039,7 @@
         <v>62</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -2088,7 +2142,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$7</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$4</formula1>
@@ -2101,7 +2155,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$13</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
@@ -2110,7 +2164,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$2</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AV2:AV1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -2120,7 +2174,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$1</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$5</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -2768,7 +2822,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2828,6 +2882,30 @@
       </c>
       <c r="B7" t="s" s="0">
         <v>318</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>319</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>321</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>323</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -2845,10 +2923,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
@@ -2861,18 +2939,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -2905,7 +2983,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2913,106 +2991,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>362</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>364</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>366</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3054,18 +3156,18 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>361</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>363</v>
+        <v>375</v>
       </c>
     </row>
     <row r="6">
@@ -3078,10 +3180,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>365</v>
+        <v>377</v>
       </c>
     </row>
   </sheetData>
@@ -3115,18 +3217,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>368</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
@@ -3147,66 +3249,66 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>372</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>374</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>376</v>
+        <v>388</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>378</v>
+        <v>390</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>380</v>
+        <v>392</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>382</v>
+        <v>394</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>384</v>
+        <v>396</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>386</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3216,7 +3318,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3224,10 +3326,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
@@ -3236,6 +3338,22 @@
       </c>
       <c r="B2" t="s" s="0">
         <v>306</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>402</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -3266,7 +3384,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3274,42 +3392,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>391</v>
+        <v>407</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>392</v>
+        <v>408</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>409</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>394</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>395</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>396</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>398</v>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>415</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3457,16 +3583,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>402</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>405</v>
+        <v>423</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>407</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2">
@@ -3474,13 +3600,13 @@
         <v>62</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>404</v>
+        <v>422</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>406</v>
+        <v>424</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>408</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="431">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -805,6 +805,12 @@
     <t>https://identifiers.org/RRID:SCR_023609</t>
   </si>
   <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
     <t>Illumina</t>
   </si>
   <si>
@@ -934,6 +940,12 @@
     <t>https://identifiers.org/RRID:SCR_023615</t>
   </si>
   <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
     <t>VS200 Slide Scanner</t>
   </si>
   <si>
@@ -1690,7 +1702,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-02-08T09:17:07-08:00</t>
+    <t>2024-02-09T10:29:34-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1899,139 +1911,139 @@
         <v>96</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="2">
@@ -2039,7 +2051,7 @@
         <v>62</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -2054,10 +2066,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$19</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$20</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$45</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$46</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2196,26 +2208,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2233,32 +2245,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -2276,17 +2288,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2304,26 +2316,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -2341,27 +2353,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2379,42 +2391,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2432,10 +2444,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2453,10 +2465,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2474,10 +2486,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2495,18 +2507,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2801,18 +2813,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2830,82 +2842,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2923,34 +2935,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2991,130 +3003,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3148,26 +3160,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6">
@@ -3180,10 +3192,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3201,114 +3213,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
   </sheetData>
@@ -3326,34 +3338,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -3371,10 +3383,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -3392,50 +3404,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -3583,16 +3595,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2">
@@ -3600,13 +3612,13 @@
         <v>62</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
   </sheetData>
@@ -3639,7 +3651,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3797,6 +3809,14 @@
         <v>134</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>135</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3804,7 +3824,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B45"/>
+  <dimension ref="A1:B46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3812,362 +3832,370 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>229</v>
       </c>
     </row>
   </sheetData>
@@ -4185,42 +4213,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
   </sheetData>
@@ -4238,26 +4266,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4275,32 +4303,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="431">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1273,10 +1273,16 @@
     <t>amount_of_input_analyte_unit</t>
   </si>
   <si>
-    <t>Amount of input analyte unit</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_1001221</t>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
   </si>
   <si>
     <t>library_adapter_sequence</t>
@@ -1291,12 +1297,6 @@
     <t>library_input_amount_unit</t>
   </si>
   <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
-  </si>
-  <si>
     <t>library_output_amount_value</t>
   </si>
   <si>
@@ -1702,7 +1702,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-02-09T10:29:34-08:00</t>
+    <t>2024-02-13T14:42:31-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1962,16 +1962,16 @@
         <v>284</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AC1" t="s" s="1">
         <v>293</v>
@@ -2115,7 +2115,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="X2:X1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'amount_of_input_analyte_unit'!$A$1:$A$1</formula1>
+      <formula1>'amount_of_input_analyte_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="between" sqref="Z2:Z1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-2147483648</formula1>
@@ -2436,7 +2436,7 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2448,6 +2448,14 @@
       </c>
       <c r="B1" t="s" s="0">
         <v>286</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>287</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2465,10 +2473,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2486,10 +2494,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>292</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -380,8 +380,8 @@
     </comment>
     <comment ref="AV1" authorId="1">
       <text>
-        <t>(Required) How many hours were the oligo-conjugated RNA or oligo-conjugated
-antibody probes hybridized with the sample?</t>
+        <t>(Required) How long was the oligo-conjugated RNA or oligo-conjugated antibody
+probes hybridized with the sample?</t>
       </text>
     </comment>
     <comment ref="AW1" authorId="1">
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="437">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -880,6 +880,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
     <t>DM6 B</t>
   </si>
   <si>
@@ -1030,6 +1036,12 @@
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
+  </si>
+  <si>
     <t>MIBIscope</t>
   </si>
   <si>
@@ -1609,6 +1621,12 @@
     <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
+    <t>ST5020 Multistainer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025021</t>
+  </si>
+  <si>
     <t>Chromium iX</t>
   </si>
   <si>
@@ -1702,7 +1720,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-02-13T14:42:31-08:00</t>
+    <t>2024-02-29T07:10:17-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1914,136 +1932,136 @@
         <v>137</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2">
@@ -2051,7 +2069,7 @@
         <v>62</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>423</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -2069,7 +2087,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$20</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$46</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$48</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2173,7 +2191,7 @@
       <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$14</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_kit'!$A$1:$A$4</formula1>
@@ -2183,7 +2201,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AW2:AW1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'probe_hybridization_time_unit'!$A$1:$A$1</formula1>
+      <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'oligo_probe_panel'!$A$1:$A$6</formula1>
@@ -2208,26 +2226,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2245,32 +2263,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -2288,17 +2306,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2316,26 +2334,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -2353,27 +2371,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
@@ -2391,42 +2409,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -2444,18 +2462,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2473,10 +2491,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2494,10 +2512,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2515,18 +2533,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2821,18 +2839,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -2850,82 +2868,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
   </sheetData>
@@ -2943,34 +2961,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3011,130 +3029,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
   </sheetData>
@@ -3168,26 +3186,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="6">
@@ -3200,10 +3218,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3213,7 +3231,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3229,106 +3247,114 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3346,34 +3372,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3383,7 +3409,7 @@
 
 <file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3391,10 +3417,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>241</v>
+        <v>237</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -3412,50 +3446,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
   </sheetData>
@@ -3603,16 +3637,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2">
@@ -3620,13 +3654,13 @@
         <v>62</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3832,7 +3866,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B46"/>
+  <dimension ref="A1:B48"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4204,6 +4238,22 @@
       </c>
       <c r="B46" t="s" s="0">
         <v>229</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>230</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4221,42 +4271,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
   </sheetData>
@@ -4274,26 +4324,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4311,32 +4361,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="494" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="443">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -526,6 +526,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000300</t>
   </si>
   <si>
+    <t>MUSIC</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
+  </si>
+  <si>
     <t>CyCIF</t>
   </si>
   <si>
@@ -631,6 +637,12 @@
     <t>analyte_class</t>
   </si>
   <si>
+    <t>DNA + RNA</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -1309,6 +1321,12 @@
     <t>library_input_amount_unit</t>
   </si>
   <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
     <t>library_output_amount_value</t>
   </si>
   <si>
@@ -1720,7 +1738,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-02-29T07:10:17-08:00</t>
+    <t>2024-03-04T13:57:05-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1920,165 +1938,165 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>333</v>
+        <v>339</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>340</v>
+        <v>346</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="41">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$33</formula1>
+      <formula1>'dataset_type'!$A$1:$A$34</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$11</formula1>
+      <formula1>'analyte_class'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2144,14 +2162,14 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AB2:AB1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_input_amount_unit'!$A$1:$A$1</formula1>
+      <formula1>'library_input_amount_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AC2:AC1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AD2:AD1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_output_amount_unit'!$A$1:$A$1</formula1>
+      <formula1>'library_output_amount_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AE2:AE1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -2226,26 +2244,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2263,32 +2281,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -2306,17 +2324,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -2334,26 +2352,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
@@ -2371,27 +2389,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -2409,42 +2427,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2462,18 +2480,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2483,7 +2501,7 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2491,10 +2509,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2504,7 +2530,7 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2512,10 +2538,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>301</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2533,18 +2567,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2554,7 +2588,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2822,6 +2856,14 @@
       </c>
       <c r="B33" t="s" s="0">
         <v>69</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>70</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2839,18 +2881,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2868,82 +2910,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>316</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -2961,34 +3003,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>335</v>
+        <v>341</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3006,12 +3048,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3029,130 +3071,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>357</v>
+        <v>363</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>358</v>
+        <v>364</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>359</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>361</v>
+        <v>367</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>363</v>
+        <v>369</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>366</v>
+        <v>372</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>367</v>
+        <v>373</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>369</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>371</v>
+        <v>377</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>373</v>
+        <v>379</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>374</v>
+        <v>380</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>375</v>
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -3170,58 +3212,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>381</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>383</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>384</v>
+        <v>390</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>385</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>
@@ -3239,122 +3281,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3372,34 +3414,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
@@ -3417,18 +3459,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -3446,50 +3488,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
   </sheetData>
@@ -3499,7 +3541,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3507,90 +3549,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -3608,12 +3658,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3637,30 +3687,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3678,12 +3728,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -3701,162 +3751,162 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -3874,386 +3924,386 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -4271,42 +4321,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4324,26 +4374,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4361,32 +4411,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="443">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="447">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -862,30 +862,144 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023760</t>
   </si>
   <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
-  </si>
-  <si>
     <t>Axio Observer 7</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -904,36 +1018,12 @@
     <t>https://identifiers.org/RRID:SCR_024857</t>
   </si>
   <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
     <t>Phenocycler-Fusion 2.0</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023773</t>
   </si>
   <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
-  </si>
-  <si>
     <t>Orbitrap Fusion Lumos Tribrid</t>
   </si>
   <si>
@@ -946,12 +1036,6 @@
     <t>https://identifiers.org/RRID:SCR_024449</t>
   </si>
   <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
-  </si>
-  <si>
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
@@ -994,12 +1078,6 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1012,42 +1090,12 @@
     <t>https://identifiers.org/RRID:SCR_016387</t>
   </si>
   <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
     <t>HiSeq 4000</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
-  </si>
-  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1060,18 +1108,6 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1084,36 +1120,6 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1201,6 +1207,9 @@
     <t>10,48,86</t>
   </si>
   <si>
+    <t>20</t>
+  </si>
+  <si>
     <t>barcode_read</t>
   </si>
   <si>
@@ -1240,6 +1249,9 @@
     <t>umi_offset</t>
   </si>
   <si>
+    <t>36</t>
+  </si>
+  <si>
     <t>umi_read</t>
   </si>
   <si>
@@ -1738,7 +1750,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-04T13:57:05-08:00</t>
+    <t>2024-03-05T18:57:27-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1950,136 +1962,136 @@
         <v>141</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2">
@@ -2087,7 +2099,7 @@
         <v>64</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -2105,7 +2117,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$20</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$48</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$49</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2122,7 +2134,7 @@
       <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$6</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
@@ -2131,7 +2143,7 @@
       <formula1>'barcode_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_offset'!$A$1:$A$3</formula1>
+      <formula1>'umi_offset'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_read'!$A$1:$A$3</formula1>
@@ -2244,26 +2256,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2281,32 +2293,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>268</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>269</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>270</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -2316,7 +2328,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2324,17 +2336,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>270</v>
+        <v>259</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2352,26 +2369,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -2389,27 +2406,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2427,42 +2444,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2480,18 +2497,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -2509,18 +2526,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2538,18 +2555,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -2567,18 +2584,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2881,18 +2898,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2910,82 +2927,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -3003,34 +3020,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
@@ -3071,130 +3088,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3228,26 +3245,26 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6">
@@ -3260,10 +3277,10 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3281,122 +3298,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>148</v>
+        <v>190</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>149</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>216</v>
+        <v>178</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>217</v>
+        <v>179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3414,34 +3431,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3459,18 +3476,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -3488,50 +3505,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3687,16 +3704,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2">
@@ -3704,13 +3721,13 @@
         <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
   </sheetData>
@@ -3916,7 +3933,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B48"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4304,6 +4321,14 @@
       </c>
       <c r="B48" t="s" s="0">
         <v>237</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>239</v>
       </c>
     </row>
   </sheetData>
@@ -4321,42 +4346,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -4374,26 +4399,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
@@ -4403,7 +4428,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4411,32 +4436,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>263</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="506" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="513">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -751,6 +751,12 @@
     <t>https://identifiers.org/RRID:SCR_008452</t>
   </si>
   <si>
+    <t>Roche Diagnostics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025096</t>
+  </si>
+  <si>
     <t>Zeiss Microscopy</t>
   </si>
   <si>
@@ -910,6 +916,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>Discovery Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025097</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -1387,6 +1399,90 @@
     <t>library_preparation_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 8 rxns; PN 1000370</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000336</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000344</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000340</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Evercode WT v2 Kit, 48 rxns; PN ECW02030</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000341</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 16 rxns; PN 1000263</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000339</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 16 rxns; PN 1000268</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000335</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000299</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000355</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
   </si>
   <si>
@@ -1399,40 +1495,22 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000322</t>
   </si>
   <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN-120267</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000299</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+    <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000343</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000338</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3’ GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
   </si>
   <si>
     <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
@@ -1441,6 +1519,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
   </si>
   <si>
+    <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000342</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
   </si>
   <si>
@@ -1450,12 +1534,78 @@
     <t>sample_indexing_kit</t>
   </si>
   <si>
+    <t>Illumina; TruSeq RNA CD Index Plate (96 Indexes, 96 Samples); PN 20019792</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000349</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq RNA Single Indexes Set A (12 Indexes, 48 Samples); PN 20020492</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000347</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq RNA Single Indexes Set B (12 Indexes, 48 Samples); PN 20020493</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000348</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-AB</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000356</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-CD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000357</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-EF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000358</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-GH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000359</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000345</t>
+  </si>
+  <si>
+    <t>Integrated DNA Technologies: Custom DNA Oligos</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000351</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000346</t>
+  </si>
+  <si>
     <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
   </si>
   <si>
+    <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000350</t>
+  </si>
+  <si>
     <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
   </si>
   <si>
@@ -1492,6 +1642,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
   </si>
   <si>
@@ -1510,6 +1666,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
   </si>
   <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (300 Cycles); PN 20046813</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000353</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 2000 P3 Reagents Kit (100 Cycles); PN 20040559</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000361</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (300 Cycles); PN 20028317</t>
   </si>
   <si>
@@ -1522,12 +1690,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000323</t>
   </si>
   <si>
+    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
   </si>
   <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
+  </si>
+  <si>
     <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
   </si>
   <si>
@@ -1699,16 +1879,40 @@
     <t>oligo_probe_panel</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 16 BC; PN 1000476</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000308</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Mouse Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-MsWTA-4</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000364</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
+  </si>
+  <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome, 4 rxns x 1 BC; PN 1000474</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000306</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 16 BC; PN 1000476</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000308</t>
+    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit - Small; PN 1000365</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Human Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-HuWTA-4</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
   </si>
   <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
@@ -1723,12 +1927,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
   </si>
   <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
-  </si>
-  <si>
     <t>is_custom_probes_used</t>
   </si>
   <si>
@@ -1750,7 +1948,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-05T18:57:27-08:00</t>
+    <t>2024-03-18T09:18:02-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -1959,139 +2157,139 @@
         <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>343</v>
+        <v>371</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>350</v>
+        <v>400</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>352</v>
+        <v>402</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>353</v>
+        <v>403</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>386</v>
+        <v>446</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>387</v>
+        <v>447</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>388</v>
+        <v>448</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>389</v>
+        <v>449</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>396</v>
+        <v>456</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>419</v>
+        <v>479</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>426</v>
+        <v>486</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>437</v>
+        <v>503</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>438</v>
+        <v>504</v>
       </c>
     </row>
     <row r="2">
@@ -2099,7 +2297,7 @@
         <v>64</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>439</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>
@@ -2114,10 +2312,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$20</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$49</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2202,10 +2400,10 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$10</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$4</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2215,7 +2413,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$16</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$21</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
@@ -2234,7 +2432,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$6</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -2256,26 +2454,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2293,32 +2491,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -2336,22 +2534,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2369,26 +2567,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -2406,27 +2604,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2444,42 +2642,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
   </sheetData>
@@ -2497,18 +2695,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2526,18 +2724,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2555,18 +2753,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2584,18 +2782,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -2898,18 +3096,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -2919,7 +3117,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2927,82 +3125,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>353</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>355</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>357</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>359</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>361</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>363</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>365</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>367</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>369</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3012,7 +3306,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3020,34 +3314,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>345</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>374</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>347</v>
+        <v>375</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>348</v>
+        <v>376</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>349</v>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>378</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>380</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>382</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>384</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>386</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>388</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>390</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>392</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>394</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>396</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>398</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3080,7 +3462,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3088,130 +3470,170 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>354</v>
+        <v>404</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>355</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>356</v>
+        <v>406</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>357</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>358</v>
+        <v>408</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>359</v>
+        <v>409</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>360</v>
+        <v>410</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>361</v>
+        <v>411</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>362</v>
+        <v>412</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>363</v>
+        <v>413</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>364</v>
+        <v>414</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>365</v>
+        <v>415</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>367</v>
+        <v>417</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>369</v>
+        <v>419</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>371</v>
+        <v>421</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>372</v>
+        <v>422</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>373</v>
+        <v>423</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>374</v>
+        <v>424</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>375</v>
+        <v>425</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>376</v>
+        <v>426</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>377</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>378</v>
+        <v>428</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>379</v>
+        <v>429</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>380</v>
+        <v>430</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>381</v>
+        <v>431</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>382</v>
+        <v>432</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>383</v>
+        <v>433</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>384</v>
+        <v>434</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>385</v>
+        <v>435</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>436</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>438</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>440</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>442</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>444</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -3237,50 +3659,50 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>390</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>391</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>392</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>393</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>394</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>395</v>
+        <v>455</v>
       </c>
     </row>
   </sheetData>
@@ -3298,122 +3720,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>397</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>398</v>
+        <v>458</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>399</v>
+        <v>459</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>400</v>
+        <v>460</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>401</v>
+        <v>461</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>402</v>
+        <v>462</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>403</v>
+        <v>463</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>404</v>
+        <v>464</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>405</v>
+        <v>465</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>406</v>
+        <v>466</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>407</v>
+        <v>467</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>408</v>
+        <v>468</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>409</v>
+        <v>469</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>410</v>
+        <v>470</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>411</v>
+        <v>471</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>412</v>
+        <v>472</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>413</v>
+        <v>473</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>414</v>
+        <v>474</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>415</v>
+        <v>475</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>416</v>
+        <v>476</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>417</v>
+        <v>477</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>418</v>
+        <v>478</v>
       </c>
     </row>
   </sheetData>
@@ -3431,34 +3853,34 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>330</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>323</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>324</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>421</v>
+        <v>481</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>423</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3476,18 +3898,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -3497,7 +3919,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3505,50 +3927,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>427</v>
+        <v>487</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>428</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>429</v>
+        <v>489</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>430</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>337</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>338</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>431</v>
+        <v>493</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>432</v>
+        <v>494</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>434</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>435</v>
+        <v>347</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>436</v>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>497</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>499</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3704,16 +4150,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>440</v>
+        <v>506</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>441</v>
+        <v>507</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>443</v>
+        <v>509</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>445</v>
+        <v>511</v>
       </c>
     </row>
     <row r="2">
@@ -3721,13 +4167,13 @@
         <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>442</v>
+        <v>508</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>444</v>
+        <v>510</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>446</v>
+        <v>512</v>
       </c>
     </row>
   </sheetData>
@@ -3760,7 +4206,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3926,6 +4372,14 @@
         <v>140</v>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>142</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3933,7 +4387,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3941,394 +4395,402 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>242</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -4346,42 +4808,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -4399,26 +4861,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>
@@ -4436,37 +4898,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="572" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="537">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -751,169 +751,1126 @@
     <t>https://identifiers.org/RRID:SCR_008452</t>
   </si>
   <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>Standard BioTools (Fluidigm)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023606</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_000004</t>
+  </si>
+  <si>
+    <t>Sciex</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023651</t>
+  </si>
+  <si>
+    <t>Bruker</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017365</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>Evident Scientific (Olympus)</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024782</t>
+  </si>
+  <si>
+    <t>Keyence</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023604</t>
+  </si>
+  <si>
+    <t>Leica Biosystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023603</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Hamamatsu</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017105</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Motic</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024856</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
+    <t>acquisition_instrument_model</t>
+  </si>
+  <si>
+    <t>SCN400</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023611</t>
+  </si>
+  <si>
+    <t>STELLARIS 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024663</t>
+  </si>
+  <si>
+    <t>BZ-X710</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_017202</t>
+  </si>
+  <si>
+    <t>MoticEasyScan One</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024855</t>
+  </si>
+  <si>
+    <t>EVOS M7000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025070</t>
+  </si>
+  <si>
+    <t>NovaSeq X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024569</t>
+  </si>
+  <si>
+    <t>NanoZoomer 2.0-HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021658</t>
+  </si>
+  <si>
+    <t>Lightsheet 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024448</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 1.0</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
+  </si>
+  <si>
+    <t>DNBSEQ-T7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024847</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+  </si>
+  <si>
+    <t>Q Exactive UHMR</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020571</t>
+  </si>
+  <si>
+    <t>Q Exactive</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020565</t>
+  </si>
+  <si>
+    <t>Zyla 4.2 sCMOS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023610</t>
+  </si>
+  <si>
+    <t>Custom: Multiphoton</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
+  </si>
+  <si>
+    <t>QTRAP 5500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020517</t>
+  </si>
+  <si>
+    <t>BZ-X800</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023617</t>
+  </si>
+  <si>
+    <t>NextSeq 500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_014983</t>
+  </si>
+  <si>
+    <t>NanoZoomer S360</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023761</t>
+  </si>
+  <si>
+    <t>Hyperion Imaging System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023195</t>
+  </si>
+  <si>
+    <t>NovaSeq X Plus</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024568</t>
+  </si>
+  <si>
+    <t>NanoZoomer-SQ</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023763</t>
+  </si>
+  <si>
+    <t>NextSeq 550</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016381</t>
+  </si>
+  <si>
+    <t>Digital Spatial Profiler</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021660</t>
+  </si>
+  <si>
+    <t>NanoZoomer S210</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023760</t>
+  </si>
+  <si>
+    <t>BZ-X810</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025160</t>
+  </si>
+  <si>
+    <t>Axio Observer 7</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023694</t>
+  </si>
+  <si>
+    <t>IN Cell Analyzer 2200</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023616</t>
+  </si>
+  <si>
+    <t>PhenoImager Fusion</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023274</t>
+  </si>
+  <si>
+    <t>DM6 B</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024857</t>
+  </si>
+  <si>
+    <t>Phenocycler-Fusion 2.0</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023773</t>
+  </si>
+  <si>
+    <t>Aperio CS2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025111</t>
+  </si>
+  <si>
+    <t>Orbitrap Fusion Lumos Tribrid</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020562</t>
+  </si>
+  <si>
+    <t>Resolve Biosciences Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024449</t>
+  </si>
+  <si>
+    <t>MALDI timsTOF Flex Prototype</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
+    <t>TissueScope LE Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024995</t>
+  </si>
+  <si>
+    <t>VS200 Slide Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024783</t>
+  </si>
+  <si>
+    <t>Axio Observer 5</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023692</t>
+  </si>
+  <si>
+    <t>Axio Observer 3</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023693</t>
+  </si>
+  <si>
+    <t>HiSeq 2500</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016383</t>
+  </si>
+  <si>
+    <t>Orbitrap Eclipse Tribrid</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023618</t>
+  </si>
+  <si>
+    <t>NextSeq 2000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023614</t>
+  </si>
+  <si>
+    <t>NovaSeq 6000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016387</t>
+  </si>
+  <si>
+    <t>HiSeq 4000</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_016386</t>
+  </si>
+  <si>
+    <t>Aperio AT2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_021256</t>
+  </si>
+  <si>
+    <t>MIBIscope</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023613</t>
+  </si>
+  <si>
+    <t>NanoZoomer S60</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023762</t>
+  </si>
+  <si>
+    <t>CosMx Spatial Molecular Imager</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023909</t>
+  </si>
+  <si>
+    <t>Axio Scan.Z1</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020927</t>
+  </si>
+  <si>
+    <t>Q Exactive HF</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020558</t>
+  </si>
+  <si>
+    <t>Xenium Analyzer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023910</t>
+  </si>
+  <si>
+    <t>source_storage_duration_value</t>
+  </si>
+  <si>
+    <t>source_storage_duration_unit</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000032</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000035</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000036</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000033</t>
+  </si>
+  <si>
+    <t>minute</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000031</t>
+  </si>
+  <si>
+    <t>time_since_acquisition_instrument_calibration_value</t>
+  </si>
+  <si>
+    <t>time_since_acquisition_instrument_calibration_unit</t>
+  </si>
+  <si>
+    <t>contributors_path</t>
+  </si>
+  <si>
+    <t>data_path</t>
+  </si>
+  <si>
+    <t>barcode_offset</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0,38,76</t>
+  </si>
+  <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>1,27</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>10,48,86</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>barcode_read</t>
+  </si>
+  <si>
+    <t>Read 1 (R1)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
+    <t>Read 2 (R2)</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172302</t>
+  </si>
+  <si>
+    <t>barcode_size</t>
+  </si>
+  <si>
+    <t>8,6</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>umi_offset</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>umi_read</t>
+  </si>
+  <si>
+    <t>umi_size</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>assay_input_entity</t>
+  </si>
+  <si>
+    <t>single nucleus</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000269</t>
+  </si>
+  <si>
+    <t>single cell</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000268</t>
+  </si>
+  <si>
+    <t>tissue (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000267</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000270</t>
+  </si>
+  <si>
+    <t>area of interest</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000271</t>
+  </si>
+  <si>
+    <t>number_of_input_cells_or_nuclei</t>
+  </si>
+  <si>
+    <t>amount_of_input_analyte_value</t>
+  </si>
+  <si>
+    <t>amount_of_input_analyte_unit</t>
+  </si>
+  <si>
+    <t>ng</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
+  </si>
+  <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
+  </si>
+  <si>
+    <t>library_adapter_sequence</t>
+  </si>
+  <si>
+    <t>library_average_fragment_size</t>
+  </si>
+  <si>
+    <t>library_input_amount_value</t>
+  </si>
+  <si>
+    <t>library_input_amount_unit</t>
+  </si>
+  <si>
+    <t>ul</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
+    <t>library_output_amount_value</t>
+  </si>
+  <si>
+    <t>library_output_amount_unit</t>
+  </si>
+  <si>
+    <t>library_concentration_value</t>
+  </si>
+  <si>
+    <t>library_concentration_unit</t>
+  </si>
+  <si>
+    <t>ng/ul</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0010050</t>
+  </si>
+  <si>
+    <t>nM</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000065</t>
+  </si>
+  <si>
+    <t>library_layout</t>
+  </si>
+  <si>
+    <t>single-end</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0002481</t>
+  </si>
+  <si>
+    <t>paired-end</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/OBI_0000722</t>
+  </si>
+  <si>
+    <t>number_of_iterations_of_cdna_amplification</t>
+  </si>
+  <si>
+    <t>number_of_pcr_cycles_for_indexing</t>
+  </si>
+  <si>
+    <t>library_preparation_kit</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 8 rxns; PN 1000370</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000336</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 4 rxns; PN 1000298</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000366</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Evercode WT v2 Kit, 48 rxns; PN ECW02030</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000341</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 16 rxns; PN 1000263</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000339</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 16 rxns; PN 1000268</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000335</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000322</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000343</t>
+  </si>
+  <si>
+    <t>10X Genomics; Automated Library Construction Kit, 24 rxns; PN 1000428</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000374</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000365</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000342</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000344</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000340</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000299</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000355</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000338</t>
+  </si>
+  <si>
+    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000321</t>
+  </si>
+  <si>
+    <t>sample_indexing_kit</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq RNA CD Index Plate (96 Indexes, 96 Samples); PN 20019792</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000349</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq RNA Single Indexes Set A (12 Indexes, 48 Samples); PN 20020492</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000347</t>
+  </si>
+  <si>
+    <t>Illumina; TruSeq RNA Single Indexes Set B (12 Indexes, 48 Samples); PN 20020493</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000348</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-AB</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000356</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-CD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000357</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-EF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000358</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-GH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000359</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000345</t>
+  </si>
+  <si>
+    <t>Integrated DNA Technologies: Custom DNA Oligos</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000351</t>
+  </si>
+  <si>
+    <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000346</t>
+  </si>
+  <si>
+    <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
+  </si>
+  <si>
+    <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000350</t>
+  </si>
+  <si>
+    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
+  </si>
+  <si>
+    <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000253</t>
+  </si>
+  <si>
+    <t>sample_indexing_set</t>
+  </si>
+  <si>
+    <t>is_technical_replicate</t>
+  </si>
+  <si>
+    <t>expected_entity_capture_count</t>
+  </si>
+  <si>
+    <t>sequencing_reagent_kit</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
+  </si>
+  <si>
+    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (300 Cycles); PN 20046813</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000353</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 2000 P3 Reagents Kit (100 Cycles); PN 20040559</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000361</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (300 Cycles); PN 20028317</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000318</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (100 Cycles); PN 20046811</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000323</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 500/550 Mid Output Kit 150 Cycles v2.5; PN 20024904</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000369</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent Kit (200 Cycles); PN 20012864</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S4 Reagent Kit v1.5 (300 cycles); PN 20028312</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000319</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000285</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S2 Reagent v1.5 Kit (100 Cycles); PN 20028316</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
+  </si>
+  <si>
+    <t>sequencing_read_format</t>
+  </si>
+  <si>
+    <t>sequencing_batch_id</t>
+  </si>
+  <si>
+    <t>capture_batch_id</t>
+  </si>
+  <si>
+    <t>preparation_instrument_vendor</t>
+  </si>
+  <si>
     <t>Roche Diagnostics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_025096</t>
   </si>
   <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
-  </si>
-  <si>
-    <t>Standard BioTools (Fluidigm)</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023606</t>
-  </si>
-  <si>
-    <t>Sciex</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023651</t>
-  </si>
-  <si>
-    <t>Bruker</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_017365</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
-    <t>Evident Scientific (Olympus)</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024782</t>
-  </si>
-  <si>
-    <t>Keyence</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023604</t>
-  </si>
-  <si>
-    <t>Leica Biosystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023603</t>
-  </si>
-  <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
-    <t>Hamamatsu</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_017105</t>
-  </si>
-  <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
-    <t>Motic</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024856</t>
-  </si>
-  <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
-    <t>acquisition_instrument_model</t>
-  </si>
-  <si>
-    <t>SCN400</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023611</t>
-  </si>
-  <si>
-    <t>STELLARIS 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024663</t>
-  </si>
-  <si>
-    <t>BZ-X710</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_017202</t>
-  </si>
-  <si>
-    <t>MoticEasyScan One</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024855</t>
-  </si>
-  <si>
-    <t>EVOS M7000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025070</t>
-  </si>
-  <si>
-    <t>NovaSeq X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024569</t>
-  </si>
-  <si>
-    <t>NanoZoomer 2.0-HT</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021658</t>
-  </si>
-  <si>
-    <t>Lightsheet 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024448</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 1.0</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000316</t>
-  </si>
-  <si>
-    <t>DNBSEQ-T7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024847</t>
-  </si>
-  <si>
-    <t>Unknown</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
+    <t>HTX Technologies</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023734</t>
+  </si>
+  <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
+    <t>SunChrom</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023908</t>
+  </si>
+  <si>
+    <t>preparation_instrument_model</t>
+  </si>
+  <si>
+    <t>Sublimator</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023729</t>
+  </si>
+  <si>
+    <t>Chromium Controller</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019326</t>
+  </si>
+  <si>
+    <t>Chromium X</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024537</t>
+  </si>
+  <si>
+    <t>AutoStainer XL</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023957</t>
+  </si>
+  <si>
+    <t>Visium CytAssist</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024570</t>
+  </si>
+  <si>
+    <t>SunCollect Sprayer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023907</t>
+  </si>
+  <si>
+    <t>M3+ Sprayer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023731</t>
   </si>
   <si>
     <t>Discovery Ultra</t>
@@ -922,915 +1879,6 @@
     <t>https://identifiers.org/RRID:SCR_025097</t>
   </si>
   <si>
-    <t>Q Exactive UHMR</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020571</t>
-  </si>
-  <si>
-    <t>Q Exactive</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020565</t>
-  </si>
-  <si>
-    <t>Zyla 4.2 sCMOS</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023610</t>
-  </si>
-  <si>
-    <t>Custom: Multiphoton</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000317</t>
-  </si>
-  <si>
-    <t>QTRAP 5500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020517</t>
-  </si>
-  <si>
-    <t>BZ-X800</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023617</t>
-  </si>
-  <si>
-    <t>NextSeq 500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_014983</t>
-  </si>
-  <si>
-    <t>NanoZoomer S360</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023761</t>
-  </si>
-  <si>
-    <t>Hyperion Imaging System</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023195</t>
-  </si>
-  <si>
-    <t>NovaSeq X Plus</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024568</t>
-  </si>
-  <si>
-    <t>NanoZoomer-SQ</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023763</t>
-  </si>
-  <si>
-    <t>NextSeq 550</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016381</t>
-  </si>
-  <si>
-    <t>Digital Spatial Profiler</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021660</t>
-  </si>
-  <si>
-    <t>NanoZoomer S210</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023760</t>
-  </si>
-  <si>
-    <t>Axio Observer 7</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023694</t>
-  </si>
-  <si>
-    <t>IN Cell Analyzer 2200</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023616</t>
-  </si>
-  <si>
-    <t>PhenoImager Fusion</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023274</t>
-  </si>
-  <si>
-    <t>DM6 B</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024857</t>
-  </si>
-  <si>
-    <t>Phenocycler-Fusion 2.0</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023773</t>
-  </si>
-  <si>
-    <t>Orbitrap Fusion Lumos Tribrid</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020562</t>
-  </si>
-  <si>
-    <t>Resolve Biosciences Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024449</t>
-  </si>
-  <si>
-    <t>MALDI timsTOF Flex Prototype</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
-  </si>
-  <si>
-    <t>TissueScope LE Slide Scanner</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024995</t>
-  </si>
-  <si>
-    <t>VS200 Slide Scanner</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024783</t>
-  </si>
-  <si>
-    <t>Axio Observer 5</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023692</t>
-  </si>
-  <si>
-    <t>Axio Observer 3</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023693</t>
-  </si>
-  <si>
-    <t>HiSeq 2500</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016383</t>
-  </si>
-  <si>
-    <t>Orbitrap Eclipse Tribrid</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023618</t>
-  </si>
-  <si>
-    <t>NextSeq 2000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023614</t>
-  </si>
-  <si>
-    <t>NovaSeq 6000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016387</t>
-  </si>
-  <si>
-    <t>HiSeq 4000</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_016386</t>
-  </si>
-  <si>
-    <t>Aperio AT2</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_021256</t>
-  </si>
-  <si>
-    <t>MIBIscope</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023613</t>
-  </si>
-  <si>
-    <t>NanoZoomer S60</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023762</t>
-  </si>
-  <si>
-    <t>CosMx Spatial Molecular Imager</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023909</t>
-  </si>
-  <si>
-    <t>Axio Scan.Z1</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020927</t>
-  </si>
-  <si>
-    <t>Q Exactive HF</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_020558</t>
-  </si>
-  <si>
-    <t>Xenium Analyzer</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023910</t>
-  </si>
-  <si>
-    <t>source_storage_duration_value</t>
-  </si>
-  <si>
-    <t>source_storage_duration_unit</t>
-  </si>
-  <si>
-    <t>hour</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000032</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000035</t>
-  </si>
-  <si>
-    <t>year</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000036</t>
-  </si>
-  <si>
-    <t>day</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000033</t>
-  </si>
-  <si>
-    <t>minute</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000031</t>
-  </si>
-  <si>
-    <t>time_since_acquisition_instrument_calibration_value</t>
-  </si>
-  <si>
-    <t>time_since_acquisition_instrument_calibration_unit</t>
-  </si>
-  <si>
-    <t>contributors_path</t>
-  </si>
-  <si>
-    <t>data_path</t>
-  </si>
-  <si>
-    <t>barcode_offset</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0,38,76</t>
-  </si>
-  <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>1,27</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>10,48,86</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>barcode_read</t>
-  </si>
-  <si>
-    <t>Read 1 (R1)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
-  </si>
-  <si>
-    <t>Read 2 (R2)</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172302</t>
-  </si>
-  <si>
-    <t>barcode_size</t>
-  </si>
-  <si>
-    <t>8,6</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8,8,8</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>umi_offset</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>umi_read</t>
-  </si>
-  <si>
-    <t>umi_size</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>assay_input_entity</t>
-  </si>
-  <si>
-    <t>single nucleus</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000269</t>
-  </si>
-  <si>
-    <t>single cell</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000268</t>
-  </si>
-  <si>
-    <t>tissue (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000267</t>
-  </si>
-  <si>
-    <t>spot</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000270</t>
-  </si>
-  <si>
-    <t>area of interest</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000271</t>
-  </si>
-  <si>
-    <t>number_of_input_cells_or_nuclei</t>
-  </si>
-  <si>
-    <t>amount_of_input_analyte_value</t>
-  </si>
-  <si>
-    <t>amount_of_input_analyte_unit</t>
-  </si>
-  <si>
-    <t>ng</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000024</t>
-  </si>
-  <si>
-    <t>ug</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
-  </si>
-  <si>
-    <t>library_adapter_sequence</t>
-  </si>
-  <si>
-    <t>library_average_fragment_size</t>
-  </si>
-  <si>
-    <t>library_input_amount_value</t>
-  </si>
-  <si>
-    <t>library_input_amount_unit</t>
-  </si>
-  <si>
-    <t>ul</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
-  </si>
-  <si>
-    <t>library_output_amount_value</t>
-  </si>
-  <si>
-    <t>library_output_amount_unit</t>
-  </si>
-  <si>
-    <t>library_concentration_value</t>
-  </si>
-  <si>
-    <t>library_concentration_unit</t>
-  </si>
-  <si>
-    <t>ng/ul</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0010050</t>
-  </si>
-  <si>
-    <t>nM</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000065</t>
-  </si>
-  <si>
-    <t>library_layout</t>
-  </si>
-  <si>
-    <t>single-end</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0002481</t>
-  </si>
-  <si>
-    <t>paired-end</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/OBI_0000722</t>
-  </si>
-  <si>
-    <t>number_of_iterations_of_cdna_amplification</t>
-  </si>
-  <si>
-    <t>number_of_pcr_cycles_for_indexing</t>
-  </si>
-  <si>
-    <t>library_preparation_kit</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 8 rxns; PN 1000370</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000336</t>
-  </si>
-  <si>
-    <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000344</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 4 rxns; PN 1000265</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000340</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 4 slides, 16 reactions; PN 1000184</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000261</t>
-  </si>
-  <si>
-    <t>Parse Biosciences; Evercode WT v2 Kit, 48 rxns; PN ECW02030</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000341</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 4 rxn; PN 1000285</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 5' Kit v2, 16 rxns; PN 1000263</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000339</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Human Transcriptome, 1 slides, 4 reactions; PN 1000338</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000320</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 16 rxns; PN 1000268</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000335</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000299</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial for FFPE Gene Expression Kit, Mouse Transcriptome, 4 rxns; PN 1000339</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000355</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium NextGem Single Cell Multiome ATAC + Gene Expression Reagent Bundle, 16 rxn; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000250</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000322</t>
-  </si>
-  <si>
-    <t>Illumina; TruSeq Stranded mRNA Library Prep (48 samples); PN 20020594</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000343</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3' Kit v3.1, 4 rxns; PN 1000269</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000338</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell 3’ GEM, Library &amp; Gel Bead Kit v3.1, 16 rxns; PN 1000121</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium Spatial Gene Expression Slide and Reagent Kit, 1 slides, 4 reactions; PN 1000187</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
-  </si>
-  <si>
-    <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000342</t>
-  </si>
-  <si>
-    <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000321</t>
-  </si>
-  <si>
-    <t>sample_indexing_kit</t>
-  </si>
-  <si>
-    <t>Illumina; TruSeq RNA CD Index Plate (96 Indexes, 96 Samples); PN 20019792</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000349</t>
-  </si>
-  <si>
-    <t>Illumina; TruSeq RNA Single Indexes Set A (12 Indexes, 48 Samples); PN 20020492</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000347</t>
-  </si>
-  <si>
-    <t>Illumina; TruSeq RNA Single Indexes Set B (12 Indexes, 48 Samples); PN 20020493</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000348</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-AB</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000356</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-CD</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000357</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-EF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000358</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-GH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000359</t>
-  </si>
-  <si>
-    <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000345</t>
-  </si>
-  <si>
-    <t>Integrated DNA Technologies: Custom DNA Oligos</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000351</t>
-  </si>
-  <si>
-    <t>Parse Biosciences; UDI Plate - WT; PN UDI1001</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000346</t>
-  </si>
-  <si>
-    <t>10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000282</t>
-  </si>
-  <si>
-    <t>Illumina; IDT for Illumina - TruSeq RNA UD Indexes v2 (96 Indexes, 96 Samples); PN 20040871</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000350</t>
-  </si>
-  <si>
-    <t>10X Genomics; Single Index Kit N, Set A (96 rxn); PN 1000212</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000252</t>
-  </si>
-  <si>
-    <t>10X Genomics; Dual Index Kit TT, Set A (96 rxn); PN 1000215</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000253</t>
-  </si>
-  <si>
-    <t>sample_indexing_set</t>
-  </si>
-  <si>
-    <t>is_technical_replicate</t>
-  </si>
-  <si>
-    <t>expected_entity_capture_count</t>
-  </si>
-  <si>
-    <t>sequencing_reagent_kit</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000257</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (100 Cycles); PN 20028401</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000256</t>
-  </si>
-  <si>
-    <t>Illumina; HiSeq 3000/4000 PE Cluster Kit PE-410-1001; PN 1000283</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000254</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (300 Cycles); PN 20046813</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000353</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 2000 P3 Reagents Kit (100 Cycles); PN 20040559</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000361</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (300 Cycles); PN 20028317</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000318</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (100 Cycles); PN 20046811</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000323</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
-  </si>
-  <si>
-    <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000255</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent Kit (200 Cycles); PN 20012864</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S4 Reagent Kit v1.5 (300 cycles); PN 20028312</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000319</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000285</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S2 Reagent v1.5 Kit (100 Cycles); PN 20028316</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000258</t>
-  </si>
-  <si>
-    <t>sequencing_read_format</t>
-  </si>
-  <si>
-    <t>sequencing_batch_id</t>
-  </si>
-  <si>
-    <t>capture_batch_id</t>
-  </si>
-  <si>
-    <t>preparation_instrument_vendor</t>
-  </si>
-  <si>
-    <t>HTX Technologies</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023734</t>
-  </si>
-  <si>
-    <t>10x Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023672</t>
-  </si>
-  <si>
-    <t>SunChrom</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023908</t>
-  </si>
-  <si>
-    <t>preparation_instrument_model</t>
-  </si>
-  <si>
-    <t>Sublimator</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023729</t>
-  </si>
-  <si>
-    <t>Chromium Controller</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_019326</t>
-  </si>
-  <si>
-    <t>Chromium X</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024537</t>
-  </si>
-  <si>
-    <t>AutoStainer XL</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023957</t>
-  </si>
-  <si>
-    <t>Visium CytAssist</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024570</t>
-  </si>
-  <si>
-    <t>SunCollect Sprayer</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023907</t>
-  </si>
-  <si>
-    <t>M3+ Sprayer</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023731</t>
-  </si>
-  <si>
     <t>ST5020 Multistainer</t>
   </si>
   <si>
@@ -1843,6 +1891,12 @@
     <t>https://identifiers.org/RRID:SCR_024536</t>
   </si>
   <si>
+    <t>Chromium Connect</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025146</t>
+  </si>
+  <si>
     <t>M5 Sprayer</t>
   </si>
   <si>
@@ -1858,18 +1912,36 @@
     <t>preparation_instrument_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000367</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000324</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
+    <t>10X Genomics; Chromium Next GEM Chip Q Single Cell Kit, 16 rxns; PN 1000422</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000325</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000368</t>
+  </si>
+  <si>
     <t>probe_hybridization_time_value</t>
   </si>
   <si>
@@ -1948,7 +2020,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-03-18T09:18:02-07:00</t>
+    <t>2024-04-01T14:49:54-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2157,139 +2229,139 @@
         <v>100</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>371</v>
+        <v>381</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>400</v>
+        <v>410</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>401</v>
+        <v>411</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>402</v>
+        <v>412</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>403</v>
+        <v>413</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>447</v>
+        <v>459</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>449</v>
+        <v>461</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>456</v>
+        <v>470</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>479</v>
+        <v>497</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>485</v>
+        <v>509</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>503</v>
+        <v>527</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>504</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2">
@@ -2297,7 +2369,7 @@
         <v>64</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>505</v>
+        <v>529</v>
       </c>
     </row>
   </sheetData>
@@ -2312,10 +2384,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$21</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$50</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2400,7 +2472,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$22</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$25</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$15</formula1>
@@ -2413,16 +2485,16 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$21</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$7</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$15</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$4</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AV2:AV1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -2454,26 +2526,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2491,32 +2563,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -2534,22 +2606,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2567,26 +2639,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -2604,27 +2676,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2642,42 +2714,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2695,18 +2767,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -2724,18 +2796,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2753,18 +2825,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2782,18 +2854,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -3096,18 +3168,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -3117,7 +3189,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3125,178 +3197,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3314,122 +3410,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>373</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>374</v>
+        <v>384</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>375</v>
+        <v>385</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>376</v>
+        <v>386</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>377</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>378</v>
+        <v>388</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>379</v>
+        <v>389</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>381</v>
+        <v>391</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>382</v>
+        <v>392</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>383</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>384</v>
+        <v>394</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>385</v>
+        <v>395</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>386</v>
+        <v>396</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>387</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>388</v>
+        <v>398</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>389</v>
+        <v>399</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>390</v>
+        <v>400</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>391</v>
+        <v>401</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>392</v>
+        <v>402</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>393</v>
+        <v>403</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>395</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>397</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
   </sheetData>
@@ -3462,7 +3558,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3470,170 +3566,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>404</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>405</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>406</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>407</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>408</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>409</v>
+        <v>419</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>410</v>
+        <v>420</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>411</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>412</v>
+        <v>422</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>413</v>
+        <v>423</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>414</v>
+        <v>424</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>415</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>416</v>
+        <v>426</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>417</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>418</v>
+        <v>428</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>419</v>
+        <v>429</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>421</v>
+        <v>431</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>422</v>
+        <v>432</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>423</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>424</v>
+        <v>434</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>425</v>
+        <v>435</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>426</v>
+        <v>436</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>428</v>
+        <v>438</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>429</v>
+        <v>439</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>430</v>
+        <v>440</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>431</v>
+        <v>441</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>432</v>
+        <v>442</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>433</v>
+        <v>443</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>434</v>
+        <v>444</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>435</v>
+        <v>445</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>436</v>
+        <v>446</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>437</v>
+        <v>447</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>438</v>
+        <v>448</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>439</v>
+        <v>449</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>440</v>
+        <v>450</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>441</v>
+        <v>451</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>442</v>
+        <v>452</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>443</v>
+        <v>453</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>444</v>
+        <v>454</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>445</v>
+        <v>455</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>456</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>457</v>
       </c>
     </row>
   </sheetData>
@@ -3642,6 +3746,248 @@
 </file>
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>129</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>462</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>464</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>468</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>469</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="0">
+        <v>194</v>
+      </c>
+      <c r="B1" t="s" s="0">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="0">
+        <v>267</v>
+      </c>
+      <c r="B2" t="s" s="0">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>471</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="0">
+        <v>154</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>473</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>182</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>475</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>477</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>479</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>481</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>483</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>485</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>489</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>491</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>493</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>495</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:B7"/>
   <sheetViews>
@@ -3651,236 +3997,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>498</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>499</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>375</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>128</v>
+        <v>376</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>263</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>271</v>
+        <v>366</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>451</v>
+        <v>501</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>453</v>
+        <v>503</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>131</v>
+        <v>504</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>132</v>
+        <v>505</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>455</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>194</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>457</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>459</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>182</v>
-      </c>
-      <c r="B5" t="s" s="0">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>234</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>461</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="0">
-        <v>463</v>
-      </c>
-      <c r="B8" t="s" s="0">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="0">
-        <v>465</v>
-      </c>
-      <c r="B9" t="s" s="0">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>467</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="0">
-        <v>469</v>
-      </c>
-      <c r="B11" t="s" s="0">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="0">
-        <v>471</v>
-      </c>
-      <c r="B12" t="s" s="0">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="0">
-        <v>473</v>
-      </c>
-      <c r="B13" t="s" s="0">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="0">
-        <v>475</v>
-      </c>
-      <c r="B14" t="s" s="0">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="0">
-        <v>477</v>
-      </c>
-      <c r="B15" t="s" s="0">
-        <v>478</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="s" s="0">
-        <v>337</v>
-      </c>
-      <c r="B1" t="s" s="0">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="0">
-        <v>355</v>
-      </c>
-      <c r="B2" t="s" s="0">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>480</v>
-      </c>
-      <c r="B3" t="s" s="0">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="0">
-        <v>482</v>
-      </c>
-      <c r="B4" t="s" s="0">
-        <v>483</v>
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -3898,18 +4066,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -3927,74 +4095,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>487</v>
+        <v>511</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>488</v>
+        <v>512</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>489</v>
+        <v>513</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>490</v>
+        <v>514</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>491</v>
+        <v>515</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>492</v>
+        <v>516</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>493</v>
+        <v>517</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>494</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>495</v>
+        <v>519</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>496</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>347</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>348</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>497</v>
+        <v>521</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>498</v>
+        <v>522</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>499</v>
+        <v>523</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>500</v>
+        <v>524</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>501</v>
+        <v>525</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>502</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -4150,16 +4318,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>509</v>
+        <v>533</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>511</v>
+        <v>535</v>
       </c>
     </row>
     <row r="2">
@@ -4167,13 +4335,13 @@
         <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>512</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4206,7 +4374,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4380,6 +4548,14 @@
         <v>142</v>
       </c>
     </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>143</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>144</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4387,7 +4563,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4395,402 +4571,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -4808,42 +4992,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -4861,26 +5045,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -4898,37 +5082,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="600" uniqueCount="537">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="547">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1483,6 +1483,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000374</t>
   </si>
   <si>
+    <t>New England BioLabs; NEBNext Ultra II RNA Library Prep Kit for Illumina; PN E7770</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000377</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Automated Single Cell 5' Kit v2, 24 rxns; PN 1000290</t>
   </si>
   <si>
@@ -1525,6 +1531,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000375</t>
+  </si>
+  <si>
     <t>Custom</t>
   </si>
   <si>
@@ -1912,6 +1924,12 @@
     <t>preparation_instrument_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000379</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
   </si>
   <si>
@@ -1924,6 +1942,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000367</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000378</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
   </si>
   <si>
@@ -1963,6 +1987,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000364</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
   </si>
   <si>
@@ -2020,7 +2050,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-01T14:49:54-07:00</t>
+    <t>2024-04-05T13:06:47-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2316,52 +2346,52 @@
         <v>330</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>527</v>
+        <v>537</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>528</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2">
@@ -2369,7 +2399,7 @@
         <v>64</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>529</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -2472,7 +2502,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$25</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$15</formula1>
@@ -2494,7 +2524,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$7</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AV2:AV1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -2504,7 +2534,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$9</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -3189,7 +3219,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3393,6 +3423,22 @@
       </c>
       <c r="B25" t="s" s="0">
         <v>380</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3410,10 +3456,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
@@ -3426,106 +3472,106 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3566,178 +3612,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
   </sheetData>
@@ -3787,26 +3833,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="8">
@@ -3819,10 +3865,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -3856,10 +3902,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
     </row>
     <row r="4">
@@ -3872,10 +3918,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
     </row>
     <row r="6">
@@ -3896,90 +3942,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
   </sheetData>
@@ -3989,7 +4035,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B7"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3997,58 +4043,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>375</v>
+        <v>504</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>376</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>365</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>366</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>500</v>
+        <v>367</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>501</v>
+        <v>368</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>512</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4087,7 +4149,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4095,74 +4157,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>369</v>
+        <v>529</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>370</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>521</v>
+        <v>373</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>522</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>523</v>
+        <v>531</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>524</v>
+        <v>532</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>525</v>
+        <v>533</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>526</v>
+        <v>534</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>535</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4318,16 +4388,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>530</v>
+        <v>540</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>531</v>
+        <v>541</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>533</v>
+        <v>543</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>535</v>
+        <v>545</v>
       </c>
     </row>
     <row r="2">
@@ -4335,13 +4405,13 @@
         <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>532</v>
+        <v>542</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>534</v>
+        <v>544</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>536</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -401,7 +401,7 @@
       <text>
         <t>(Required) State ("Yes" or "No") whether custom RNA or antibody probes were
 used. If custom probes were used, they must be listed in the
-"custom-probe_set.csv" file.</t>
+"custom_probe_set.csv" file.</t>
       </text>
     </comment>
     <comment ref="AZ1" authorId="1">
@@ -2050,7 +2050,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-05T13:06:47-07:00</t>
+    <t>2024-04-17T14:18:53-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="553">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1261,6 +1261,9 @@
     <t>14</t>
   </si>
   <si>
+    <t>8,8</t>
+  </si>
+  <si>
     <t>16</t>
   </si>
   <si>
@@ -1273,6 +1276,9 @@
     <t>umi_offset</t>
   </si>
   <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>36</t>
   </si>
   <si>
@@ -1594,6 +1600,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000348</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium i7 Sample Index Plate (96 rxn); PN 220103</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000380</t>
+  </si>
+  <si>
     <t>NanoString Technologies; GeoMx Seq Code Pack; PN GMX-NGS-SEQ-AB</t>
   </si>
   <si>
@@ -1780,6 +1792,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
   </si>
   <si>
+    <t>Illumina; NextSeq 500/550 Hi Output Kit 75 Cycles v2.5; PN 20024906</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000381</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S4 Reagent Kit v1.5 (300 cycles); PN 20028312</t>
   </si>
   <si>
@@ -2050,7 +2068,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-17T14:18:53-07:00</t>
+    <t>2024-04-23T15:02:39-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2289,109 +2307,109 @@
         <v>278</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>463</v>
+        <v>469</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>465</v>
+        <v>471</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>517</v>
+        <v>523</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="2">
@@ -2399,7 +2417,7 @@
         <v>64</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -2440,16 +2458,16 @@
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_size'!$A$1:$A$6</formula1>
+      <formula1>'barcode_size'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_offset'!$A$1:$A$4</formula1>
+      <formula1>'umi_offset'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_read'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_size'!$A$1:$A$5</formula1>
+      <formula1>'umi_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'assay_input_entity'!$A$1:$A$5</formula1>
@@ -2505,7 +2523,7 @@
       <formula1>'library_preparation_kit'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$15</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2515,7 +2533,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$22</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2585,7 +2603,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A7"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2621,6 +2639,11 @@
         <v>283</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" t="s" s="0">
+        <v>284</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2628,7 +2651,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2641,17 +2664,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>281</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="0">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -2698,7 +2726,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2706,27 +2734,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>289</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>290</v>
+        <v>291</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
+        <v>292</v>
       </c>
     </row>
   </sheetData>
@@ -2744,42 +2777,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2797,18 +2830,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -2826,18 +2859,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2855,18 +2888,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
     </row>
   </sheetData>
@@ -2884,18 +2917,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -3198,18 +3231,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -3227,218 +3260,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3448,7 +3481,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3456,10 +3489,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="2">
@@ -3472,106 +3505,114 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>416</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3604,7 +3645,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3612,178 +3653,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>461</v>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>466</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>467</v>
       </c>
     </row>
   </sheetData>
@@ -3833,26 +3882,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="8">
@@ -3865,10 +3914,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3902,10 +3951,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>476</v>
+        <v>482</v>
       </c>
     </row>
     <row r="4">
@@ -3918,10 +3967,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>477</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>478</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6">
@@ -3942,90 +3991,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>479</v>
+        <v>485</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>480</v>
+        <v>486</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>481</v>
+        <v>487</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>482</v>
+        <v>488</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>484</v>
+        <v>490</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
   </sheetData>
@@ -4043,74 +4092,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
@@ -4157,82 +4206,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>520</v>
+        <v>526</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>522</v>
+        <v>528</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>523</v>
+        <v>529</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>524</v>
+        <v>530</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>525</v>
+        <v>531</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>526</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>528</v>
+        <v>534</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -4388,16 +4437,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="2">
@@ -4405,13 +4454,13 @@
         <v>64</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -1993,12 +1993,6 @@
     <t>oligo_probe_panel</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 16 BC; PN 1000476</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000308</t>
-  </si>
-  <si>
     <t>NanoString Technologies; GeoMx Mouse Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-MsWTA-4</t>
   </si>
   <si>
@@ -2011,6 +2005,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
   </si>
   <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
   </si>
   <si>
@@ -2035,18 +2035,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
-  </si>
-  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000382</t>
+  </si>
+  <si>
     <t>is_custom_probes_used</t>
   </si>
   <si>
@@ -2068,7 +2068,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-04-23T15:02:39-07:00</t>
+    <t>2024-05-09T09:47:42-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="617" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="557">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -478,6 +478,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
     <t>Visium (with probes)</t>
   </si>
   <si>
@@ -574,6 +580,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>Resolve</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000384</t>
+  </si>
+  <si>
     <t>RNAseq</t>
   </si>
   <si>
@@ -2068,7 +2080,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-05-09T09:47:42-07:00</t>
+    <t>2024-06-05T17:27:39-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2268,162 +2280,162 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="41">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$34</formula1>
+      <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$12</formula1>
@@ -2523,7 +2535,7 @@
       <formula1>'library_preparation_kit'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$16</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2533,7 +2545,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$23</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2542,7 +2554,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$9</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AV2:AV1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -2574,26 +2586,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2611,37 +2623,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -2659,27 +2671,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
   </sheetData>
@@ -2697,26 +2709,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -2734,32 +2746,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -2777,42 +2789,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -2830,18 +2842,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -2859,18 +2871,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2888,18 +2900,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2917,18 +2929,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2938,7 +2950,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3214,6 +3226,22 @@
       </c>
       <c r="B34" t="s" s="0">
         <v>71</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -3231,18 +3259,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -3260,218 +3288,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3481,7 +3509,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3489,130 +3517,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>404</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>405</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>420</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -3630,12 +3666,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3645,7 +3681,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3653,186 +3689,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>440</v>
+        <v>379</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>441</v>
+        <v>380</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>470</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>471</v>
       </c>
     </row>
   </sheetData>
@@ -3850,74 +3894,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3935,146 +3979,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>482</v>
+        <v>486</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>496</v>
+        <v>500</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>500</v>
+        <v>504</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>502</v>
+        <v>506</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>504</v>
+        <v>508</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
   </sheetData>
@@ -4084,7 +4128,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4092,74 +4136,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>518</v>
+        <v>379</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>519</v>
+        <v>380</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>524</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -4177,18 +4229,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4206,82 +4258,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -4299,98 +4351,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>74</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>76</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -4408,12 +4460,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4437,30 +4489,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -4478,12 +4530,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -4501,178 +4553,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -4690,410 +4742,410 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
   </sheetData>
@@ -5111,42 +5163,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5164,26 +5216,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5201,37 +5253,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="557">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="563">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -667,22 +667,52 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
   </si>
   <si>
+    <t>RNA</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
+  </si>
+  <si>
+    <t>Metabolite</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+  </si>
+  <si>
+    <t>Unsaturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
+  </si>
+  <si>
+    <t>Saturated Lipid</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
+  </si>
+  <si>
+    <t>Lipid</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
+  </si>
+  <si>
     <t>Fluorochrome</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/CHEBI_51217</t>
   </si>
   <si>
-    <t>RNA</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C812</t>
-  </si>
-  <si>
-    <t>Metabolite</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
+    <t>Collagen</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C16447</t>
   </si>
   <si>
     <t>DNA</t>
@@ -709,27 +739,15 @@
     <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
   </si>
   <si>
-    <t>Lipid</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C616</t>
-  </si>
-  <si>
-    <t>Protein</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17021</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
+    <t>Yes</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
@@ -778,7 +796,7 @@
     <t>GE Healthcare</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_000004</t>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
   </si>
   <si>
     <t>Sciex</t>
@@ -886,6 +904,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Not applicable</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
+  </si>
+  <si>
     <t>MoticEasyScan One</t>
   </si>
   <si>
@@ -1228,24 +1252,21 @@
     <t>0</t>
   </si>
   <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1,27</t>
+  </si>
+  <si>
     <t>0,38,76</t>
   </si>
   <si>
-    <t>Not applicable</t>
-  </si>
-  <si>
-    <t>1,27</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>10,48,86</t>
   </si>
   <si>
-    <t>20</t>
-  </si>
-  <si>
     <t>barcode_read</t>
   </si>
   <si>
@@ -1255,9 +1276,6 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C172301</t>
   </si>
   <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C48660</t>
-  </si>
-  <si>
     <t>Read 2 (R2)</t>
   </si>
   <si>
@@ -1267,24 +1285,24 @@
     <t>barcode_size</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>8,8,8</t>
+  </si>
+  <si>
     <t>8,6</t>
   </si>
   <si>
-    <t>14</t>
-  </si>
-  <si>
     <t>8,8</t>
   </si>
   <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8,8,8</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
     <t>umi_offset</t>
   </si>
   <si>
@@ -1300,42 +1318,42 @@
     <t>umi_size</t>
   </si>
   <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
     <t>12</t>
   </si>
   <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
     <t>assay_input_entity</t>
   </si>
   <si>
+    <t>single cell</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000268</t>
+  </si>
+  <si>
+    <t>tissue (bulk)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000267</t>
+  </si>
+  <si>
+    <t>spot</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000270</t>
+  </si>
+  <si>
     <t>single nucleus</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000269</t>
   </si>
   <si>
-    <t>single cell</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000268</t>
-  </si>
-  <si>
-    <t>tissue (bulk)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000267</t>
-  </si>
-  <si>
-    <t>spot</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000270</t>
-  </si>
-  <si>
     <t>area of interest</t>
   </si>
   <si>
@@ -1351,18 +1369,18 @@
     <t>amount_of_input_analyte_unit</t>
   </si>
   <si>
+    <t>ug</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
+  </si>
+  <si>
     <t>ng</t>
   </si>
   <si>
     <t>http://purl.obolibrary.org/obo/UO_0000024</t>
   </si>
   <si>
-    <t>ug</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000023</t>
-  </si>
-  <si>
     <t>library_adapter_sequence</t>
   </si>
   <si>
@@ -2080,7 +2098,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-06-05T17:27:39-07:00</t>
+    <t>2024-08-03T11:43:35-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2283,145 +2301,145 @@
         <v>76</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>276</v>
+        <v>283</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>282</v>
+        <v>288</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>297</v>
+        <v>303</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>321</v>
+        <v>327</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>329</v>
+        <v>335</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>336</v>
+        <v>342</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>424</v>
+        <v>430</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>473</v>
+        <v>479</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>475</v>
+        <v>481</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>511</v>
+        <v>517</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>527</v>
+        <v>533</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2">
@@ -2429,7 +2447,7 @@
         <v>68</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -2438,7 +2456,7 @@
       <formula1>'dataset_type'!$A$1:$A$36</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$12</formula1>
+      <formula1>'analyte_class'!$A$1:$A$15</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2447,7 +2465,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$51</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2586,26 +2604,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2623,37 +2641,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>283</v>
+        <v>289</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>284</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>285</v>
+        <v>292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>286</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>287</v>
+        <v>294</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>288</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2671,7 +2689,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
@@ -2681,17 +2699,17 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>271</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>286</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2709,26 +2727,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>278</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -2746,32 +2764,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>284</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>273</v>
+        <v>302</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>295</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>296</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2789,42 +2807,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>298</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>299</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>301</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -2842,18 +2860,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>314</v>
+        <v>320</v>
       </c>
     </row>
   </sheetData>
@@ -2871,10 +2889,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
@@ -2900,10 +2918,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>311</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>312</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
@@ -2929,18 +2947,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>327</v>
+        <v>333</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>328</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -3259,18 +3277,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -3288,218 +3306,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>338</v>
+        <v>344</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>354</v>
+        <v>360</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>356</v>
+        <v>362</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>362</v>
+        <v>368</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>364</v>
+        <v>370</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>368</v>
+        <v>374</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>370</v>
+        <v>376</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>376</v>
+        <v>382</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>377</v>
+        <v>383</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>382</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -3517,138 +3535,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>393</v>
+        <v>399</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>394</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>395</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>396</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>397</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>398</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>399</v>
+        <v>405</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>400</v>
+        <v>406</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>401</v>
+        <v>407</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>403</v>
+        <v>409</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>404</v>
+        <v>410</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>405</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>406</v>
+        <v>412</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>407</v>
+        <v>413</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>408</v>
+        <v>414</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>409</v>
+        <v>415</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>410</v>
+        <v>416</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>411</v>
+        <v>417</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>412</v>
+        <v>418</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>413</v>
+        <v>419</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>415</v>
+        <v>421</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>417</v>
+        <v>423</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>418</v>
+        <v>424</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>419</v>
+        <v>425</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>420</v>
+        <v>426</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>421</v>
+        <v>427</v>
       </c>
     </row>
   </sheetData>
@@ -3666,12 +3684,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3689,194 +3707,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>426</v>
+        <v>432</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>427</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>428</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>429</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>431</v>
+        <v>437</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>432</v>
+        <v>438</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>433</v>
+        <v>439</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>434</v>
+        <v>440</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>435</v>
+        <v>441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>436</v>
+        <v>442</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>437</v>
+        <v>443</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>438</v>
+        <v>444</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>439</v>
+        <v>445</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>440</v>
+        <v>446</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>443</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>444</v>
+        <v>450</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>445</v>
+        <v>451</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>448</v>
+        <v>454</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>449</v>
+        <v>455</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>451</v>
+        <v>457</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>453</v>
+        <v>459</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>455</v>
+        <v>461</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
   </sheetData>
@@ -3894,74 +3912,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>279</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
@@ -3979,146 +3997,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>271</v>
+        <v>162</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>486</v>
+        <v>492</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>158</v>
+        <v>166</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>488</v>
+        <v>494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>490</v>
+        <v>496</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>491</v>
+        <v>497</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>492</v>
+        <v>498</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>494</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>496</v>
+        <v>502</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>498</v>
+        <v>504</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>499</v>
+        <v>505</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>500</v>
+        <v>506</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>502</v>
+        <v>508</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>503</v>
+        <v>509</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>504</v>
+        <v>510</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>505</v>
+        <v>511</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>506</v>
+        <v>512</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>507</v>
+        <v>513</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>508</v>
+        <v>514</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>509</v>
+        <v>515</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>510</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>
@@ -4136,82 +4154,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
   </sheetData>
@@ -4229,18 +4247,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -4258,82 +4276,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>530</v>
+        <v>536</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>531</v>
+        <v>537</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>532</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>533</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>534</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>535</v>
+        <v>541</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>536</v>
+        <v>542</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>537</v>
+        <v>543</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>538</v>
+        <v>544</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>539</v>
+        <v>545</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>540</v>
+        <v>546</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>380</v>
+        <v>386</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>542</v>
+        <v>548</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>544</v>
+        <v>550</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
   </sheetData>
@@ -4343,7 +4361,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4443,6 +4461,30 @@
       </c>
       <c r="B12" t="s" s="0">
         <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>103</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>105</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -4460,12 +4502,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4489,16 +4531,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
     <row r="2">
@@ -4506,13 +4548,13 @@
         <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
   </sheetData>
@@ -4530,12 +4572,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>103</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -4553,178 +4595,178 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>138</v>
+        <v>144</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>140</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>142</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>148</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -4734,7 +4776,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4742,410 +4784,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>165</v>
+        <v>171</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>167</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>172</v>
+        <v>178</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>174</v>
+        <v>180</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>176</v>
+        <v>182</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>179</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>182</v>
+        <v>188</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>183</v>
+        <v>189</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>185</v>
+        <v>191</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>186</v>
+        <v>192</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>187</v>
+        <v>193</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>189</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>190</v>
+        <v>196</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>191</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>192</v>
+        <v>198</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>193</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>194</v>
+        <v>200</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>195</v>
+        <v>201</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>203</v>
+        <v>209</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>205</v>
+        <v>211</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>208</v>
+        <v>214</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>209</v>
+        <v>215</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>210</v>
+        <v>216</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>213</v>
+        <v>219</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>217</v>
+        <v>223</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>219</v>
+        <v>225</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>221</v>
+        <v>227</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>223</v>
+        <v>229</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>224</v>
+        <v>230</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>225</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>229</v>
+        <v>235</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>230</v>
+        <v>236</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>231</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>232</v>
+        <v>238</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>234</v>
+        <v>240</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>235</v>
+        <v>241</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>236</v>
+        <v>242</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>237</v>
+        <v>243</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>238</v>
+        <v>244</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>239</v>
+        <v>245</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>242</v>
+        <v>248</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>243</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>244</v>
+        <v>250</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>245</v>
+        <v>251</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>247</v>
+        <v>253</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>249</v>
+        <v>255</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>250</v>
+        <v>256</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>251</v>
+        <v>257</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -5163,42 +5213,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>263</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5216,26 +5266,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>259</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>261</v>
+        <v>269</v>
       </c>
     </row>
   </sheetData>
@@ -5253,37 +5303,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>269</v>
+        <v>277</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>275</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="565">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -2065,6 +2065,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
   </si>
   <si>
@@ -2098,7 +2104,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-08-03T11:43:35-07:00</t>
+    <t>2024-10-14T18:36:00-05:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2436,10 +2442,10 @@
         <v>534</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2">
@@ -2447,7 +2453,7 @@
         <v>68</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>555</v>
+        <v>557</v>
       </c>
     </row>
   </sheetData>
@@ -2582,7 +2588,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$10</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -4268,7 +4274,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4352,6 +4358,14 @@
       </c>
       <c r="B10" t="s" s="0">
         <v>552</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>553</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4531,16 +4545,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="2">
@@ -4548,13 +4562,13 @@
         <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="565">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="567">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1714,22 +1714,52 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
+  </si>
+  <si>
+    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
+  </si>
+  <si>
+    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000286</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000288</t>
-  </si>
-  <si>
-    <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (200 Cycles); PN 20028318</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000360</t>
+    <t>Illumina; NovaSeq X Series 25B Reagent Kit (300 Cycle); PN 20104706</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000392</t>
   </si>
   <si>
     <t>Illumina; NovaSeq 6000 S1 Reagent v1.5 Kit (100 Cycles); PN 20028319</t>
@@ -1774,24 +1804,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000323</t>
   </si>
   <si>
-    <t>Illumina; NextSeq 2000 P3 Reagent Kit (300 Cycles); PN 20040561</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000354</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (200 Cycle); PN 20085595</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000284</t>
   </si>
   <si>
-    <t>Illumina; NextSeq 1000/2000 P2 Reagent v3 Kit (200 Cycles); PN 20046812</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
-  </si>
-  <si>
     <t>Illumina; NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
   </si>
   <si>
@@ -1816,12 +1834,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000259</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000287</t>
-  </si>
-  <si>
     <t>Illumina; NextSeq 500/550 Hi Output Kit 75 Cycles v2.5; PN 20024906</t>
   </si>
   <si>
@@ -1834,12 +1846,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000319</t>
   </si>
   <si>
-    <t>Illumina; NovaSeq X Series 10B Reagent Kit (300 Cycle); PN 20085594</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
-  </si>
-  <si>
     <t>Illumina; NovaSeq X Series 10B Reagent Kit (100 Cycle); PN 20085596</t>
   </si>
   <si>
@@ -2104,7 +2110,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-10-14T18:36:00-05:00</t>
+    <t>2024-11-01T11:48:43-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2415,37 +2421,37 @@
         <v>431</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="2">
@@ -2453,7 +2459,7 @@
         <v>68</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
   </sheetData>
@@ -2569,7 +2575,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$24</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$25</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -3705,7 +3711,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3785,50 +3791,50 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>385</v>
+        <v>450</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>386</v>
+        <v>451</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>458</v>
+        <v>385</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>459</v>
+        <v>386</v>
       </c>
     </row>
     <row r="16">
@@ -3901,6 +3907,14 @@
       </c>
       <c r="B24" t="s" s="0">
         <v>477</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>478</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -3950,26 +3964,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="8">
@@ -3982,10 +3996,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -4019,10 +4033,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
     </row>
     <row r="4">
@@ -4035,10 +4049,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="6">
@@ -4059,90 +4073,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
   </sheetData>
@@ -4160,18 +4174,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="3">
@@ -4192,26 +4206,26 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8">
@@ -4224,18 +4238,18 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
   </sheetData>
@@ -4282,50 +4296,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="7">
@@ -4338,34 +4352,34 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -4545,16 +4559,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>563</v>
+        <v>565</v>
       </c>
     </row>
     <row r="2">
@@ -4562,13 +4576,13 @@
         <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="639" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="569">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -841,6 +841,12 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>10x Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023672</t>
+  </si>
+  <si>
     <t>NanoString</t>
   </si>
   <si>
@@ -1882,12 +1888,6 @@
     <t>https://identifiers.org/RRID:SCR_023734</t>
   </si>
   <si>
-    <t>10x Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023672</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -2035,6 +2035,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000364</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell Fixed RNA Mouse Transcriptome Probe Kit, 64 rxns; PN 1000492</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
   </si>
   <si>
@@ -2110,7 +2116,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-11-01T11:48:43-07:00</t>
+    <t>2024-11-18T14:20:48-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2319,118 +2325,118 @@
         <v>110</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AT1" t="s" s="1">
         <v>492</v>
@@ -2448,10 +2454,10 @@
         <v>536</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2">
@@ -2459,7 +2465,7 @@
         <v>68</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -2474,7 +2480,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$22</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
@@ -2594,7 +2600,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$11</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -2616,26 +2622,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2653,37 +2659,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2701,27 +2707,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2739,26 +2745,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -2776,32 +2782,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -2819,42 +2825,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -2872,18 +2878,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2901,18 +2907,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2930,18 +2936,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2959,18 +2965,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3289,18 +3295,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -3318,218 +3324,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -3547,138 +3553,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -3719,202 +3725,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -3948,10 +3954,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="4">
@@ -3964,34 +3970,34 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>488</v>
+        <v>141</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>489</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9">
@@ -4017,18 +4023,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
@@ -4041,10 +4047,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
@@ -4057,18 +4063,18 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8">
@@ -4190,18 +4196,18 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5">
@@ -4230,10 +4236,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9">
@@ -4267,18 +4273,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -4288,7 +4294,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4344,18 +4350,18 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>385</v>
+        <v>549</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>386</v>
+        <v>550</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>549</v>
+        <v>387</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>550</v>
+        <v>388</v>
       </c>
     </row>
     <row r="9">
@@ -4380,6 +4386,14 @@
       </c>
       <c r="B11" t="s" s="0">
         <v>556</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>557</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>558</v>
       </c>
     </row>
   </sheetData>
@@ -4559,16 +4573,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2">
@@ -4576,13 +4590,13 @@
         <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
   </sheetData>
@@ -4615,7 +4629,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4795,6 +4809,14 @@
       </c>
       <c r="B22" t="s" s="0">
         <v>154</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>155</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -4812,418 +4834,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -5241,42 +5263,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -5294,26 +5316,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5331,37 +5353,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="571">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1543,6 +1543,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000265</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium GEM-X Single Cell 5' Kit v3, 16 rxns; PN 1000699</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000394</t>
+  </si>
+  <si>
     <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
   </si>
   <si>
@@ -1567,24 +1573,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000251</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns PN 1000092</t>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000375</t>
+  </si>
+  <si>
+    <t>Custom</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Single Cell 3' GEM, Library &amp; Gel Bead Kit v3, 4 rxns; PN 1000092</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Hybridization &amp; Library Kit, 4 rxns; PN 1000415</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000375</t>
-  </si>
-  <si>
-    <t>Custom</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C65167</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
   </si>
   <si>
@@ -2116,7 +2122,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-11-18T14:20:48-08:00</t>
+    <t>2024-12-03T17:20:00-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2412,52 +2418,52 @@
         <v>344</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="2">
@@ -2465,7 +2471,7 @@
         <v>68</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
   </sheetData>
@@ -2568,7 +2574,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$27</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$28</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
@@ -3316,7 +3322,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3536,6 +3542,14 @@
       </c>
       <c r="B27" t="s" s="0">
         <v>398</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>399</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -3553,10 +3567,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="2">
@@ -3569,58 +3583,58 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="10">
@@ -3633,58 +3647,58 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -3725,114 +3739,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="15">
@@ -3845,82 +3859,82 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
   </sheetData>
@@ -3970,18 +3984,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="7">
@@ -4002,10 +4016,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4039,10 +4053,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
     </row>
     <row r="4">
@@ -4055,10 +4069,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="6">
@@ -4079,90 +4093,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
   </sheetData>
@@ -4180,58 +4194,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8">
@@ -4244,18 +4258,18 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -4302,58 +4316,58 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="8">
@@ -4366,34 +4380,34 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
   </sheetData>
@@ -4573,16 +4587,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="2">
@@ -4590,13 +4604,13 @@
         <v>68</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>566</v>
+        <v>568</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="571">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="583">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -556,6 +556,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
@@ -580,6 +586,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000209</t>
   </si>
   <si>
+    <t>DART-FISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000396</t>
+  </si>
+  <si>
     <t>Resolve</t>
   </si>
   <si>
@@ -1495,6 +1507,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
   </si>
   <si>
+    <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000399</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
   </si>
   <si>
@@ -1507,6 +1525,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000334</t>
   </si>
   <si>
+    <t>10x Genomics; Library Construction Kit C, 4 rxns; PN 1000689</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000398</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 11 mm, 2 reactions; PN 1000522</t>
   </si>
   <si>
@@ -1996,6 +2020,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000400</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
   </si>
   <si>
@@ -2047,24 +2077,48 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
   </si>
   <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; GeoMx Human Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-HuWTA-4</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Human Multi-Tissue and Cancer Panel v1; PN 1000626</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000395</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
   </si>
   <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
-  </si>
-  <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome, 4 rxns x 1 BC; PN 1000474</t>
   </si>
   <si>
@@ -2077,24 +2131,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
   </si>
   <si>
-    <t>NanoString Technologies; GeoMx Human Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-HuWTA-4</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
-  </si>
-  <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
@@ -2122,7 +2158,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-12-03T17:20:00-08:00</t>
+    <t>2024-12-11T14:15:33-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2322,162 +2358,162 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>435</v>
+        <v>443</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>485</v>
+        <v>493</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>487</v>
+        <v>495</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>521</v>
+        <v>529</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>536</v>
+        <v>546</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>537</v>
+        <v>547</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>538</v>
+        <v>548</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>561</v>
+        <v>573</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>562</v>
+        <v>574</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>563</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="41">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$36</formula1>
+      <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$15</formula1>
@@ -2574,7 +2610,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$28</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
@@ -2596,7 +2632,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$10</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AV2:AV1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -2606,7 +2642,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$12</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$13</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -2628,26 +2664,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2665,37 +2701,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2713,27 +2749,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2751,26 +2787,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
   </sheetData>
@@ -2788,32 +2824,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>
@@ -2831,42 +2867,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -2884,18 +2920,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2913,18 +2949,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2942,18 +2978,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
     </row>
   </sheetData>
@@ -2971,18 +3007,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
   </sheetData>
@@ -2992,7 +3028,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3284,6 +3320,22 @@
       </c>
       <c r="B36" t="s" s="0">
         <v>75</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>76</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="0">
+        <v>78</v>
+      </c>
+      <c r="B38" t="s" s="0">
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -3301,18 +3353,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3322,7 +3374,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3330,226 +3382,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>405</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>407</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3567,138 +3635,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>402</v>
+        <v>410</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>403</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>404</v>
+        <v>412</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>405</v>
+        <v>413</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>407</v>
+        <v>415</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>409</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>410</v>
+        <v>418</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>411</v>
+        <v>419</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
   </sheetData>
@@ -3716,12 +3784,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3739,202 +3807,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>443</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>475</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3952,74 +4020,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
   </sheetData>
@@ -4037,146 +4105,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>496</v>
+        <v>504</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>497</v>
+        <v>505</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>498</v>
+        <v>506</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>500</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>501</v>
+        <v>509</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>502</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>503</v>
+        <v>511</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>504</v>
+        <v>512</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>505</v>
+        <v>513</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>506</v>
+        <v>514</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>508</v>
+        <v>516</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>509</v>
+        <v>517</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>510</v>
+        <v>518</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>511</v>
+        <v>519</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>512</v>
+        <v>520</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>513</v>
+        <v>521</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>514</v>
+        <v>522</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>515</v>
+        <v>523</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>516</v>
+        <v>524</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>517</v>
+        <v>525</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>518</v>
+        <v>526</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>519</v>
+        <v>527</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>520</v>
+        <v>528</v>
       </c>
     </row>
   </sheetData>
@@ -4186,7 +4254,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4194,82 +4262,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>529</v>
+        <v>537</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>531</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>387</v>
+        <v>540</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>388</v>
+        <v>541</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>532</v>
+        <v>395</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>533</v>
+        <v>396</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>535</v>
+        <v>543</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>544</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -4287,18 +4363,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -4308,7 +4384,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4316,98 +4392,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>539</v>
+        <v>549</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>540</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>541</v>
+        <v>551</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>542</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>543</v>
+        <v>553</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>544</v>
+        <v>554</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>545</v>
+        <v>555</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>546</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>547</v>
+        <v>395</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>548</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>387</v>
+        <v>561</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>388</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>553</v>
+        <v>563</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>554</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>555</v>
+        <v>565</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>556</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>557</v>
+        <v>567</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>558</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>559</v>
+        <v>569</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>560</v>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>571</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -4425,122 +4509,122 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>78</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>80</v>
+        <v>84</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>82</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>90</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>96</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
   </sheetData>
@@ -4558,12 +4642,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4587,30 +4671,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>564</v>
+        <v>576</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>565</v>
+        <v>577</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>567</v>
+        <v>579</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>569</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>566</v>
+        <v>578</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>570</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -4628,12 +4712,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -4651,186 +4735,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4848,418 +4932,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>
@@ -5277,42 +5361,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5330,26 +5414,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5367,37 +5451,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="657" uniqueCount="583">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="585">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -667,18 +667,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
-    <t>Nucleic acid and protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -691,13 +691,19 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C61154</t>
   </si>
   <si>
-    <t>Unsaturated Lipid</t>
+    <t>Unsaturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000389</t>
   </si>
   <si>
-    <t>Saturated Lipid</t>
+    <t>Lipid + metabolite</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000401</t>
+  </si>
+  <si>
+    <t>Saturated lipid</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000388</t>
@@ -733,24 +739,24 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C449</t>
   </si>
   <si>
-    <t>Endogenous fluorophores</t>
+    <t>Peptide</t>
+  </si>
+  <si>
+    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
+  </si>
+  <si>
+    <t>Polysaccharide</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
+  </si>
+  <si>
+    <t>Endogenous fluorophore</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000131</t>
   </si>
   <si>
-    <t>Peptide</t>
-  </si>
-  <si>
-    <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C735</t>
-  </si>
-  <si>
-    <t>Polysaccharide</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/CHEBI_18154</t>
-  </si>
-  <si>
     <t>is_targeted</t>
   </si>
   <si>
@@ -2158,7 +2164,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2024-12-11T14:15:33-08:00</t>
+    <t>2025-01-08T12:44:31-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2361,145 +2367,145 @@
         <v>80</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2">
@@ -2507,7 +2513,7 @@
         <v>72</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
   </sheetData>
@@ -2516,7 +2522,7 @@
       <formula1>'dataset_type'!$A$1:$A$38</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$15</formula1>
+      <formula1>'analyte_class'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -2664,26 +2670,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2701,37 +2707,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2749,27 +2755,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2787,26 +2793,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
   </sheetData>
@@ -2824,32 +2830,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -2867,42 +2873,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -2920,18 +2926,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2949,18 +2955,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -2978,18 +2984,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
   </sheetData>
@@ -3007,18 +3013,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -3353,18 +3359,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
   </sheetData>
@@ -3382,242 +3388,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3635,138 +3641,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -3784,12 +3790,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -3807,202 +3813,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
   </sheetData>
@@ -4020,74 +4026,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -4105,146 +4111,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -4262,90 +4268,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4363,18 +4369,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -4392,106 +4398,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
   </sheetData>
@@ -4501,7 +4507,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4625,6 +4631,14 @@
       </c>
       <c r="B15" t="s" s="0">
         <v>110</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>112</v>
       </c>
     </row>
   </sheetData>
@@ -4642,12 +4656,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4671,16 +4685,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="2">
@@ -4688,13 +4702,13 @@
         <v>72</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>578</v>
+        <v>580</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>580</v>
+        <v>582</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
   </sheetData>
@@ -4712,12 +4726,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
   </sheetData>
@@ -4735,186 +4749,186 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4932,418 +4946,418 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5361,42 +5375,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>
@@ -5414,26 +5428,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>
@@ -5451,37 +5465,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="585">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="599">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -658,6 +658,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MS Lipidomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -805,6 +811,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Vizgen</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026274</t>
+  </si>
+  <si>
     <t>Standard BioTools (Fluidigm)</t>
   </si>
   <si>
@@ -1162,6 +1174,12 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>MERSCOPE</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000404</t>
+  </si>
+  <si>
     <t>NextSeq 2000</t>
   </si>
   <si>
@@ -1204,6 +1222,12 @@
     <t>https://identifiers.org/RRID:SCR_023909</t>
   </si>
   <si>
+    <t>MERSCOPE Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026273</t>
+  </si>
+  <si>
     <t>Axio Scan.Z1</t>
   </si>
   <si>
@@ -1792,6 +1816,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000283</t>
   </si>
   <si>
+    <t>Element Biosciences; AVITI 2x75 Sequencing Kit Cloudbreak FS High Output (184 Cycles); PN 860-00015</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000406</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (100 Cycle); PN 20104703</t>
   </si>
   <si>
@@ -1924,6 +1954,12 @@
     <t>https://identifiers.org/RRID:SCR_023734</t>
   </si>
   <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1963,6 +1999,12 @@
     <t>https://identifiers.org/RRID:SCR_024570</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
     <t>SunCollect Sprayer</t>
   </si>
   <si>
@@ -2164,7 +2206,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-01-08T12:44:31-08:00</t>
+    <t>2025-02-21T09:59:41-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2364,148 +2406,148 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>283</v>
+        <v>291</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>284</v>
+        <v>292</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>296</v>
+        <v>304</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>307</v>
+        <v>315</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>311</v>
+        <v>319</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>322</v>
+        <v>330</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>324</v>
+        <v>332</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>329</v>
+        <v>337</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>330</v>
+        <v>338</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>343</v>
+        <v>351</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>350</v>
+        <v>358</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>494</v>
+        <v>504</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>495</v>
+        <v>505</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>496</v>
+        <v>506</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>497</v>
+        <v>507</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>504</v>
+        <v>516</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>531</v>
+        <v>545</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>548</v>
+        <v>562</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>549</v>
+        <v>563</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>550</v>
+        <v>564</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>575</v>
+        <v>589</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>576</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2">
@@ -2513,13 +2555,13 @@
         <v>72</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>577</v>
+        <v>591</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="41">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$38</formula1>
+      <formula1>'dataset_type'!$A$1:$A$39</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2528,10 +2570,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$23</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$24</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$52</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$54</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2629,13 +2671,13 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$25</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_kit'!$A$1:$A$11</formula1>
@@ -2670,26 +2712,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2707,37 +2749,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>299</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>300</v>
+        <v>308</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>301</v>
+        <v>309</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>302</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2755,27 +2797,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>298</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>304</v>
+        <v>312</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2793,26 +2835,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>292</v>
+        <v>300</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>293</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>294</v>
+        <v>302</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>295</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2830,32 +2872,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>308</v>
+        <v>316</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>309</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>310</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>297</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -2873,42 +2915,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -2926,18 +2968,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>325</v>
+        <v>333</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>326</v>
+        <v>334</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2955,18 +2997,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -2984,18 +3026,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>334</v>
+        <v>342</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>327</v>
+        <v>335</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>328</v>
+        <v>336</v>
       </c>
     </row>
   </sheetData>
@@ -3013,18 +3055,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>347</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>340</v>
+        <v>348</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>341</v>
+        <v>349</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>342</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>
@@ -3034,7 +3076,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:B39"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3342,6 +3384,14 @@
       </c>
       <c r="B38" t="s" s="0">
         <v>79</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="0">
+        <v>80</v>
+      </c>
+      <c r="B39" t="s" s="0">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3359,18 +3409,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>345</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>347</v>
+        <v>355</v>
       </c>
     </row>
   </sheetData>
@@ -3388,242 +3438,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>352</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>354</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>356</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>358</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>360</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>362</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>363</v>
+        <v>371</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>364</v>
+        <v>372</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>365</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>366</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>368</v>
+        <v>376</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>370</v>
+        <v>378</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>371</v>
+        <v>379</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>372</v>
+        <v>380</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>373</v>
+        <v>381</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>374</v>
+        <v>382</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>375</v>
+        <v>383</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>376</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>377</v>
+        <v>385</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>378</v>
+        <v>386</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>379</v>
+        <v>387</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>380</v>
+        <v>388</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>381</v>
+        <v>389</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>382</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>384</v>
+        <v>392</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>386</v>
+        <v>394</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>388</v>
+        <v>396</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>390</v>
+        <v>398</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>391</v>
+        <v>399</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>395</v>
+        <v>403</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>396</v>
+        <v>404</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>399</v>
+        <v>407</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>400</v>
+        <v>408</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>402</v>
+        <v>410</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>404</v>
+        <v>412</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>407</v>
+        <v>415</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>408</v>
+        <v>416</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>409</v>
+        <v>417</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>410</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3641,138 +3691,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>412</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>413</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>415</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>417</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>419</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>421</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>423</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>425</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>427</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>429</v>
+        <v>437</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>430</v>
+        <v>438</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>431</v>
+        <v>439</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>433</v>
+        <v>441</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>435</v>
+        <v>443</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>437</v>
+        <v>445</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>439</v>
+        <v>447</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>441</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3790,12 +3840,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3805,7 +3855,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3813,202 +3863,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>397</v>
+        <v>482</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>398</v>
+        <v>483</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>474</v>
+        <v>405</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>475</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>477</v>
+        <v>485</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>493</v>
+        <v>501</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>502</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -4018,7 +4076,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4026,74 +4084,82 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>498</v>
+        <v>508</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>499</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>500</v>
+        <v>510</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>501</v>
+        <v>511</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>151</v>
+        <v>512</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>152</v>
+        <v>513</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>502</v>
+        <v>155</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>503</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>514</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4103,7 +4169,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4111,146 +4177,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>505</v>
+        <v>517</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>506</v>
+        <v>518</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>507</v>
+        <v>519</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>508</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>258</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>259</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>509</v>
+        <v>521</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>510</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>511</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>512</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>513</v>
+        <v>525</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>514</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>515</v>
+        <v>527</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>516</v>
+        <v>528</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>517</v>
+        <v>529</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>518</v>
+        <v>530</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>519</v>
+        <v>531</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>520</v>
+        <v>532</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>521</v>
+        <v>533</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>522</v>
+        <v>534</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>523</v>
+        <v>535</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>524</v>
+        <v>536</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>525</v>
+        <v>537</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>526</v>
+        <v>538</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>528</v>
+        <v>540</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>530</v>
+        <v>542</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>543</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>544</v>
       </c>
     </row>
   </sheetData>
@@ -4268,90 +4342,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>532</v>
+        <v>546</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>533</v>
+        <v>547</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>534</v>
+        <v>548</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>535</v>
+        <v>549</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>406</v>
+        <v>414</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>393</v>
+        <v>401</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>394</v>
+        <v>402</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>536</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>537</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>538</v>
+        <v>552</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>539</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>540</v>
+        <v>554</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>541</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>542</v>
+        <v>556</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>543</v>
+        <v>557</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>544</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>545</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>546</v>
+        <v>560</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>547</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -4369,18 +4443,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -4398,106 +4472,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>551</v>
+        <v>565</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>552</v>
+        <v>566</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>553</v>
+        <v>567</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>554</v>
+        <v>568</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>555</v>
+        <v>569</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>556</v>
+        <v>570</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>557</v>
+        <v>571</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>558</v>
+        <v>572</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>398</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>559</v>
+        <v>573</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>560</v>
+        <v>574</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>561</v>
+        <v>575</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>562</v>
+        <v>576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>563</v>
+        <v>577</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>564</v>
+        <v>578</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>565</v>
+        <v>579</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>566</v>
+        <v>580</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>567</v>
+        <v>581</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>568</v>
+        <v>582</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>569</v>
+        <v>583</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>570</v>
+        <v>584</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>571</v>
+        <v>585</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>572</v>
+        <v>586</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>573</v>
+        <v>587</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>574</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -4515,130 +4589,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -4656,12 +4730,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4685,16 +4759,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>578</v>
+        <v>592</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>579</v>
+        <v>593</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>581</v>
+        <v>595</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>583</v>
+        <v>597</v>
       </c>
     </row>
     <row r="2">
@@ -4702,13 +4776,13 @@
         <v>72</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>580</v>
+        <v>594</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>582</v>
+        <v>596</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>584</v>
+        <v>598</v>
       </c>
     </row>
   </sheetData>
@@ -4726,12 +4800,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4741,7 +4815,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B23"/>
+  <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4749,186 +4823,194 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>165</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -4938,7 +5020,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:B54"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4946,418 +5028,434 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>272</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>274</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>275</v>
       </c>
     </row>
   </sheetData>
@@ -5375,42 +5473,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>279</v>
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -5428,26 +5526,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>273</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>275</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>277</v>
+        <v>285</v>
       </c>
     </row>
   </sheetData>
@@ -5465,37 +5563,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>285</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>287</v>
+        <v>295</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>288</v>
+        <v>296</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>289</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>290</v>
+        <v>298</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="621">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -664,6 +664,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
     <t>analyte_class</t>
   </si>
   <si>
@@ -775,42 +781,96 @@
     <t>acquisition_instrument_vendor</t>
   </si>
   <si>
+    <t>BGI Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024848</t>
+  </si>
+  <si>
+    <t>Cytiva</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023581</t>
+  </si>
+  <si>
+    <t>Thermo Fisher Scientific</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008452</t>
+  </si>
+  <si>
+    <t>Zeiss Microscopy</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023607</t>
+  </si>
+  <si>
+    <t>GE Healthcare</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_025461</t>
+  </si>
+  <si>
+    <t>Leica Microsystems</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008960</t>
+  </si>
+  <si>
+    <t>Akoya Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023774</t>
+  </si>
+  <si>
+    <t>NanoString</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023912</t>
+  </si>
+  <si>
+    <t>Element Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026453</t>
+  </si>
+  <si>
+    <t>Andor</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023609</t>
+  </si>
+  <si>
+    <t>Huron Digital Pathology</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024996</t>
+  </si>
+  <si>
+    <t>Illumina</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_010233</t>
+  </si>
+  <si>
+    <t>Ionpath</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023605</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C126386</t>
   </si>
   <si>
-    <t>BGI Genomics</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024848</t>
-  </si>
-  <si>
     <t>Resolve Biosciences</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
-    <t>Cytiva</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023581</t>
-  </si>
-  <si>
-    <t>Thermo Fisher Scientific</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008452</t>
-  </si>
-  <si>
-    <t>Zeiss Microscopy</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023607</t>
-  </si>
-  <si>
     <t>Vizgen</t>
   </si>
   <si>
@@ -823,12 +883,6 @@
     <t>https://identifiers.org/RRID:SCR_023606</t>
   </si>
   <si>
-    <t>GE Healthcare</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_025461</t>
-  </si>
-  <si>
     <t>Sciex</t>
   </si>
   <si>
@@ -841,18 +895,6 @@
     <t>https://identifiers.org/RRID:SCR_017365</t>
   </si>
   <si>
-    <t>Leica Microsystems</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_008960</t>
-  </si>
-  <si>
-    <t>Akoya Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023774</t>
-  </si>
-  <si>
     <t>Evident Scientific (Olympus)</t>
   </si>
   <si>
@@ -877,48 +919,18 @@
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
-    <t>NanoString</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023912</t>
-  </si>
-  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_017105</t>
   </si>
   <si>
-    <t>Andor</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023609</t>
-  </si>
-  <si>
-    <t>Huron Digital Pathology</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_024996</t>
-  </si>
-  <si>
-    <t>Illumina</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_010233</t>
-  </si>
-  <si>
     <t>Motic</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_024856</t>
   </si>
   <si>
-    <t>Ionpath</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_023605</t>
-  </si>
-  <si>
     <t>acquisition_instrument_model</t>
   </si>
   <si>
@@ -970,6 +982,12 @@
     <t>https://identifiers.org/RRID:SCR_021658</t>
   </si>
   <si>
+    <t>timsTOF Ultra 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026541</t>
+  </si>
+  <si>
     <t>Lightsheet 7</t>
   </si>
   <si>
@@ -988,12 +1006,30 @@
     <t>https://identifiers.org/RRID:SCR_024847</t>
   </si>
   <si>
+    <t>timsTOF Pro</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026544</t>
+  </si>
+  <si>
     <t>Unknown</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C17998</t>
   </si>
   <si>
+    <t>AVITI</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026452</t>
+  </si>
+  <si>
+    <t>timsTOF Pro 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026545</t>
+  </si>
+  <si>
     <t>Q Exactive UHMR</t>
   </si>
   <si>
@@ -1006,12 +1042,24 @@
     <t>https://identifiers.org/RRID:SCR_020565</t>
   </si>
   <si>
+    <t>timsTOF SCP</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026542</t>
+  </si>
+  <si>
     <t>Zyla 4.2 sCMOS</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023610</t>
   </si>
   <si>
+    <t>Helios</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_019916</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1024,12 +1072,24 @@
     <t>https://identifiers.org/RRID:SCR_020517</t>
   </si>
   <si>
+    <t>timsTOF Ultra</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026540</t>
+  </si>
+  <si>
     <t>BZ-X800</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023617</t>
   </si>
   <si>
+    <t>CyTOF 2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026551</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -1054,6 +1114,12 @@
     <t>https://identifiers.org/RRID:SCR_024568</t>
   </si>
   <si>
+    <t>CyTOF XT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026344</t>
+  </si>
+  <si>
     <t>NanoZoomer-SQ</t>
   </si>
   <si>
@@ -1096,6 +1162,12 @@
     <t>https://identifiers.org/RRID:SCR_023616</t>
   </si>
   <si>
+    <t>timsTOF HT</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026543</t>
+  </si>
+  <si>
     <t>PhenoImager Fusion</t>
   </si>
   <si>
@@ -1954,12 +2026,6 @@
     <t>https://identifiers.org/RRID:SCR_023734</t>
   </si>
   <si>
-    <t>Element Biosciences</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_026453</t>
-  </si>
-  <si>
     <t>SunChrom</t>
   </si>
   <si>
@@ -1999,12 +2065,6 @@
     <t>https://identifiers.org/RRID:SCR_024570</t>
   </si>
   <si>
-    <t>AVITI</t>
-  </si>
-  <si>
-    <t>https://identifiers.org/RRID:SCR_026452</t>
-  </si>
-  <si>
     <t>SunCollect Sprayer</t>
   </si>
   <si>
@@ -2125,6 +2185,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
   </si>
   <si>
+    <t>10x Genomics; Xenium Prime 5K Human Pan Tissue &amp; Pathways Panel; PN 1000724</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000426</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
   </si>
   <si>
@@ -2206,7 +2272,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-02-21T09:59:41-08:00</t>
+    <t>2025-03-27T10:50:44-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2406,148 +2472,148 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>276</v>
+        <v>300</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>277</v>
+        <v>301</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>288</v>
+        <v>312</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>289</v>
+        <v>313</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>290</v>
+        <v>314</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>291</v>
+        <v>315</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>292</v>
+        <v>316</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>299</v>
+        <v>323</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>304</v>
+        <v>328</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>311</v>
+        <v>335</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>314</v>
+        <v>338</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>315</v>
+        <v>339</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>319</v>
+        <v>343</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>330</v>
+        <v>354</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>331</v>
+        <v>355</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>332</v>
+        <v>356</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>337</v>
+        <v>361</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>338</v>
+        <v>362</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>339</v>
+        <v>363</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>340</v>
+        <v>364</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>343</v>
+        <v>367</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>344</v>
+        <v>368</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>346</v>
+        <v>370</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>351</v>
+        <v>375</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>356</v>
+        <v>380</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>357</v>
+        <v>381</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>358</v>
+        <v>382</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>419</v>
+        <v>443</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>450</v>
+        <v>474</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>451</v>
+        <v>475</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>452</v>
+        <v>476</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>453</v>
+        <v>477</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>504</v>
+        <v>528</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>506</v>
+        <v>530</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>507</v>
+        <v>531</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>516</v>
+        <v>538</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>545</v>
+        <v>565</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>562</v>
+        <v>582</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>563</v>
+        <v>583</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>564</v>
+        <v>584</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>589</v>
+        <v>611</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>590</v>
+        <v>612</v>
       </c>
     </row>
     <row r="2">
@@ -2555,13 +2621,13 @@
         <v>72</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>591</v>
+        <v>613</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="41">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$39</formula1>
+      <formula1>'dataset_type'!$A$1:$A$40</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2570,10 +2636,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$24</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$25</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$54</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$64</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2674,10 +2740,10 @@
       <formula1>'sequencing_reagent_kit'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$10</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$19</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_kit'!$A$1:$A$11</formula1>
@@ -2690,7 +2756,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$13</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$14</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -2712,26 +2778,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2749,37 +2815,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>305</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>307</v>
+        <v>331</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>308</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>309</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>310</v>
+        <v>334</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2797,27 +2863,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>306</v>
+        <v>330</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>313</v>
+        <v>337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2835,26 +2901,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>300</v>
+        <v>324</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>301</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>302</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>303</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -2872,32 +2938,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>294</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>317</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>305</v>
+        <v>329</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -2915,42 +2981,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>345</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>322</v>
+        <v>346</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>323</v>
+        <v>347</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>324</v>
+        <v>348</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>325</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>326</v>
+        <v>350</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>327</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>328</v>
+        <v>352</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>329</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -2968,18 +3034,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>333</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>334</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -2997,18 +3063,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>342</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3026,18 +3092,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>341</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>342</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>335</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>336</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -3055,18 +3121,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>347</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>348</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>349</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>350</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3076,7 +3142,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B40"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3392,6 +3458,14 @@
       </c>
       <c r="B39" t="s" s="0">
         <v>81</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="0">
+        <v>82</v>
+      </c>
+      <c r="B40" t="s" s="0">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3409,18 +3483,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>352</v>
+        <v>376</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>353</v>
+        <v>377</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>354</v>
+        <v>378</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>355</v>
+        <v>379</v>
       </c>
     </row>
   </sheetData>
@@ -3438,242 +3512,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>385</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>386</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>387</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>365</v>
+        <v>389</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>366</v>
+        <v>390</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>367</v>
+        <v>391</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>368</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>369</v>
+        <v>393</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>370</v>
+        <v>394</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>371</v>
+        <v>395</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>372</v>
+        <v>396</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>373</v>
+        <v>397</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>374</v>
+        <v>398</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>375</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>376</v>
+        <v>400</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>377</v>
+        <v>401</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>378</v>
+        <v>402</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>379</v>
+        <v>403</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>380</v>
+        <v>404</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>381</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>382</v>
+        <v>406</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>383</v>
+        <v>407</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>384</v>
+        <v>408</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>385</v>
+        <v>409</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>386</v>
+        <v>410</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>387</v>
+        <v>411</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>388</v>
+        <v>412</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>390</v>
+        <v>414</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>391</v>
+        <v>415</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>392</v>
+        <v>416</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>393</v>
+        <v>417</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>394</v>
+        <v>418</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>395</v>
+        <v>419</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>396</v>
+        <v>420</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>397</v>
+        <v>421</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>398</v>
+        <v>422</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>399</v>
+        <v>423</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>400</v>
+        <v>424</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>402</v>
+        <v>426</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>403</v>
+        <v>427</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>404</v>
+        <v>428</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>406</v>
+        <v>430</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>407</v>
+        <v>431</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>408</v>
+        <v>432</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>409</v>
+        <v>433</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>410</v>
+        <v>434</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>411</v>
+        <v>435</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>412</v>
+        <v>436</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>414</v>
+        <v>438</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>415</v>
+        <v>439</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>416</v>
+        <v>440</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>418</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3691,138 +3765,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>422</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>423</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>424</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>425</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>426</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>427</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>428</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>429</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>431</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>432</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>433</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>434</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>435</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>406</v>
+        <v>430</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>436</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>437</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>438</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>439</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>440</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>441</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>442</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>443</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>444</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>445</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>447</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>448</v>
+        <v>472</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>449</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -3840,12 +3914,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3863,210 +3937,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>454</v>
+        <v>478</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>455</v>
+        <v>479</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>456</v>
+        <v>480</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>457</v>
+        <v>481</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>458</v>
+        <v>482</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>459</v>
+        <v>483</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>460</v>
+        <v>484</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>461</v>
+        <v>485</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>462</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>463</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>464</v>
+        <v>488</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>465</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>466</v>
+        <v>490</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>467</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>468</v>
+        <v>492</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>469</v>
+        <v>493</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>470</v>
+        <v>494</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>471</v>
+        <v>495</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>472</v>
+        <v>496</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>473</v>
+        <v>497</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>474</v>
+        <v>498</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>475</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>476</v>
+        <v>500</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>477</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>478</v>
+        <v>502</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>479</v>
+        <v>503</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>480</v>
+        <v>504</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>481</v>
+        <v>505</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>482</v>
+        <v>506</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>483</v>
+        <v>507</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>406</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>484</v>
+        <v>508</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>485</v>
+        <v>509</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>486</v>
+        <v>510</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>487</v>
+        <v>511</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>488</v>
+        <v>512</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>489</v>
+        <v>513</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>490</v>
+        <v>514</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>491</v>
+        <v>515</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>492</v>
+        <v>516</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>493</v>
+        <v>517</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>494</v>
+        <v>518</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>495</v>
+        <v>519</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>496</v>
+        <v>520</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>497</v>
+        <v>521</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>498</v>
+        <v>522</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>499</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>500</v>
+        <v>524</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>501</v>
+        <v>525</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>502</v>
+        <v>526</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>503</v>
+        <v>527</v>
       </c>
     </row>
   </sheetData>
@@ -4076,7 +4150,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4084,82 +4158,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>119</v>
+        <v>147</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>120</v>
+        <v>148</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>149</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>150</v>
+        <v>164</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>509</v>
+        <v>533</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>510</v>
+        <v>534</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>511</v>
+        <v>535</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>151</v>
+        <v>165</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>152</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>512</v>
+        <v>167</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>513</v>
+        <v>168</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>155</v>
+        <v>536</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="0">
-        <v>514</v>
-      </c>
-      <c r="B10" t="s" s="0">
-        <v>515</v>
+        <v>537</v>
       </c>
     </row>
   </sheetData>
@@ -4169,7 +4235,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4177,154 +4243,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>218</v>
+        <v>240</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>219</v>
+        <v>241</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>517</v>
+        <v>539</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>518</v>
+        <v>540</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>519</v>
+        <v>541</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>520</v>
+        <v>542</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>264</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>265</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>521</v>
+        <v>543</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>522</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>523</v>
+        <v>545</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>524</v>
+        <v>546</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>525</v>
+        <v>547</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>526</v>
+        <v>548</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>527</v>
+        <v>549</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>528</v>
+        <v>550</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>529</v>
+        <v>551</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>530</v>
+        <v>552</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>531</v>
+        <v>553</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>532</v>
+        <v>554</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>533</v>
+        <v>555</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>534</v>
+        <v>556</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>535</v>
+        <v>557</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>536</v>
+        <v>558</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>537</v>
+        <v>559</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>538</v>
+        <v>560</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>539</v>
+        <v>561</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>540</v>
+        <v>562</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>541</v>
+        <v>563</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="0">
-        <v>543</v>
-      </c>
-      <c r="B19" t="s" s="0">
-        <v>544</v>
+        <v>564</v>
       </c>
     </row>
   </sheetData>
@@ -4342,90 +4400,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>546</v>
+        <v>566</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>547</v>
+        <v>567</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>548</v>
+        <v>568</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>549</v>
+        <v>569</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>413</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>414</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>401</v>
+        <v>425</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>402</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>550</v>
+        <v>570</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>551</v>
+        <v>571</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>552</v>
+        <v>572</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>553</v>
+        <v>573</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>554</v>
+        <v>574</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>555</v>
+        <v>575</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>556</v>
+        <v>576</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>557</v>
+        <v>577</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>405</v>
+        <v>429</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>406</v>
+        <v>430</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>558</v>
+        <v>578</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>559</v>
+        <v>579</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>560</v>
+        <v>580</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>561</v>
+        <v>581</v>
       </c>
     </row>
   </sheetData>
@@ -4443,18 +4501,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>287</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -4464,7 +4522,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4472,106 +4530,114 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>565</v>
+        <v>585</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>566</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>567</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>568</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>570</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>571</v>
+        <v>591</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>572</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>405</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>406</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>573</v>
+        <v>429</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>574</v>
+        <v>430</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>575</v>
+        <v>595</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>576</v>
+        <v>596</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>577</v>
+        <v>597</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>578</v>
+        <v>598</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>579</v>
+        <v>599</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>580</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>581</v>
+        <v>601</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>582</v>
+        <v>602</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>583</v>
+        <v>603</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>584</v>
+        <v>604</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>585</v>
+        <v>605</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>586</v>
+        <v>606</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>587</v>
+        <v>607</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>588</v>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="0">
+        <v>609</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -4589,130 +4655,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>84</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -4730,12 +4796,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4759,16 +4825,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>592</v>
+        <v>614</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>593</v>
+        <v>615</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>595</v>
+        <v>617</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>597</v>
+        <v>619</v>
       </c>
     </row>
     <row r="2">
@@ -4776,13 +4842,13 @@
         <v>72</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>594</v>
+        <v>616</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>596</v>
+        <v>618</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>598</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -4800,12 +4866,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4815,7 +4881,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4823,194 +4889,202 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -5020,7 +5094,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B54"/>
+  <dimension ref="A1:B64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5028,434 +5102,514 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>280</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="0">
+        <v>282</v>
+      </c>
+      <c r="B56" t="s" s="0">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="0">
+        <v>284</v>
+      </c>
+      <c r="B57" t="s" s="0">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="0">
+        <v>286</v>
+      </c>
+      <c r="B58" t="s" s="0">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="0">
+        <v>288</v>
+      </c>
+      <c r="B59" t="s" s="0">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="0">
+        <v>290</v>
+      </c>
+      <c r="B60" t="s" s="0">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="0">
+        <v>292</v>
+      </c>
+      <c r="B61" t="s" s="0">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="0">
+        <v>294</v>
+      </c>
+      <c r="B62" t="s" s="0">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="0">
+        <v>296</v>
+      </c>
+      <c r="B63" t="s" s="0">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="0">
+        <v>298</v>
+      </c>
+      <c r="B64" t="s" s="0">
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -5473,42 +5627,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>278</v>
+        <v>302</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>279</v>
+        <v>303</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>281</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>286</v>
+        <v>310</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>287</v>
+        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -5526,26 +5680,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>280</v>
+        <v>304</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>281</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>282</v>
+        <v>306</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>283</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>284</v>
+        <v>308</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>285</v>
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5563,37 +5717,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>293</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>294</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>295</v>
+        <v>319</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>296</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>297</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>298</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="695" uniqueCount="621">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="633">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -502,10 +502,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
   </si>
   <si>
-    <t>DBiT</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000222</t>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
   </si>
   <si>
     <t>SIMS</t>
@@ -604,6 +604,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
     <t>MERFISH</t>
   </si>
   <si>
@@ -871,6 +877,12 @@
     <t>https://identifiers.org/RRID:SCR_023911</t>
   </si>
   <si>
+    <t>Singular Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026683</t>
+  </si>
+  <si>
     <t>Vizgen</t>
   </si>
   <si>
@@ -1090,6 +1102,12 @@
     <t>https://identifiers.org/RRID:SCR_026551</t>
   </si>
   <si>
+    <t>G4X Spatial Sequencer</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026684</t>
+  </si>
+  <si>
     <t>NextSeq 500</t>
   </si>
   <si>
@@ -1615,6 +1633,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000399</t>
   </si>
   <si>
+    <t>10x Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Mouse Transcriptome, 6.5mm, 4 rxns; PN 1000521</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000432</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell 3' HT Kit v3.1, 48 rxns; PN 1000348</t>
   </si>
   <si>
@@ -2203,6 +2227,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
   </si>
   <si>
+    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit v2.0 - Small; PN 1000667</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000431</t>
+  </si>
+  <si>
     <t>NanoString Technologies; GeoMx Human Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-HuWTA-4</t>
   </si>
   <si>
@@ -2245,6 +2275,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Human Universal Cell Characterization Panel (RNA, 1000 Plex); PN CMX-H-USCP-1KP-R</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000430</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
@@ -2272,7 +2308,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-03-27T10:50:44-07:00</t>
+    <t>2025-04-15T09:51:38-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2472,162 +2508,162 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>364</v>
+        <v>370</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>367</v>
+        <v>373</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>368</v>
+        <v>374</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>375</v>
+        <v>381</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>380</v>
+        <v>386</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>381</v>
+        <v>387</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>382</v>
+        <v>388</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>474</v>
+        <v>482</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>475</v>
+        <v>483</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>476</v>
+        <v>484</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>477</v>
+        <v>485</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>528</v>
+        <v>536</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>529</v>
+        <v>537</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>530</v>
+        <v>538</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>531</v>
+        <v>539</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>538</v>
+        <v>546</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>565</v>
+        <v>573</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>582</v>
+        <v>590</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>583</v>
+        <v>591</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>611</v>
+        <v>623</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>612</v>
+        <v>624</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>613</v>
+        <v>625</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="41">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$40</formula1>
+      <formula1>'dataset_type'!$A$1:$A$41</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2636,10 +2672,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$25</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$64</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2724,7 +2760,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$30</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$31</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
@@ -2756,7 +2792,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$14</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$16</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -2778,26 +2814,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2815,37 +2851,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>331</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>332</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>333</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>334</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2863,27 +2899,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>330</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>336</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>337</v>
+        <v>343</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2901,26 +2937,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>325</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>326</v>
+        <v>332</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>327</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2938,32 +2974,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>340</v>
+        <v>346</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>341</v>
+        <v>347</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>342</v>
+        <v>348</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>329</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
@@ -2981,42 +3017,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>345</v>
+        <v>351</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>347</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>351</v>
+        <v>357</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>353</v>
+        <v>359</v>
       </c>
     </row>
   </sheetData>
@@ -3034,18 +3070,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3063,18 +3099,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3092,18 +3128,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -3121,18 +3157,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>372</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>374</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3142,7 +3178,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:B41"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3466,6 +3502,14 @@
       </c>
       <c r="B40" t="s" s="0">
         <v>83</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="B41" t="s" s="0">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3483,18 +3527,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>376</v>
+        <v>382</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>377</v>
+        <v>383</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>378</v>
+        <v>384</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>379</v>
+        <v>385</v>
       </c>
     </row>
   </sheetData>
@@ -3504,7 +3548,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3512,242 +3556,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>383</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>384</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>386</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>387</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>388</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>390</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>392</v>
+        <v>398</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>449</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>450</v>
       </c>
     </row>
   </sheetData>
@@ -3765,138 +3817,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>445</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>446</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>447</v>
+        <v>455</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>449</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>451</v>
+        <v>459</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>453</v>
+        <v>461</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>454</v>
+        <v>462</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>455</v>
+        <v>463</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>456</v>
+        <v>464</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>457</v>
+        <v>465</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>459</v>
+        <v>467</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>461</v>
+        <v>469</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>462</v>
+        <v>470</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>463</v>
+        <v>471</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>465</v>
+        <v>473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>467</v>
+        <v>475</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>469</v>
+        <v>477</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>470</v>
+        <v>478</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>471</v>
+        <v>479</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>472</v>
+        <v>480</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>473</v>
+        <v>481</v>
       </c>
     </row>
   </sheetData>
@@ -3914,12 +3966,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3937,210 +3989,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>478</v>
+        <v>486</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>479</v>
+        <v>487</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>480</v>
+        <v>488</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>481</v>
+        <v>489</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>482</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>483</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>484</v>
+        <v>492</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>485</v>
+        <v>493</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>486</v>
+        <v>494</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>487</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>488</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>489</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>491</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>493</v>
+        <v>501</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>495</v>
+        <v>503</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>496</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>497</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>498</v>
+        <v>506</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>499</v>
+        <v>507</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>501</v>
+        <v>509</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>502</v>
+        <v>510</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>503</v>
+        <v>511</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>504</v>
+        <v>512</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>505</v>
+        <v>513</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>506</v>
+        <v>514</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>507</v>
+        <v>515</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>508</v>
+        <v>516</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>509</v>
+        <v>517</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>510</v>
+        <v>518</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>511</v>
+        <v>519</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>512</v>
+        <v>520</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>513</v>
+        <v>521</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>515</v>
+        <v>523</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>516</v>
+        <v>524</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>517</v>
+        <v>525</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>519</v>
+        <v>527</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>520</v>
+        <v>528</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>521</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>522</v>
+        <v>530</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>523</v>
+        <v>531</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>524</v>
+        <v>532</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>525</v>
+        <v>533</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>526</v>
+        <v>534</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>527</v>
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -4158,74 +4210,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>532</v>
+        <v>540</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>533</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>534</v>
+        <v>542</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>535</v>
+        <v>543</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>536</v>
+        <v>544</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>537</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -4243,146 +4295,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>241</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>539</v>
+        <v>547</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>540</v>
+        <v>548</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>541</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>542</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>227</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>288</v>
+        <v>294</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>289</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>543</v>
+        <v>551</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>544</v>
+        <v>552</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>545</v>
+        <v>553</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>546</v>
+        <v>554</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>547</v>
+        <v>555</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>548</v>
+        <v>556</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>549</v>
+        <v>557</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>550</v>
+        <v>558</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>551</v>
+        <v>559</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>552</v>
+        <v>560</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>554</v>
+        <v>562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>555</v>
+        <v>563</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>556</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>557</v>
+        <v>565</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>558</v>
+        <v>566</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>559</v>
+        <v>567</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>560</v>
+        <v>568</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>561</v>
+        <v>569</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>562</v>
+        <v>570</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>563</v>
+        <v>571</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>564</v>
+        <v>572</v>
       </c>
     </row>
   </sheetData>
@@ -4400,90 +4452,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>566</v>
+        <v>574</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>567</v>
+        <v>575</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>568</v>
+        <v>576</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>569</v>
+        <v>577</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>437</v>
+        <v>445</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>438</v>
+        <v>446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>426</v>
+        <v>434</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>570</v>
+        <v>578</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>571</v>
+        <v>579</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>572</v>
+        <v>580</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>573</v>
+        <v>581</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>574</v>
+        <v>582</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>575</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>576</v>
+        <v>584</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>577</v>
+        <v>585</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>430</v>
+        <v>438</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>578</v>
+        <v>586</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>579</v>
+        <v>587</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>580</v>
+        <v>588</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>581</v>
+        <v>589</v>
       </c>
     </row>
   </sheetData>
@@ -4501,18 +4553,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -4522,7 +4574,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4530,114 +4582,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>585</v>
+        <v>593</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>586</v>
+        <v>594</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>587</v>
+        <v>595</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>588</v>
+        <v>596</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>589</v>
+        <v>597</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>590</v>
+        <v>598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>591</v>
+        <v>599</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>592</v>
+        <v>600</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>593</v>
+        <v>601</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>594</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>429</v>
+        <v>603</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>430</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>595</v>
+        <v>437</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>596</v>
+        <v>438</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>597</v>
+        <v>605</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>598</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>599</v>
+        <v>607</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>600</v>
+        <v>608</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>601</v>
+        <v>609</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>602</v>
+        <v>610</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>603</v>
+        <v>611</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>605</v>
+        <v>613</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>606</v>
+        <v>614</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>607</v>
+        <v>615</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>608</v>
+        <v>616</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>609</v>
+        <v>617</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>610</v>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="0">
+        <v>619</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="0">
+        <v>621</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>622</v>
       </c>
     </row>
   </sheetData>
@@ -4655,130 +4723,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -4796,12 +4864,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4825,30 +4893,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>614</v>
+        <v>626</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>615</v>
+        <v>627</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>617</v>
+        <v>629</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>619</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>616</v>
+        <v>628</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>618</v>
+        <v>630</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>620</v>
+        <v>632</v>
       </c>
     </row>
   </sheetData>
@@ -4866,12 +4934,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -4881,7 +4949,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4889,202 +4957,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>173</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -5094,7 +5170,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B64"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5102,514 +5178,530 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>284</v>
+        <v>149</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>285</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="0">
+        <v>302</v>
+      </c>
+      <c r="B65" t="s" s="0">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="0">
+        <v>304</v>
+      </c>
+      <c r="B66" t="s" s="0">
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -5627,42 +5719,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>303</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5680,26 +5772,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>307</v>
+        <v>313</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>309</v>
+        <v>315</v>
       </c>
     </row>
   </sheetData>
@@ -5717,37 +5809,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>319</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>320</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>322</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -71,11 +71,11 @@
     <comment ref="C1" authorId="1">
       <text>
         <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurment and preparation. For example for an imaging assay, the protocol might
-include staining of a section through the creation of an OME-TIFF file. In this
-case the protocol would include any image processing steps required to create
-the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
+procurement and preparation. For example for an imaging assay, the protocol
+might begin with staining of a section and finalize with the creation of an
+OME-TIFF file. In this case the protocol would include any image processing
+steps required to create the OME-TIFF file. Example:
+https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
@@ -124,8 +124,8 @@
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acqusition instrument was last serviced by the
-vendor. This provides a metric for assessing drift in data capture.</t>
+        <t>The amount of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture.</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
@@ -2308,7 +2308,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-15T09:51:38-07:00</t>
+    <t>2025-04-24T10:49:52-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="633">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="637">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1156,6 +1156,18 @@
     <t>https://identifiers.org/RRID:SCR_021660</t>
   </si>
   <si>
+    <t>timsTOF FleX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026925</t>
+  </si>
+  <si>
+    <t>timsTOF FleX MALDI-2</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_023615</t>
+  </si>
+  <si>
     <t>NanoZoomer S210</t>
   </si>
   <si>
@@ -1225,7 +1237,7 @@
     <t>MALDI timsTOF Flex Prototype</t>
   </si>
   <si>
-    <t>https://identifiers.org/RRID:SCR_023615</t>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000433</t>
   </si>
   <si>
     <t>TissueScope LE Slide Scanner</t>
@@ -2308,7 +2320,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-04-24T10:49:52-07:00</t>
+    <t>2025-05-12T10:15:37-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2520,136 +2532,136 @@
         <v>175</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="2">
@@ -2657,7 +2669,7 @@
         <v>74</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
   </sheetData>
@@ -2675,7 +2687,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$66</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2814,10 +2826,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
@@ -2830,10 +2842,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2851,32 +2863,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7">
@@ -2899,22 +2911,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="5">
@@ -2937,10 +2949,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
@@ -2953,10 +2965,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2974,27 +2986,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6">
@@ -3017,42 +3029,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
   </sheetData>
@@ -3070,18 +3082,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3099,18 +3111,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3128,18 +3140,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -3157,18 +3169,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3527,18 +3539,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -3556,250 +3568,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>396</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
   </sheetData>
@@ -3817,10 +3829,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="2">
@@ -3833,122 +3845,122 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
   </sheetData>
@@ -3989,210 +4001,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>517</v>
+        <v>521</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>519</v>
+        <v>523</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>527</v>
+        <v>531</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>529</v>
+        <v>533</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>535</v>
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -4242,18 +4254,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>541</v>
+        <v>545</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>543</v>
+        <v>547</v>
       </c>
     </row>
     <row r="7">
@@ -4274,10 +4286,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -4295,10 +4307,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="2">
@@ -4311,10 +4323,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="4">
@@ -4327,10 +4339,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6">
@@ -4343,98 +4355,98 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
   </sheetData>
@@ -4452,90 +4464,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>575</v>
+        <v>579</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>577</v>
+        <v>581</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>579</v>
+        <v>583</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>581</v>
+        <v>585</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
   </sheetData>
@@ -4553,18 +4565,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -4582,130 +4594,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -4893,16 +4905,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="2">
@@ -4910,13 +4922,13 @@
         <v>74</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -5170,7 +5182,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B66"/>
+  <dimension ref="A1:B68"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5626,26 +5638,26 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>149</v>
+        <v>288</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>150</v>
+        <v>289</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>290</v>
+        <v>149</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>291</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60">
@@ -5702,6 +5714,22 @@
       </c>
       <c r="B66" t="s" s="0">
         <v>305</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="0">
+        <v>306</v>
+      </c>
+      <c r="B67" t="s" s="0">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="0">
+        <v>308</v>
+      </c>
+      <c r="B68" t="s" s="0">
+        <v>309</v>
       </c>
     </row>
   </sheetData>
@@ -5719,42 +5747,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
   </sheetData>
@@ -5772,26 +5800,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
   </sheetData>
@@ -5809,32 +5837,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="7">

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="647">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -574,6 +574,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
   </si>
   <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -811,6 +817,12 @@
     <t>https://identifiers.org/RRID:SCR_023607</t>
   </si>
   <si>
+    <t>Complete Genomics</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027007</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -1567,6 +1579,12 @@
     <t>http://purl.obolibrary.org/obo/UO_0010050</t>
   </si>
   <si>
+    <t>pg/ul</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000438</t>
+  </si>
+  <si>
     <t>nM</t>
   </si>
   <si>
@@ -2275,6 +2293,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Human Immuno-Oncology Panel (Protein, 64 Plex); PN CMX-H-IOP-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000436</t>
+  </si>
+  <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome, 4 rxns x 1 BC; PN 1000474</t>
   </si>
   <si>
@@ -2293,6 +2317,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000430</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (Protein, 64 Plex); PN CMX-M-Neuro-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000437</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
@@ -2320,7 +2350,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-05-12T10:15:37-07:00</t>
+    <t>2025-06-10T10:06:43-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2520,162 +2550,162 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>385</v>
+        <v>391</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>390</v>
+        <v>396</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>391</v>
+        <v>397</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>392</v>
+        <v>398</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>489</v>
+        <v>495</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>627</v>
+        <v>637</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>628</v>
+        <v>638</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="41">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$41</formula1>
+      <formula1>'dataset_type'!$A$1:$A$42</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2684,7 +2714,7 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$26</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
@@ -2758,7 +2788,7 @@
       <formula2>3.4028235E38</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AF2:AF1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_concentration_unit'!$A$1:$A$2</formula1>
+      <formula1>'library_concentration_unit'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AG2:AG1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'library_layout'!$A$1:$A$2</formula1>
@@ -2804,7 +2834,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$16</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -2826,26 +2856,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2863,37 +2893,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2911,27 +2941,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -2949,26 +2979,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
   </sheetData>
@@ -2986,32 +3016,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>
@@ -3029,42 +3059,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>357</v>
+        <v>361</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
   </sheetData>
@@ -3082,18 +3112,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3111,18 +3141,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3140,18 +3170,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>370</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -3161,7 +3191,7 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3169,18 +3199,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="0">
+        <v>389</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3190,7 +3228,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B42"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3522,6 +3560,14 @@
       </c>
       <c r="B41" t="s" s="0">
         <v>85</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="0">
+        <v>86</v>
+      </c>
+      <c r="B42" t="s" s="0">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -3539,18 +3585,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>386</v>
+        <v>392</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>387</v>
+        <v>393</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>389</v>
+        <v>395</v>
       </c>
     </row>
   </sheetData>
@@ -3568,250 +3614,250 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>393</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>394</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>395</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>396</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>397</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>398</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>400</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>404</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>406</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>408</v>
+        <v>414</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>409</v>
+        <v>415</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>410</v>
+        <v>416</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>411</v>
+        <v>417</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>412</v>
+        <v>418</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>413</v>
+        <v>419</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>414</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>415</v>
+        <v>421</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>416</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>417</v>
+        <v>423</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>418</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>419</v>
+        <v>425</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>420</v>
+        <v>426</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>422</v>
+        <v>428</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>423</v>
+        <v>429</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>424</v>
+        <v>430</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>425</v>
+        <v>431</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>426</v>
+        <v>432</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>427</v>
+        <v>433</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>428</v>
+        <v>434</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>429</v>
+        <v>435</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>430</v>
+        <v>436</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>431</v>
+        <v>437</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>432</v>
+        <v>438</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>433</v>
+        <v>439</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>434</v>
+        <v>440</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>435</v>
+        <v>441</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>436</v>
+        <v>442</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>439</v>
+        <v>445</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>440</v>
+        <v>446</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>445</v>
+        <v>451</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>446</v>
+        <v>452</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>452</v>
+        <v>458</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>454</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>
@@ -3829,138 +3875,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>456</v>
+        <v>462</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>457</v>
+        <v>463</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>459</v>
+        <v>465</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>461</v>
+        <v>467</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
   </sheetData>
@@ -3978,12 +4024,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4001,210 +4047,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>493</v>
+        <v>499</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>495</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -4222,74 +4268,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>547</v>
+        <v>553</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>549</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -4307,146 +4353,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -4464,90 +4510,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>578</v>
+        <v>584</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>579</v>
+        <v>585</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>580</v>
+        <v>586</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>581</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>449</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>450</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>437</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>438</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>582</v>
+        <v>588</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>583</v>
+        <v>589</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
   </sheetData>
@@ -4565,18 +4611,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -4586,7 +4632,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4594,130 +4640,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>602</v>
+        <v>608</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>442</v>
+        <v>448</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>626</v>
+        <v>632</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>633</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>635</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>636</v>
       </c>
     </row>
   </sheetData>
@@ -4735,130 +4797,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
@@ -4876,12 +4938,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4905,30 +4967,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>631</v>
+        <v>641</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>633</v>
+        <v>643</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>636</v>
+        <v>646</v>
       </c>
     </row>
   </sheetData>
@@ -4946,12 +5008,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4961,7 +5023,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4969,210 +5031,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>178</v>
       </c>
     </row>
   </sheetData>
@@ -5190,546 +5260,546 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5747,42 +5817,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
   </sheetData>
@@ -5800,26 +5870,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
@@ -5837,37 +5907,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -416,7 +416,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="723" uniqueCount="647">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="653">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -823,6 +823,12 @@
     <t>https://identifiers.org/RRID:SCR_027007</t>
   </si>
   <si>
+    <t>3DHISTECH</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027042</t>
+  </si>
+  <si>
     <t>GE Healthcare</t>
   </si>
   <si>
@@ -976,6 +982,12 @@
     <t>https://identifiers.org/RRID:SCR_017202</t>
   </si>
   <si>
+    <t>Pannoramic MIDI II Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024834</t>
+  </si>
+  <si>
     <t>Not applicable</t>
   </si>
   <si>
@@ -1729,6 +1741,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000394</t>
   </si>
   <si>
+    <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000439</t>
+  </si>
+  <si>
     <t>Parse Biosciences; Evercode WT Mini v2 Kit, 12 rxns; PN ECW02010</t>
   </si>
   <si>
@@ -2350,7 +2368,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-10T10:06:43-07:00</t>
+    <t>2025-06-10T14:23:18-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2559,139 +2577,139 @@
         <v>124</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>461</v>
+        <v>467</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>492</v>
+        <v>498</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>493</v>
+        <v>499</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>494</v>
+        <v>500</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>495</v>
+        <v>501</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>546</v>
+        <v>552</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>548</v>
+        <v>554</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>556</v>
+        <v>562</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>637</v>
+        <v>643</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>638</v>
+        <v>644</v>
       </c>
     </row>
     <row r="2">
@@ -2699,7 +2717,7 @@
         <v>76</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>639</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -2714,10 +2732,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$27</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$28</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$68</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$69</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2802,7 +2820,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$31</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$32</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
@@ -2856,26 +2874,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -2893,37 +2911,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2941,27 +2959,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -2979,26 +2997,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -3016,32 +3034,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>
@@ -3059,42 +3077,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3112,18 +3130,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>372</v>
+        <v>376</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3141,18 +3159,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3170,18 +3188,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
   </sheetData>
@@ -3199,26 +3217,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -3585,18 +3603,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>393</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>395</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -3606,7 +3624,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3614,250 +3632,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>400</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>412</v>
+        <v>416</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>418</v>
+        <v>422</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>420</v>
+        <v>424</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>424</v>
+        <v>428</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>426</v>
+        <v>430</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>434</v>
+        <v>438</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>440</v>
+        <v>444</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>458</v>
+        <v>462</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>460</v>
+        <v>464</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>465</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>466</v>
       </c>
     </row>
   </sheetData>
@@ -3875,138 +3901,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>462</v>
+        <v>468</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>463</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>465</v>
+        <v>471</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>467</v>
+        <v>473</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>468</v>
+        <v>474</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>469</v>
+        <v>475</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>471</v>
+        <v>477</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>472</v>
+        <v>478</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>473</v>
+        <v>479</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>474</v>
+        <v>480</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>475</v>
+        <v>481</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>476</v>
+        <v>482</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>477</v>
+        <v>483</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>478</v>
+        <v>484</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>479</v>
+        <v>485</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>480</v>
+        <v>486</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>481</v>
+        <v>487</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>482</v>
+        <v>488</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>483</v>
+        <v>489</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>484</v>
+        <v>490</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>485</v>
+        <v>491</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>487</v>
+        <v>493</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>489</v>
+        <v>495</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>490</v>
+        <v>496</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>491</v>
+        <v>497</v>
       </c>
     </row>
   </sheetData>
@@ -4047,210 +4073,210 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>497</v>
+        <v>503</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>498</v>
+        <v>504</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>499</v>
+        <v>505</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>500</v>
+        <v>506</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>501</v>
+        <v>507</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>502</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>503</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>504</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>505</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>506</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>507</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>508</v>
+        <v>514</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>509</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>511</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>513</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>514</v>
+        <v>520</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>515</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>516</v>
+        <v>522</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>517</v>
+        <v>523</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>519</v>
+        <v>525</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>521</v>
+        <v>527</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>522</v>
+        <v>528</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>523</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>524</v>
+        <v>530</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>525</v>
+        <v>531</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>526</v>
+        <v>532</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>527</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>528</v>
+        <v>534</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>529</v>
+        <v>535</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>530</v>
+        <v>536</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>531</v>
+        <v>537</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>532</v>
+        <v>538</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>533</v>
+        <v>539</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>534</v>
+        <v>540</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>535</v>
+        <v>541</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>537</v>
+        <v>543</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>538</v>
+        <v>544</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>539</v>
+        <v>545</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>540</v>
+        <v>546</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>541</v>
+        <v>547</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>543</v>
+        <v>549</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>545</v>
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -4268,26 +4294,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="4">
@@ -4300,42 +4326,42 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>550</v>
+        <v>556</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>551</v>
+        <v>557</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>553</v>
+        <v>559</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>554</v>
+        <v>560</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>555</v>
+        <v>561</v>
       </c>
     </row>
   </sheetData>
@@ -4353,146 +4379,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
   </sheetData>
@@ -4510,90 +4536,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>584</v>
+        <v>590</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>586</v>
+        <v>592</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>444</v>
+        <v>450</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>588</v>
+        <v>594</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>589</v>
+        <v>595</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>590</v>
+        <v>596</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>591</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>592</v>
+        <v>598</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>593</v>
+        <v>599</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>594</v>
+        <v>600</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>595</v>
+        <v>601</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>597</v>
+        <v>603</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>598</v>
+        <v>604</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>599</v>
+        <v>605</v>
       </c>
     </row>
   </sheetData>
@@ -4611,18 +4637,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -4640,146 +4666,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>604</v>
+        <v>610</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>609</v>
+        <v>615</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>610</v>
+        <v>616</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>612</v>
+        <v>618</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>613</v>
+        <v>619</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>614</v>
+        <v>620</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>448</v>
+        <v>454</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>615</v>
+        <v>621</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>616</v>
+        <v>622</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>617</v>
+        <v>623</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>618</v>
+        <v>624</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>619</v>
+        <v>625</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>620</v>
+        <v>626</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>621</v>
+        <v>627</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>622</v>
+        <v>628</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>623</v>
+        <v>629</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>624</v>
+        <v>630</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>625</v>
+        <v>631</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>626</v>
+        <v>632</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>627</v>
+        <v>633</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>628</v>
+        <v>634</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>629</v>
+        <v>635</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>630</v>
+        <v>636</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>631</v>
+        <v>637</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>632</v>
+        <v>638</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>633</v>
+        <v>639</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>634</v>
+        <v>640</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>635</v>
+        <v>641</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>636</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -4967,16 +4993,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>640</v>
+        <v>646</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>645</v>
+        <v>651</v>
       </c>
     </row>
     <row r="2">
@@ -4984,13 +5010,13 @@
         <v>76</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>642</v>
+        <v>648</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>644</v>
+        <v>650</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>646</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -5023,7 +5049,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5245,6 +5271,14 @@
         <v>178</v>
       </c>
     </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>179</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>180</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -5252,7 +5286,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B68"/>
+  <dimension ref="A1:B69"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5260,546 +5294,554 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>153</v>
+        <v>298</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>154</v>
+        <v>299</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>296</v>
+        <v>155</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>297</v>
+        <v>156</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="0">
+        <v>316</v>
+      </c>
+      <c r="B69" t="s" s="0">
+        <v>317</v>
       </c>
     </row>
   </sheetData>
@@ -5817,42 +5859,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
     </row>
   </sheetData>
@@ -5870,26 +5912,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
   </sheetData>
@@ -5907,37 +5949,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -50,106 +50,112 @@
   <commentList>
     <comment ref="A1" authorId="1">
       <text>
-        <t>(Required) Unique HuBMAP or SenNet identifier of the sample (i.e., block,
-section or suspension) used to perform this assay. For example, for a RNAseq
-assay, the parent would be the suspension, whereas, for one of the imaging
-assays, the parent would be the tissue section. If an assay comes from multiple
-parent samples then this should be a comma separated list. Example:
-HBM386.ZGKG.235, HBM672.MKPK.442 or SNT232.UBHJ.322, SNT329.ALSK.102</t>
+        <t>(Required) The unique identifier from HuBMAP or SenNet for the sample (such as a
+block, section, or suspension) used to perform the assay. For instance, in an
+RNAseq assay, the parent sample would be the suspension, while in imaging
+assays, it would be the tissue section. If the assay is derived from multiple
+parent samples, this field should contain a comma-separated list of identifiers.
+Example: HBM386.ZGKG.235, HBM672.MKPK.442</t>
       </text>
     </comment>
     <comment ref="B1" authorId="1">
       <text>
-        <t>An internal field labs can use it to add whatever ID(s) they want or need for
-dataset validation and tracking. This could be a single ID (e.g.,
-"Visium_9OLC_A4_S1") or a delimited list of IDs (e.g., “9OL; 9OLC.A2;
-Visium_9OLC_A4_S1”). This field will not be accessible to anyone outside of the
-consortium and no effort will be made to check if IDs provided by one data
-provider are also used by another.</t>
+        <t>A locally assigned identifier provided by the data provider for the dataset. It
+is used to reference an external metadata record that may be maintained
+independently, enabling traceability and supporting provenance tracking.
+Example: Visium_9OLC_A4_S1</t>
       </text>
     </comment>
     <comment ref="C1" authorId="1">
       <text>
-        <t>(Required) DOI for the protocols.io page that describes the assay or sample
-procurement and preparation. For example for an imaging assay, the protocol
-might begin with staining of a section and finalize with the creation of an
-OME-TIFF file. In this case the protocol would include any image processing
-steps required to create the OME-TIFF file. Example:
-https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1.</t>
+        <t>(Required) The DOI for the protocols.io page that details the assay or the
+procedures used for sample procurement and preparation. For example, in the case
+of an imaging assay, the protocol may start with tissue section staining and end
+with the generation of an OME-TIFF file. The documented protocol should also
+include any image processing steps involved in producing the final OME-TIFF.
+Example: https://dx.doi.org/10.17504/protocols.io.eq2lyno9qvx9/v1</t>
       </text>
     </comment>
     <comment ref="D1" authorId="1">
       <text>
-        <t>(Required) The specific type of dataset being produced.</t>
+        <t>(Required) The specific type of dataset being produced. Example: RNAseq</t>
       </text>
     </comment>
     <comment ref="E1" authorId="1">
       <text>
-        <t>(Required) Analytes are the target molecules being measured with the assay.</t>
+        <t>(Required) The analyte class which is the target molecule that the assay is
+measuring. Example: DNA</t>
       </text>
     </comment>
     <comment ref="F1" authorId="1">
       <text>
-        <t>(Required) Specifies whether or not a specific molecule(s) is/are targeted for
-detection/measurement by the assay ("Yes" or "No"). The CODEX analyte is
-protein.</t>
+        <t>(Required) Indicates whether a specific molecule or set of molecules is targeted
+for detection or measurement by the assay. Example: Yes</t>
       </text>
     </comment>
     <comment ref="G1" authorId="1">
       <text>
-        <t>(Required) An acquisition instrument is the device that contains the signal
-detection hardware and signal processing software. Assays generate signals such
-as light of various intensities or color or signals representing the molecular
-mass.</t>
+        <t>(Required) The company that manufactures or supplies the acquisition instrument.
+An acquisition instrument is a device equipped with signal detection hardware
+and signal processing software. It captures signals produced by assays, such as
+variations in light intensity or color, or signals corresponding to molecular
+mass. If the instrument was custom-built or developed internally, enter
+"In-House". Example: Illumina</t>
       </text>
     </comment>
     <comment ref="H1" authorId="1">
       <text>
-        <t>(Required) Manufacturers of an acquisition instrument may offer various versions
-(models) of that instrument with different features or sensitivities.
-Differences in features or sensitivities may be relevant to processing or
-interpretation of the data.</t>
+        <t>(Required) The specific model of the acquisition instrument, as manufacturers
+often offer various versions with differing features or sensitivities. These
+differences may be relevant to the processing or interpretation of the data. If
+the instrument was custom-built or developed internally, enter "In-House". If
+the model is unknown, enter "Unknown". Example: HiSeq 4000</t>
       </text>
     </comment>
     <comment ref="I1" authorId="1">
       <text>
-        <t>(Required) How long was the source material (parent) stored, prior to this
-sample being processed.</t>
+        <t>(Required) The length of time the sample was stored prior to processing it. For
+assays performed on tissue sections, this refers to how long the tissue section
+(e.g., slide) was stored before the assay began (e.g., imaging). For assays
+performed on suspensions, such as sequencing, it refers to how long the
+suspension was stored before library construction started. Example: 12</t>
       </text>
     </comment>
     <comment ref="J1" authorId="1">
       <text>
-        <t>(Required) The time duration unit of measurement</t>
+        <t>(Required) The unit of measurement used to specify the source storage duration
+value. Example: hour</t>
       </text>
     </comment>
     <comment ref="K1" authorId="1">
       <text>
-        <t>The amount of time since the acquisition instrument was last serviced or
-calibrated. This provides a metric for assessing drift in data capture.</t>
+        <t>The length of time since the acquisition instrument was last serviced or
+calibrated. This provides a metric for assessing drift in data capture. Example:
+10</t>
       </text>
     </comment>
     <comment ref="L1" authorId="1">
       <text>
-        <t>The time unit of measurement</t>
+        <t>The unit of measurement used to specify the time since acquisition instrument
+calibration value. Example: month</t>
       </text>
     </comment>
     <comment ref="M1" authorId="1">
       <text>
-        <t>(Required) The path to the file with the ORCID IDs for all contributors of this
-dataset (e.g., "./extras/contributors.tsv" or "./contributors.tsv"). This is an
-internal metadata field that is just used for ingest.</t>
+        <t>(Required) The name of the file containing the ORCID IDs for all contributors to
+this dataset. Example: ./contributors.csv</t>
       </text>
     </comment>
     <comment ref="N1" authorId="1">
       <text>
-        <t>(Required) The top level directory containing the raw and/or processed data. For
-a single dataset upload this might be "." where as for a data upload containing
-multiple datasets, this would be the directory name for the respective dataset.
-For instance, if the data is within a directory called "TEST001-RK" use syntax
-"./TEST001-RK" for this field. If there are multiple directory levels, use the
-format "./TEST001-RK/Run1/Pass2" in which "Pass2" is the subdirectory where the
-single dataset's data is stored. This is an internal metadata field that is just
-used for ingest.</t>
+        <t>(Required) The top-level directory containing the raw and/or processed data. For
+a single dataset upload, this might be represented as ".", whereas for a data
+upload containing multiple datasets, this would be the directory name for the
+respective dataset. For example, if the data is within a directory named
+"TEST001-RK", use the syntax "./TEST001-RK" for this field. If there are
+multiple directory levels, use the format "./TEST001-RK/Run1/Pass2", where
+"Pass2" is the subdirectory where the single dataset's data is stored. This is
+an internal metadata field used solely for data ingestion. Example: ./TEST001-RK</t>
       </text>
     </comment>
     <comment ref="O1" authorId="1">
@@ -181,8 +187,10 @@
     </comment>
     <comment ref="R1" authorId="1">
       <text>
-        <t>(Required) Position in the read at which the UMI barcode starts. This should be
-included when constructing sequencing libraries with a non-commercial kit.</t>
+        <t>(Required) The position within a sequencing read where the Unique Molecular
+Identifier (UMI) sequence begins. UMIs are short, random nucleotide sequences
+added to DNA or RNA fragments during library preparation to uniquely tag each
+original molecule. If no UMI is used, enter "Not applicable". Example: 16</t>
       </text>
     </comment>
     <comment ref="S1" authorId="1">
@@ -380,34 +388,37 @@
     </comment>
     <comment ref="AV1" authorId="1">
       <text>
-        <t>(Required) How long was the oligo-conjugated RNA or oligo-conjugated antibody
-probes hybridized with the sample?</t>
+        <t>(Required) The duration for which the oligo-conjugated RNA or oligo-conjugated
+antibody probes were hybridized with the sample. Example: 30</t>
       </text>
     </comment>
     <comment ref="AW1" authorId="1">
       <text>
-        <t>(Required) The units for probe hybridization time value.</t>
+        <t>(Required) The unit of measurement for the probe hybridization time value. If
+the hybridization time is not specified, this field may be left blank. Example:
+minute</t>
       </text>
     </comment>
     <comment ref="AX1" authorId="1">
       <text>
-        <t>(Required) This is the probe panel used to target genes and/or proteins. In
-cases where there is a core panel and add-on modules, the core panel should be
-selected here. If additional panels are used, then they must be included in the
-"additional_panels_used.csv" file that's uploaded with the dataset.</t>
+        <t>(Required) The oligo probe panel used to target genes and/or proteins. If there
+is a core panel along with add-on modules, the core panel should be selected in
+this field. Any additional panels utilized should be documented in the
+"additional_panels_used.csv" file, which must be uploaded alongside the dataset.
+Example: 10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
       </text>
     </comment>
     <comment ref="AY1" authorId="1">
       <text>
-        <t>(Required) State ("Yes" or "No") whether custom RNA or antibody probes were
-used. If custom probes were used, they must be listed in the
-"custom_probe_set.csv" file.</t>
+        <t>(Required) Indicates whether custom RNA or antibody probes were utilized in the
+assay. If custom probes were employed, they should be documented in the
+"custom_probe_set.csv" file. Example: No</t>
       </text>
     </comment>
     <comment ref="AZ1" authorId="1">
       <text>
-        <t>(Required) The string that serves as the definitive identifier for the metadata
-schema version and is readily interpretable by computers for data validation and
+        <t>(Required) The unique string identifier for the metadata specification version,
+which is easily interpretable by computers for purposes of data validation and
 processing. Example: 22bc762a-5020-419d-b170-24253ed9e8d9</t>
       </text>
     </comment>
@@ -416,7 +427,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="715">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -442,34 +453,172 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000264</t>
   </si>
   <si>
+    <t>COMET</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000458</t>
+  </si>
+  <si>
+    <t>Visium (no probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
+  </si>
+  <si>
+    <t>DESI</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
+  </si>
+  <si>
+    <t>Confocal</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+  </si>
+  <si>
+    <t>Stereo-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
+  </si>
+  <si>
+    <t>Visium (with probes)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
+  </si>
+  <si>
+    <t>Molecular Cartography</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
+  </si>
+  <si>
+    <t>DBiT-seq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
+  </si>
+  <si>
+    <t>Seq-Scope</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000390</t>
+  </si>
+  <si>
+    <t>CosMx Transcriptomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
+  </si>
+  <si>
+    <t>CyCIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
+  </si>
+  <si>
+    <t>Light Sheet</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+  </si>
+  <si>
+    <t>seqFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
+  </si>
+  <si>
+    <t>ATACseq</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
+  </si>
+  <si>
+    <t>CosMx Proteomics</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
+  </si>
+  <si>
+    <t>Singular Genomics G4X</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
+  </si>
+  <si>
+    <t>Visium HD</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000451</t>
+  </si>
+  <si>
+    <t>MERFISH</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
+  </si>
+  <si>
+    <t>10X Multiome</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
+  </si>
+  <si>
+    <t>4i</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000447</t>
+  </si>
+  <si>
+    <t>PhenoCycler</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
+  </si>
+  <si>
+    <t>Second Harmonic Generation (SHG)</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
+  </si>
+  <si>
+    <t>Thick section Multiphoton MxIF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
+  </si>
+  <si>
+    <t>CyTOF</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+  </si>
+  <si>
+    <t>Olink</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000441</t>
+  </si>
+  <si>
     <t>MIBI</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000172</t>
   </si>
   <si>
-    <t>Visium (no probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000302</t>
-  </si>
-  <si>
-    <t>DESI</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000204</t>
-  </si>
-  <si>
     <t>Auto-fluorescence</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000205</t>
   </si>
   <si>
-    <t>Confocal</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000206</t>
+    <t>FACS</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000440</t>
   </si>
   <si>
     <t>Xenium</t>
@@ -478,36 +627,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000219</t>
   </si>
   <si>
-    <t>Stereo-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000385</t>
-  </si>
-  <si>
-    <t>Visium (with probes)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000303</t>
-  </si>
-  <si>
-    <t>Molecular Cartography</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
-  </si>
-  <si>
-    <t>CosMx</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000218</t>
-  </si>
-  <si>
-    <t>DBiT-seq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000428</t>
-  </si>
-  <si>
     <t>SIMS</t>
   </si>
   <si>
@@ -538,16 +657,10 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000328</t>
   </si>
   <si>
-    <t>CyCIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000200</t>
-  </si>
-  <si>
-    <t>Light Sheet</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
+    <t>Pixel-seqV2</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000450</t>
   </si>
   <si>
     <t>MALDI</t>
@@ -556,30 +669,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000201</t>
   </si>
   <si>
-    <t>seqFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000397</t>
-  </si>
-  <si>
     <t>2D Imaging Mass Cytometry</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000296</t>
   </si>
   <si>
-    <t>ATACseq</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000309</t>
-  </si>
-  <si>
-    <t>CosMx Proteomics</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000435</t>
-  </si>
-  <si>
     <t>Histology</t>
   </si>
   <si>
@@ -610,18 +705,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000310</t>
   </si>
   <si>
-    <t>Singular Genomics G4X</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000429</t>
-  </si>
-  <si>
-    <t>MERFISH</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000221</t>
-  </si>
-  <si>
     <t>LC-MS</t>
   </si>
   <si>
@@ -634,12 +717,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000312</t>
   </si>
   <si>
-    <t>10X Multiome</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000215</t>
-  </si>
-  <si>
     <t>GeoMx (nCounter)</t>
   </si>
   <si>
@@ -652,34 +729,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000311</t>
   </si>
   <si>
-    <t>PhenoCycler</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000199</t>
-  </si>
-  <si>
-    <t>Second Harmonic Generation (SHG)</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000208</t>
-  </si>
-  <si>
-    <t>Thick section Multiphoton MxIF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
-  </si>
-  <si>
     <t>MS Lipidomics</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
-    <t>CyTOF</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000407</t>
+    <t>MPLEx</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000448</t>
   </si>
   <si>
     <t>analyte_class</t>
@@ -943,12 +1002,24 @@
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Cytek Biosciences</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027071</t>
+  </si>
+  <si>
     <t>10x Genomics</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023672</t>
   </si>
   <si>
+    <t>Microscopes International</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027094</t>
+  </si>
+  <si>
     <t>Hamamatsu</t>
   </si>
   <si>
@@ -1096,6 +1167,12 @@
     <t>https://identifiers.org/RRID:SCR_019916</t>
   </si>
   <si>
+    <t>uScopeHXII-20</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027101</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1174,6 +1251,12 @@
     <t>https://identifiers.org/RRID:SCR_016381</t>
   </si>
   <si>
+    <t>Axio Zoom.V16</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027090</t>
+  </si>
+  <si>
     <t>Digital Spatial Profiler</t>
   </si>
   <si>
@@ -1210,6 +1293,12 @@
     <t>https://identifiers.org/RRID:SCR_023694</t>
   </si>
   <si>
+    <t>Cytek Northern Lights</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027072</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1300,6 +1389,9 @@
     <t>https://identifiers.org/RRID:SCR_023618</t>
   </si>
   <si>
+    <t>https://identifiers.org/RRID:SCR_027323</t>
+  </si>
+  <si>
     <t>MERSCOPE</t>
   </si>
   <si>
@@ -1324,6 +1416,18 @@
     <t>https://identifiers.org/RRID:SCR_016386</t>
   </si>
   <si>
+    <t>solariX</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027095</t>
+  </si>
+  <si>
+    <t>Panoramic 150 Digital Scanner</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027467</t>
+  </si>
+  <si>
     <t>Aperio AT2</t>
   </si>
   <si>
@@ -1336,6 +1440,12 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>Biomark HD</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_022658</t>
+  </si>
+  <si>
     <t>NanoZoomer S60</t>
   </si>
   <si>
@@ -1360,6 +1470,12 @@
     <t>https://identifiers.org/RRID:SCR_020927</t>
   </si>
   <si>
+    <t>Juno System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027198</t>
+  </si>
+  <si>
     <t>Q Exactive HF</t>
   </si>
   <si>
@@ -1480,9 +1596,6 @@
     <t>umi_offset</t>
   </si>
   <si>
-    <t>34</t>
-  </si>
-  <si>
     <t>36</t>
   </si>
   <si>
@@ -1789,6 +1902,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000260</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Single Cell 3ʹ GEM, Library &amp; Gel Bead Kit v3, 16 rxns; PN 1000075</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000460</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Single Cell 3' Library &amp; Gel Bead Kit, 4 rxns; PN 120267</t>
   </si>
   <si>
@@ -1822,6 +1941,12 @@
     <t>sample_indexing_kit</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium i7 Multiplex Kit, 96 rxns; PN 120262</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000461</t>
+  </si>
+  <si>
     <t>Illumina; TruSeq RNA CD Index Plate (96 Indexes, 96 Samples); PN 20019792</t>
   </si>
   <si>
@@ -2044,6 +2169,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000313</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq 6000 SP Reagent v1.5 Kit (300 Cycles); PN 20028400</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000459</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq 6000 S4 Reagent v1.5 Kit (200 Cycles); PN 20028313</t>
   </si>
   <si>
@@ -2200,6 +2331,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000462</t>
+  </si>
+  <si>
     <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
   </si>
   <si>
@@ -2245,40 +2382,124 @@
     <t>oligo_probe_panel</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell Fixed RNA Mouse Transcriptome Probe Kit, 64 rxns; PN 1000492</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Prime 5K Human Pan Tissue &amp; Pathways Panel; PN 1000724</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000426</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Mouse Multi-Tissue Atlassing Panel; PN 1000627</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000442</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit v2.0 - Small; PN 1000667</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000431</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Human 6K Discovery Panel (RNA, 6175 Plex); PN 121500041</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000455</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Mouse Universal Cell Characterization Panel (RNA, 1000 Plex); PN CMX-M-USCP-1KP-R</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000457</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Custom Gene Expression Panel (51-100 genes); PN 1000561</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000444</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Human Colon Gene Expression Panel; PN 1000642</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000446</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Human Immuno-Oncology Panel (Protein, 64 Plex); PN CMX-H-IOP-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000436</t>
+  </si>
+  <si>
+    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit - Small; PN 1000365</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Hs WTX RNA Panel Kit, 2 slides: PN 121500047</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000453</t>
+  </si>
+  <si>
+    <t>10x Genomics; Xenium Human Lung Gene Expression Panel; PN 1000601</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000443</t>
+  </si>
+  <si>
+    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (Protein, 64 Plex); PN CMX-M-Neuro-64P-P</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000437</t>
+  </si>
+  <si>
     <t>NanoString Technologies; GeoMx Mouse Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-MsWTA-4</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000364</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Next GEM Single Cell Fixed RNA Mouse Transcriptome Probe Kit, 64 rxns; PN 1000492</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000393</t>
-  </si>
-  <si>
-    <t>10x Genomics; Xenium Prime 5K Human Pan Tissue &amp; Pathways Panel; PN 1000724</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000426</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Large; PN 1000364</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000383</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000326</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit v2.0 - Small; PN 1000667</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000431</t>
+    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (RNA, 1000 Plex); PN CMX-M-NEUP-R</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000452</t>
   </si>
   <si>
     <t>NanoString Technologies; GeoMx Human Whole Transcriptome Atlas, 4 slides; PN GMX-RNA-NGS-HuWTA-4</t>
@@ -2287,34 +2508,16 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000363</t>
   </si>
   <si>
-    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 4 rxns x 4 BC; PN 1000475</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000307</t>
-  </si>
-  <si>
-    <t>10x Genomics; Visium Human Transcriptome Probe Kit v2 - Small; PN 1000466</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000274</t>
-  </si>
-  <si>
     <t>10x Genomics; Xenium Human Multi-Tissue and Cancer Panel v1; PN 1000626</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000395</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 64 rxns; PN 1000456</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000376</t>
-  </si>
-  <si>
-    <t>NanoString Technologies; CosMx Human Immuno-Oncology Panel (Protein, 64 Plex); PN CMX-H-IOP-64P-P</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000436</t>
+    <t>10x Genomics; Xenium Custom Gene Expression Panel (up to 50 genes); PN 1000464</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000445</t>
   </si>
   <si>
     <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome, 4 rxns x 1 BC; PN 1000474</t>
@@ -2323,30 +2526,24 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000306</t>
   </si>
   <si>
-    <t>10x Genomics; Visium Mouse Transcriptome Probe Kit - Small; PN 1000365</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000362</t>
-  </si>
-  <si>
     <t>NanoString Technologies; CosMx Human Universal Cell Characterization Panel (RNA, 1000 Plex); PN CMX-H-USCP-1KP-R</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000430</t>
   </si>
   <si>
-    <t>NanoString Technologies; CosMx Mouse Neuroscience Panel (Protein, 64 Plex); PN CMX-M-Neuro-64P-P</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000437</t>
-  </si>
-  <si>
     <t>10X Genomics; Chromium Next GEM Single Cell Fixed RNA Human Transcriptome Probe Kit, 16 rxns; PN 1000420</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000382</t>
   </si>
   <si>
+    <t>NanoString Technologies; CosMx Hs Univ Cell (RNA, 1000 Plex); PN 121500002</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000454</t>
+  </si>
+  <si>
     <t>is_custom_probes_used</t>
   </si>
   <si>
@@ -2368,7 +2565,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-06-10T14:23:18-07:00</t>
+    <t>2025-10-17T11:51:45-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2568,162 +2765,162 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>181</v>
+        <v>201</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>318</v>
+        <v>353</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>319</v>
+        <v>354</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>334</v>
+        <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>341</v>
+        <v>376</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>346</v>
+        <v>381</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>356</v>
+        <v>390</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>357</v>
+        <v>391</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>361</v>
+        <v>395</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>372</v>
+        <v>406</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>373</v>
+        <v>407</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>374</v>
+        <v>408</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>379</v>
+        <v>413</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>380</v>
+        <v>414</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>381</v>
+        <v>415</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>385</v>
+        <v>419</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>386</v>
+        <v>420</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>387</v>
+        <v>421</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>388</v>
+        <v>422</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>395</v>
+        <v>429</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>400</v>
+        <v>434</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>401</v>
+        <v>435</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>402</v>
+        <v>436</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>467</v>
+        <v>503</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>498</v>
+        <v>536</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>499</v>
+        <v>537</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>500</v>
+        <v>538</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>501</v>
+        <v>539</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>552</v>
+        <v>592</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>553</v>
+        <v>593</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>554</v>
+        <v>594</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>555</v>
+        <v>595</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>562</v>
+        <v>602</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>589</v>
+        <v>629</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>606</v>
+        <v>648</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>607</v>
+        <v>649</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>608</v>
+        <v>650</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>643</v>
+        <v>705</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>644</v>
+        <v>706</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>645</v>
+        <v>707</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="41">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$42</formula1>
+      <formula1>'dataset_type'!$A$1:$A$50</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -2732,10 +2929,10 @@
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$28</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$69</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -2761,7 +2958,7 @@
       <formula1>'barcode_size'!$A$1:$A$7</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_offset'!$A$1:$A$5</formula1>
+      <formula1>'umi_offset'!$A$1:$A$4</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="S2:S1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_read'!$A$1:$A$3</formula1>
@@ -2820,10 +3017,10 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$32</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$17</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -2833,7 +3030,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$26</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -2842,7 +3039,7 @@
       <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$11</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$12</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AV2:AV1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -2852,7 +3049,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$18</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$28</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -2874,26 +3071,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>343</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -2911,37 +3108,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>347</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>348</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>349</v>
+        <v>384</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>350</v>
+        <v>385</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>351</v>
+        <v>386</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>352</v>
+        <v>387</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2951,7 +3148,7 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2959,27 +3156,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>348</v>
+        <v>383</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>354</v>
+        <v>389</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -2997,26 +3189,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>342</v>
+        <v>377</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>343</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>344</v>
+        <v>379</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>345</v>
+        <v>380</v>
       </c>
     </row>
   </sheetData>
@@ -3034,32 +3226,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>358</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>393</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>360</v>
+        <v>394</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>347</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>
@@ -3077,42 +3269,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>362</v>
+        <v>396</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>363</v>
+        <v>397</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>364</v>
+        <v>398</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>365</v>
+        <v>399</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>366</v>
+        <v>400</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>367</v>
+        <v>401</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>368</v>
+        <v>402</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>369</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>370</v>
+        <v>404</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>371</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>
@@ -3130,18 +3322,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>375</v>
+        <v>409</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>376</v>
+        <v>410</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>378</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3159,18 +3351,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>384</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>378</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3188,18 +3380,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>383</v>
+        <v>417</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>384</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>377</v>
+        <v>411</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>378</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
@@ -3217,26 +3409,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>389</v>
+        <v>423</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>390</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>391</v>
+        <v>425</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>392</v>
+        <v>426</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>394</v>
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -3246,7 +3438,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B42"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3586,6 +3778,70 @@
       </c>
       <c r="B42" t="s" s="0">
         <v>87</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="0">
+        <v>88</v>
+      </c>
+      <c r="B43" t="s" s="0">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="B44" t="s" s="0">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B45" t="s" s="0">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="0">
+        <v>94</v>
+      </c>
+      <c r="B46" t="s" s="0">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="0">
+        <v>96</v>
+      </c>
+      <c r="B47" t="s" s="0">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="0">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s" s="0">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s" s="0">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s" s="0">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3603,18 +3859,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>396</v>
+        <v>430</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>397</v>
+        <v>431</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>398</v>
+        <v>432</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>399</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -3624,7 +3880,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3632,258 +3888,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>404</v>
+        <v>438</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>406</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>407</v>
+        <v>441</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>408</v>
+        <v>442</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>409</v>
+        <v>443</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>410</v>
+        <v>444</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>411</v>
+        <v>445</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>412</v>
+        <v>446</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>413</v>
+        <v>447</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>414</v>
+        <v>448</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>415</v>
+        <v>449</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>416</v>
+        <v>450</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>417</v>
+        <v>451</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>418</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>419</v>
+        <v>453</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>420</v>
+        <v>454</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>421</v>
+        <v>455</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>422</v>
+        <v>456</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>424</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>425</v>
+        <v>459</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>426</v>
+        <v>460</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>427</v>
+        <v>461</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>428</v>
+        <v>462</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>429</v>
+        <v>463</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>430</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>431</v>
+        <v>465</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>432</v>
+        <v>466</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>433</v>
+        <v>467</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>434</v>
+        <v>468</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>435</v>
+        <v>469</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>436</v>
+        <v>470</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>437</v>
+        <v>471</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>438</v>
+        <v>472</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>439</v>
+        <v>473</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>440</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>441</v>
+        <v>475</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>442</v>
+        <v>476</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>443</v>
+        <v>477</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>444</v>
+        <v>478</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>445</v>
+        <v>479</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>446</v>
+        <v>480</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>447</v>
+        <v>481</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>448</v>
+        <v>482</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>449</v>
+        <v>483</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>450</v>
+        <v>484</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>451</v>
+        <v>485</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>452</v>
+        <v>486</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>454</v>
+        <v>488</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>455</v>
+        <v>489</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>456</v>
+        <v>490</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>457</v>
+        <v>491</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>458</v>
+        <v>492</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>459</v>
+        <v>493</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>460</v>
+        <v>494</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>461</v>
+        <v>495</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>462</v>
+        <v>496</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>463</v>
+        <v>497</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>464</v>
+        <v>498</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>465</v>
+        <v>499</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>466</v>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>501</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>502</v>
       </c>
     </row>
   </sheetData>
@@ -3893,7 +4157,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3901,138 +4165,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>468</v>
+        <v>504</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>469</v>
+        <v>505</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>190</v>
+        <v>506</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>191</v>
+        <v>507</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>470</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>471</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>472</v>
+        <v>508</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>473</v>
+        <v>509</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>474</v>
+        <v>510</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>475</v>
+        <v>511</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>476</v>
+        <v>512</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>477</v>
+        <v>513</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>478</v>
+        <v>514</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>479</v>
+        <v>515</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>480</v>
+        <v>516</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>481</v>
+        <v>517</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>482</v>
+        <v>518</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>483</v>
+        <v>519</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>453</v>
+        <v>520</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>454</v>
+        <v>521</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>485</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>486</v>
+        <v>522</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>487</v>
+        <v>523</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>488</v>
+        <v>524</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>489</v>
+        <v>525</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>490</v>
+        <v>526</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>491</v>
+        <v>527</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>492</v>
+        <v>528</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>493</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>494</v>
+        <v>530</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>495</v>
+        <v>531</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>496</v>
+        <v>532</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>497</v>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>534</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>535</v>
       </c>
     </row>
   </sheetData>
@@ -4050,12 +4322,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4065,7 +4337,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4073,210 +4345,218 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>502</v>
+        <v>540</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>503</v>
+        <v>541</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>504</v>
+        <v>542</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>505</v>
+        <v>543</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>506</v>
+        <v>544</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>507</v>
+        <v>545</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>508</v>
+        <v>546</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>509</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>510</v>
+        <v>548</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>511</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>512</v>
+        <v>550</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>513</v>
+        <v>551</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>514</v>
+        <v>552</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>515</v>
+        <v>553</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>516</v>
+        <v>554</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>517</v>
+        <v>555</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>518</v>
+        <v>556</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>519</v>
+        <v>557</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>520</v>
+        <v>558</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>521</v>
+        <v>559</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>522</v>
+        <v>560</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>523</v>
+        <v>561</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>524</v>
+        <v>562</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>525</v>
+        <v>563</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>526</v>
+        <v>564</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>527</v>
+        <v>565</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>528</v>
+        <v>566</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>529</v>
+        <v>567</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>530</v>
+        <v>568</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>531</v>
+        <v>569</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>453</v>
+        <v>487</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>454</v>
+        <v>488</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>532</v>
+        <v>570</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>533</v>
+        <v>571</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>534</v>
+        <v>572</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>535</v>
+        <v>573</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>536</v>
+        <v>574</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>537</v>
+        <v>575</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>538</v>
+        <v>576</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>539</v>
+        <v>577</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>540</v>
+        <v>578</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>541</v>
+        <v>579</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>542</v>
+        <v>580</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>543</v>
+        <v>581</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>544</v>
+        <v>582</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>545</v>
+        <v>583</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>546</v>
+        <v>584</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>547</v>
+        <v>585</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>548</v>
+        <v>586</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>549</v>
+        <v>587</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>550</v>
+        <v>588</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>551</v>
+        <v>589</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>590</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
@@ -4294,74 +4574,74 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>556</v>
+        <v>596</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>557</v>
+        <v>597</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>558</v>
+        <v>598</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>559</v>
+        <v>599</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>176</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>178</v>
+        <v>198</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>561</v>
+        <v>601</v>
       </c>
     </row>
   </sheetData>
@@ -4379,146 +4659,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>258</v>
+        <v>282</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>259</v>
+        <v>283</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>563</v>
+        <v>603</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>564</v>
+        <v>604</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>565</v>
+        <v>605</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>566</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>240</v>
+        <v>262</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>241</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>306</v>
+        <v>339</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>307</v>
+        <v>340</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>567</v>
+        <v>607</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>568</v>
+        <v>608</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>569</v>
+        <v>609</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>570</v>
+        <v>610</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>571</v>
+        <v>611</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>572</v>
+        <v>612</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>573</v>
+        <v>613</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>574</v>
+        <v>614</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>575</v>
+        <v>615</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>576</v>
+        <v>616</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>577</v>
+        <v>617</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>578</v>
+        <v>618</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>579</v>
+        <v>619</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>580</v>
+        <v>620</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>581</v>
+        <v>621</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>582</v>
+        <v>622</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>583</v>
+        <v>623</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>584</v>
+        <v>624</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>585</v>
+        <v>625</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>586</v>
+        <v>626</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>587</v>
+        <v>627</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>588</v>
+        <v>628</v>
       </c>
     </row>
   </sheetData>
@@ -4528,7 +4808,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4536,90 +4816,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>590</v>
+        <v>630</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>591</v>
+        <v>631</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>592</v>
+        <v>632</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>593</v>
+        <v>633</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>461</v>
+        <v>497</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>462</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>449</v>
+        <v>634</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>450</v>
+        <v>635</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>594</v>
+        <v>483</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>595</v>
+        <v>484</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>596</v>
+        <v>636</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>597</v>
+        <v>637</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>598</v>
+        <v>638</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>599</v>
+        <v>639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>600</v>
+        <v>640</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>601</v>
+        <v>641</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>453</v>
+        <v>642</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>454</v>
+        <v>643</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>602</v>
+        <v>487</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>603</v>
+        <v>488</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>604</v>
+        <v>644</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>605</v>
+        <v>645</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="0">
+        <v>646</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -4637,18 +4925,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -4658,7 +4946,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4666,146 +4954,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>609</v>
+        <v>651</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>610</v>
+        <v>652</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>611</v>
+        <v>653</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>612</v>
+        <v>654</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>613</v>
+        <v>655</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>614</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>615</v>
+        <v>657</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>616</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>617</v>
+        <v>659</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>618</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>619</v>
+        <v>661</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>620</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>453</v>
+        <v>663</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>454</v>
+        <v>664</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>621</v>
+        <v>665</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>622</v>
+        <v>666</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>623</v>
+        <v>667</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>624</v>
+        <v>668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>625</v>
+        <v>669</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>626</v>
+        <v>670</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>627</v>
+        <v>671</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>628</v>
+        <v>672</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>629</v>
+        <v>673</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>630</v>
+        <v>674</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>631</v>
+        <v>675</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>632</v>
+        <v>676</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>633</v>
+        <v>677</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>634</v>
+        <v>678</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>635</v>
+        <v>679</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>636</v>
+        <v>680</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>637</v>
+        <v>681</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>638</v>
+        <v>682</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>639</v>
+        <v>683</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>640</v>
+        <v>684</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>641</v>
+        <v>685</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>642</v>
+        <v>686</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>687</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="0">
+        <v>689</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="0">
+        <v>487</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="0">
+        <v>691</v>
+      </c>
+      <c r="B22" t="s" s="0">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="0">
+        <v>693</v>
+      </c>
+      <c r="B23" t="s" s="0">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="0">
+        <v>695</v>
+      </c>
+      <c r="B24" t="s" s="0">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="0">
+        <v>697</v>
+      </c>
+      <c r="B25" t="s" s="0">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="0">
+        <v>699</v>
+      </c>
+      <c r="B26" t="s" s="0">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="0">
+        <v>701</v>
+      </c>
+      <c r="B27" t="s" s="0">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>703</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>704</v>
       </c>
     </row>
   </sheetData>
@@ -4823,130 +5191,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>91</v>
+        <v>107</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>94</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>96</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>97</v>
+        <v>113</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>98</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>100</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>105</v>
+        <v>121</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>106</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>107</v>
+        <v>123</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>108</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>110</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>112</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>113</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>114</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>116</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>118</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>119</v>
+        <v>135</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>120</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -4964,12 +5332,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -4993,30 +5361,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>646</v>
+        <v>708</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>647</v>
+        <v>709</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>649</v>
+        <v>711</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>651</v>
+        <v>713</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>648</v>
+        <v>710</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>650</v>
+        <v>712</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>652</v>
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -5034,12 +5402,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>122</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>123</v>
+        <v>139</v>
       </c>
     </row>
   </sheetData>
@@ -5049,7 +5417,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5057,226 +5425,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>125</v>
+        <v>141</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>126</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>127</v>
+        <v>143</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>128</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>129</v>
+        <v>145</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>130</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>132</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>135</v>
+        <v>151</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>136</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>139</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>140</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>141</v>
+        <v>157</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>142</v>
+        <v>158</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>143</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>144</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>146</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>147</v>
+        <v>163</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>148</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>150</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>152</v>
+        <v>168</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>154</v>
+        <v>170</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>156</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>158</v>
+        <v>174</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>160</v>
+        <v>176</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>163</v>
+        <v>179</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>164</v>
+        <v>180</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>166</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>168</v>
+        <v>184</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>170</v>
+        <v>186</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>172</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>174</v>
+        <v>190</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>175</v>
+        <v>191</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>176</v>
+        <v>192</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>177</v>
+        <v>193</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>178</v>
+        <v>194</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>179</v>
+        <v>195</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>180</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>197</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>200</v>
       </c>
     </row>
   </sheetData>
@@ -5286,7 +5670,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B69"/>
+  <dimension ref="A1:B77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5294,554 +5678,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>182</v>
+        <v>202</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>183</v>
+        <v>203</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>184</v>
+        <v>204</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>185</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>187</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>189</v>
+        <v>209</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>193</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>198</v>
+        <v>218</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>199</v>
+        <v>219</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>201</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>202</v>
+        <v>222</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>203</v>
+        <v>223</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>204</v>
+        <v>224</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>205</v>
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>206</v>
+        <v>226</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>207</v>
+        <v>227</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>209</v>
+        <v>229</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>211</v>
+        <v>231</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>212</v>
+        <v>232</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>213</v>
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>214</v>
+        <v>234</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>215</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>216</v>
+        <v>236</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>217</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>218</v>
+        <v>238</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>219</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>220</v>
+        <v>240</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>221</v>
+        <v>241</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>222</v>
+        <v>242</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>225</v>
+        <v>245</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>226</v>
+        <v>246</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>227</v>
+        <v>247</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>228</v>
+        <v>248</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>229</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>231</v>
+        <v>251</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>232</v>
+        <v>252</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>233</v>
+        <v>253</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>234</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>235</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>236</v>
+        <v>256</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>237</v>
+        <v>257</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>238</v>
+        <v>258</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>239</v>
+        <v>259</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>241</v>
+        <v>261</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>242</v>
+        <v>262</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>243</v>
+        <v>263</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>244</v>
+        <v>264</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>245</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>246</v>
+        <v>266</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>247</v>
+        <v>267</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>249</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>250</v>
+        <v>270</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>251</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>253</v>
+        <v>273</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>255</v>
+        <v>275</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>259</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>261</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>265</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>267</v>
+        <v>287</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>268</v>
+        <v>288</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>269</v>
+        <v>289</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>271</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>273</v>
+        <v>293</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>274</v>
+        <v>294</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>275</v>
+        <v>295</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>277</v>
+        <v>297</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>279</v>
+        <v>299</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>280</v>
+        <v>300</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>283</v>
+        <v>303</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>285</v>
+        <v>305</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>286</v>
+        <v>306</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>287</v>
+        <v>307</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>289</v>
+        <v>309</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>293</v>
+        <v>313</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>295</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>296</v>
+        <v>316</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>297</v>
+        <v>317</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>299</v>
+        <v>319</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>155</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>156</v>
+        <v>320</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>300</v>
+        <v>321</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>301</v>
+        <v>322</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>302</v>
+        <v>323</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>303</v>
+        <v>324</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>304</v>
+        <v>325</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>305</v>
+        <v>326</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>307</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>308</v>
+        <v>327</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>309</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>310</v>
+        <v>329</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>311</v>
+        <v>330</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>312</v>
+        <v>331</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>313</v>
+        <v>332</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>314</v>
+        <v>333</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>315</v>
+        <v>334</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>316</v>
+        <v>335</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>317</v>
+        <v>336</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="0">
+        <v>337</v>
+      </c>
+      <c r="B70" t="s" s="0">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="0">
+        <v>339</v>
+      </c>
+      <c r="B71" t="s" s="0">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="0">
+        <v>341</v>
+      </c>
+      <c r="B72" t="s" s="0">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="0">
+        <v>343</v>
+      </c>
+      <c r="B73" t="s" s="0">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="0">
+        <v>345</v>
+      </c>
+      <c r="B74" t="s" s="0">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="0">
+        <v>347</v>
+      </c>
+      <c r="B75" t="s" s="0">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="0">
+        <v>349</v>
+      </c>
+      <c r="B76" t="s" s="0">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="0">
+        <v>351</v>
+      </c>
+      <c r="B77" t="s" s="0">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -5859,42 +6307,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>320</v>
+        <v>355</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>321</v>
+        <v>356</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>325</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>329</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5912,26 +6360,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>322</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>323</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>324</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>325</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>327</v>
+        <v>362</v>
       </c>
     </row>
   </sheetData>
@@ -5949,37 +6397,37 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>335</v>
+        <v>370</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>336</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>337</v>
+        <v>372</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>338</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>339</v>
+        <v>374</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>340</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>190</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -160,29 +160,30 @@
     </comment>
     <comment ref="O1" authorId="1">
       <text>
-        <t>(Required) Positions in the read at which the cell or capture spot barcodes
-start. Cell and capture spot barcodes are, for example, 3 x 8 bp sequences that
-are spaced by constant sequences (the offsets). First barcode at position 0,
-then 38, then 76. This should be included when constructing sequencing libraries
-with a non-commercial kit.</t>
+        <t>(Required) The position within a sequencing read where a barcode sequence
+begins. In sequencing libraries, barcodes—short DNA sequences used to tag
+individual cells or molecules—are often arranged in a pattern where each barcode
+is separated by a constant sequence of known length. These constant sequences
+create predictable spacing between barcodes, known as offsets. For example, if
+barcodes are 8 base pairs (bp) long and separated by 30 bp constant regions, the
+barcodes might start at positions 0, 38, and 76 within the read. If the source
+material is not barcoded, this field should be marked as "Not applicable".
+Example: 0,38,76</t>
       </text>
     </comment>
     <comment ref="P1" authorId="1">
       <text>
-        <t>(Required) Which read file contains the cell or capture spot barcode. This
-should be included when constructing sequencing libraries with a non-commercial
-kit. This field is required if the source material is barcoded. This field is
-used to determine which analysis pipeline to run.</t>
+        <t>(Required) The sequencing read file contains the cell or capture spot barcode
+sequences. This information is essential when constructing sequencing libraries
+with a non-commercial kit, as it ensures that barcodes are correctly extracted
+during data processing. If the source material is not barcoded, this field
+should be marked as "Not applicable". Example: Read 1 (R1)</t>
       </text>
     </comment>
     <comment ref="Q1" authorId="1">
       <text>
-        <t>(Required) Length of the cell or capture spot barcode in base pairs. Cell and
-capture spot barcodes are, for example, 3 x 8 bp sequences that are spaced by
-constant sequences, the offsets. This should be included when constructing
-sequencing libraries with a non-commercial kit. This field is required if the
-source material is barcoded.  This field is used to determine which analysis
-pipeline to run.</t>
+        <t>(Required) The length of each cell or capture spot barcode in base pairs (bp).
+If the source material is not barcoded, enter "Not applicable". Example: 16</t>
       </text>
     </comment>
     <comment ref="R1" authorId="1">
@@ -195,85 +196,90 @@
     </comment>
     <comment ref="S1" authorId="1">
       <text>
-        <t>(Required) Which read file contains the UMI barcode. This should be included
-when constructing sequencing libraries with a non-commercial kit.</t>
+        <t>(Required) Specifies which sequencing read file contains the Unique Molecular
+Identifier (UMI) barcode. If no UMI is used, enter "Not applicable". Example:
+Read 1 (R1)</t>
       </text>
     </comment>
     <comment ref="T1" authorId="1">
       <text>
-        <t>(Required) Length of the umi barcode in base pairs. This should be included when
-constructing sequencing libraries with a non-commercial kit. This field is
-required if UMI are present. This field is used to determine which analysis
-pipeline to run.</t>
+        <t>(Required) The length of the Unique Molecular Identifier (UMI) in base pairs
+(bp). If no UMI is used, enter "Not applicable". Example: 8</t>
       </text>
     </comment>
     <comment ref="U1" authorId="1">
       <text>
-        <t>(Required) This is the entity from which the analyte is being captured. For
-example, for bulk sequencing this would be "tissue", while it would be "single
-cell" for single cell sequencing. This field is used to determine which analysis
-pipeline to run.</t>
+        <t>(Required) The entity from which the analyte is captured. For example, in bulk
+sequencing, the source entity would be "tissue" while in single-cell sequencing,
+it would be "single cell". Example: single cell</t>
       </text>
     </comment>
     <comment ref="V1" authorId="1">
       <text>
-        <t>How many cells or nuclei were input to the assay? This is typically not
-available for preparations working with bulk tissue.</t>
+        <t>The number of cells or nuclei that were input into the assay. This information
+is typically not available for assays performed on bulk tissue preparations, and
+therefore this field may be left blank. Example: 1000</t>
       </text>
     </comment>
     <comment ref="W1" authorId="1">
       <text>
-        <t>The amount of RNA or DNA input to the assay, typically measured by a Qubit,
-BioAnalyzer, or TapeStation. In most single cell/nuclei assays, this value isn't
-available.</t>
+        <t>The amount of RNA or DNA input into the assay, typically measured using
+instruments such as a Qubit, BioAnalyzer, or TapeStation. In most single-cell or
+single-nucleus assays, this value is usually not available, and therfore this
+field may be left blank. Example: 500</t>
       </text>
     </comment>
     <comment ref="X1" authorId="1">
       <text>
-        <t>Units of amount of entity input to assay value</t>
+        <t>The unit of measurement used to specify the amount of input analyte value. If no
+input amount, this field may be left blank. Example: ng</t>
       </text>
     </comment>
     <comment ref="Y1" authorId="1">
       <text>
-        <t>(Required) 5’ and/or 3’ read adapter sequences used as part of the library
-preparation protocol to render the library compatible with the sequencing
-protocol and instrumentation. This should be provided as comma-separated list of
-key:value pairs (adapter name:sequence).</t>
+        <t>(Required) The 5' and/or 3' adapter sequences used during library preparation to
+make the library compatible with the sequencing protocol and instrumentation.
+Adapter sequences should be provided as a comma-separated list of key-value
+pairs in the format: "adapter name: sequence". Example: Nextera Read 1:
+CTGTCTCTTATACACATCT</t>
       </text>
     </comment>
     <comment ref="Z1" authorId="1">
       <text>
-        <t>(Required) Average size of sequencing library fragments estimated via gel
-electrophoresis or bioanalyzer/tapestation. Numeric value in base pairs (bp).</t>
+        <t>(Required) The average size of sequencing library fragments, measured in base
+pairs (bp), as estimated by gel electrophoresis, BioAnalyzer, or TapeStation.
+Example: 200</t>
       </text>
     </comment>
     <comment ref="AA1" authorId="1">
       <text>
-        <t>The amount of cDNA, after amplification, that was used for library construction.</t>
+        <t>The amount of cDNA, after amplification, that was used for library construction.
+Example: 60</t>
       </text>
     </comment>
     <comment ref="AB1" authorId="1">
       <text>
-        <t>unit of library input amount value</t>
+        <t>The unit of measurement used to specify the library input amount value. Example:
+ng</t>
       </text>
     </comment>
     <comment ref="AC1" authorId="1">
       <text>
-        <t>Total amount (eg. nanograms) of library after the clean-up step of final pcr
-amplification step. Answer the question: What is the Qubit measured
-concentration (ng/ul) times the elution volume (ul) after the final clean-up
-step?</t>
+        <t>The total amount of library following the clean-up step after the final PCR
+amplification. To calculate, multiply the Qubit-measured concentration (ng/µl)
+by the elution volume (µl) obtained after the final clean-up. Example: 125</t>
       </text>
     </comment>
     <comment ref="AD1" authorId="1">
       <text>
-        <t>Units of library final yield.</t>
+        <t>The unit of measurement used to specify the library output amount value.
+Example: ng</t>
       </text>
     </comment>
     <comment ref="AE1" authorId="1">
       <text>
-        <t>(Required) The concentration value of the pooled library samples submitted for
-sequencing.</t>
+        <t>(Required) The concentration of the pooled library submitted for sequencing.
+Example: 2.5</t>
       </text>
     </comment>
     <comment ref="AF1" authorId="1">
@@ -283,107 +289,122 @@
     </comment>
     <comment ref="AG1" authorId="1">
       <text>
-        <t>(Required) Whether the library was generated for single-end or paired end
-sequencing</t>
+        <t>(Required) Indicates whether the sequencing library was prepared for single-end
+or paired-end sequencing. This information determines how reads are generated
+and aligned during data processing. Example: single-end</t>
       </text>
     </comment>
     <comment ref="AH1" authorId="1">
       <text>
-        <t>(Required) This is the amplification of the cDNA prior to library construction.
-This is typically a PCR amplification, while for linear amplification methods
-like aRNA this would be the number of rounds of aRNA.</t>
+        <t>(Required) The number of amplification cycles applied to cDNA prior to library
+construction. This is typically the number of PCR cycles used. For protocols
+using linear amplification methods (e.g., aRNA), this refers to the number of
+amplification rounds performed. Example: 3</t>
       </text>
     </comment>
     <comment ref="AI1" authorId="1">
       <text>
-        <t>(Required) Number of PCR cycles performed in order to add adapters and amplify
-the library. This does not include the cDNA amplification which is captured in
-the "number of iterations of cDNA amplification" field.</t>
+        <t>(Required) The number of PCR cycles used specifically to add sequencing adapters
+and amplify the library during the indexing step. This count does not include
+earlier cDNA amplification cycles, which are recorded separately under the
+"Number of iterations of cDNA amplification" field. Example: 8</t>
       </text>
     </comment>
     <comment ref="AJ1" authorId="1">
       <text>
-        <t>Reagent kit used for library preparation</t>
+        <t>The reagent kit used to construct the sequencing library, including both the kit
+name and, if available, version and product number. If the library was prepared
+using a custom protocol, enter “Custom”. Example: 10X Genomics; Chromium Next
+GEM Single Cell 5' Kit v2, 16 rxns; PN 1000263</t>
       </text>
     </comment>
     <comment ref="AK1" authorId="1">
       <text>
-        <t>Indexes are needed for multiplexing sequencing libraries for simultaneous
-sequencing (pooling) and proper attachment to the Illumina flowcell. Each
-indexing kit would have a number of compatible sequences ("sample indexing
-sets") that are used to label some number of samples (the number of sets depend
-on the kit).</t>
+        <t>The reagent kit used to add index sequences to samples. Indexes enable
+multiplexing, allowing multiple libraries to be pooled and sequenced together on
+the same Illumina flow cell. Each indexing kit includes a set of compatible
+index sequences (often called "indexing sets") used to uniquely label a specific
+number of samples, depending on the kit’s design. If the library was prepared
+using a custom protocol, enter “Custom”. If no indexing was performed, enter
+"Not applicable". Example: 10X Genomics; Dual Index Kit TS, Set A; PN 1000251</t>
       </text>
     </comment>
     <comment ref="AL1" authorId="1">
       <text>
-        <t>The specific sequencing barcode index set used, selected from the sample
-indexing kit. Example: For 10X this might be "SI-GA-A1", for Nextera "N505 -
-CTCCTTAC"</t>
+        <t>The specific sequencing barcode index set used, chosen from the sample indexing
+kit. For example, in the case of 10x, this might be "SI-GA-A1", whereas for
+Nextera, it could be "N505 - CTCCTTAC". Example: SI-GA-A1</t>
       </text>
     </comment>
     <comment ref="AM1" authorId="1">
       <text>
-        <t>(Required) Is the sequencing reaction run in replicate, "Yes" or "No". If "Yes",
-FASTQ files in dataset need to be merged.</t>
+        <t>(Required) Indicates whether the sequencing reaction was run in replicate. If
+"Yes," the corresponding FASTQ files in the dataset should be merged for
+analysis. Example: Yes</t>
       </text>
     </comment>
     <comment ref="AN1" authorId="1">
       <text>
-        <t>Number of cells, nuclei or capture spots expected to be captured by the assay.
-For Visium this is the total number of spots covered by tissue, within the
-capture area.</t>
+        <t>The number of cells, nuclei, or capture spots expected to be captured by the
+assay. Example: 14336</t>
       </text>
     </comment>
     <comment ref="AO1" authorId="1">
       <text>
-        <t>(Required) Reagent kit used for sequencing</t>
+        <t>(Required) The reagent kit used to perform the sequencing run, including the
+platform, kit name, version, and product number when available. If the reagent
+kit was prepared using a custom protocol, enter “Custom”. Example: Illumina;
+NextSeq 500/550 Hi Output Kit 150 Cycles; v2.5; PN 20024907</t>
       </text>
     </comment>
     <comment ref="AP1" authorId="1">
       <text>
-        <t>(Required) Number of sequencing cycles in each round of sequencing (i.e., Read1,
-i7 index, i5 index, and Read2). This is reported as a comma-delimited list.
-Example: For 10X snATAC-seq (R1,Index,R2,R3) this might be: 50,8,16,50. For
-SNARE-seq2 this might be: 75,94,8,75</t>
+        <t>(Required) The number of sequencing cycles for each read and index in the
+sequencing run, typically reported as a comma-separated list in the order: Read
+1, i7 index, i5 index, and Read 2. Example: 50,8,16,50</t>
       </text>
     </comment>
     <comment ref="AQ1" authorId="1">
       <text>
-        <t>The ID for the sequencing run. This could, for example, be the chip ID and
-should allow users the ability to determine which samples were processed
-together in a sequencing run. It is recommended that data providers prefix the
-ID with the center name, to prevent values overlapping across centers.</t>
+        <t>A lab-assigned identifier for the sequencing run, such as a chip ID, that
+enables users to determine which samples were processed together. To avoid ID
+conflicts across institutions, it is recommended to prefix the ID with the name
+of the sequencing center. Example: Broad_Chip1234</t>
       </text>
     </comment>
     <comment ref="AR1" authorId="1">
       <text>
-        <t>A lab-generated ID to identify which cells were captured at the same time. This
-would, for example, be an ID to denote which datasets were derived from a single
-10X Genomics Chromium Controller run. In the case of the 10X Controller this
-could be the chip ID and would allow users the ability to determine which
-samples were processed together in a Chromium controller. It is recommended that
-data providers prefix the ID with the center name, to prevent values overlapping
-across centers.</t>
+        <t>A lab-assigned identifier used to indicate which cells or nuclei were captured
+together in the same run. For example, in a 10X Genomics Chromium Controller
+workflow, this could be the chip ID used to trace datasets derived from a single
+capture event. This ID helps users identify samples processed together on the
+same device. To avoid conflicts across institutions, it is recommended to prefix
+the ID with the name of the sequencing center. Example: Broad_Batch1234</t>
       </text>
     </comment>
     <comment ref="AS1" authorId="1">
       <text>
-        <t>The manufacturer of the instrument used to prepare (staining/processing) the
-sample for the assay. If an automatic slide staining method was indicated this
-field should list the manufacturer of the instrument.</t>
+        <t>The company that manufactures the instrument used to prepare the sample (e.g.,
+for staining or other processing steps) prior to the assay. If the instrument
+was custom-built or developed internally, enter "In-House". If no sample
+preparation occurred, enter "Not applicable". Example: 10X Genomics</t>
       </text>
     </comment>
     <comment ref="AT1" authorId="1">
       <text>
-        <t>Manufacturers of a staining system instrument may offer various versions
-(models) of that instrument with different features. Differences in features or
-sensitivities may be relevant to processing or interpretation of the data.</t>
+        <t>The specific model of the instrument used for sample preparation, such as
+staining. Manufacturers may offer multiple models with varying features or
+sensitivities, which can influence how the sample is processed and how the
+resulting data is interpreted. If no sample preparation occurred, enter "Not
+applicable". Example: Chromium X</t>
       </text>
     </comment>
     <comment ref="AU1" authorId="1">
       <text>
-        <t>The reagent kit used with the preparation instrument.</t>
+        <t>The reagent kit used in conjunction with the preparation instrument for sample
+processing (e.g., staining or labeling). If the reagent kit was prepared using a
+custom protocol, enter “Custom”. Example: 10X Genomics; Chromium Next GEM Chip G
+Single Cell Kit, 48 rxns; PN 1000120</t>
       </text>
     </comment>
     <comment ref="AV1" authorId="1">
@@ -427,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="715">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="720">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1554,9 +1575,15 @@
     <t>0,38,76</t>
   </si>
   <si>
+    <t>10,48,78</t>
+  </si>
+  <si>
     <t>10,48,86</t>
   </si>
   <si>
+    <t>0,20-23,41-44</t>
+  </si>
+  <si>
     <t>barcode_read</t>
   </si>
   <si>
@@ -1590,9 +1617,6 @@
     <t>8,6</t>
   </si>
   <si>
-    <t>8,8</t>
-  </si>
-  <si>
     <t>umi_offset</t>
   </si>
   <si>
@@ -2049,6 +2073,12 @@
     <t>sequencing_reagent_kit</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 25B Reagent Kit (100 Cycle); PN 20125967</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000463</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (300 Cycle); PN 20104705</t>
   </si>
   <si>
@@ -2073,6 +2103,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000352</t>
   </si>
   <si>
+    <t>Illumina; NovaSeq X Series 25B Reagent Kit (200 Cycle); PN 20125968</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000464</t>
+  </si>
+  <si>
     <t>Illumina; NovaSeq X Series 1.5B Reagent Kit (200 Cycle); PN 20104704</t>
   </si>
   <si>
@@ -2565,7 +2601,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-17T11:51:45-07:00</t>
+    <t>2025-10-21T12:14:45-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2798,115 +2834,115 @@
         <v>369</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>592</v>
+        <v>597</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>593</v>
+        <v>598</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>594</v>
+        <v>599</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>595</v>
+        <v>600</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>602</v>
+        <v>607</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>629</v>
+        <v>634</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>648</v>
+        <v>653</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>649</v>
+        <v>654</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>650</v>
+        <v>655</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>705</v>
+        <v>710</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>706</v>
+        <v>711</v>
       </c>
     </row>
     <row r="2">
@@ -2914,7 +2950,7 @@
         <v>98</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>707</v>
+        <v>712</v>
       </c>
     </row>
   </sheetData>
@@ -2949,13 +2985,13 @@
       <formula1>'time_since_acquisition_instrume'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="O2:O1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_offset'!$A$1:$A$7</formula1>
+      <formula1>'barcode_offset'!$A$1:$A$9</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="P2:P1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'barcode_read'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="Q2:Q1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'barcode_size'!$A$1:$A$7</formula1>
+      <formula1>'barcode_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="R2:R1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'umi_offset'!$A$1:$A$4</formula1>
@@ -2964,7 +3000,7 @@
       <formula1>'umi_read'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_size'!$A$1:$A$6</formula1>
+      <formula1>'umi_size'!$A$1:$A$5</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'assay_input_entity'!$A$1:$A$5</formula1>
@@ -3030,7 +3066,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AO2:AO1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sequencing_reagent_kit'!$A$1:$A$27</formula1>
+      <formula1>'sequencing_reagent_kit'!$A$1:$A$29</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
@@ -3071,10 +3107,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
@@ -3087,10 +3123,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3100,7 +3136,7 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3108,36 +3144,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
         <v>210</v>
       </c>
     </row>
@@ -3161,12 +3192,12 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
@@ -3189,10 +3220,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2">
@@ -3205,10 +3236,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
   </sheetData>
@@ -3218,7 +3249,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3231,26 +3262,21 @@
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
         <v>210</v>
       </c>
     </row>
@@ -3269,42 +3295,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>403</v>
+        <v>404</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -3322,18 +3348,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3351,18 +3377,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3380,18 +3406,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
   </sheetData>
@@ -3409,26 +3435,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -3859,18 +3885,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -3888,266 +3914,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>438</v>
+        <v>439</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>450</v>
+        <v>451</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>452</v>
+        <v>453</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>458</v>
+        <v>459</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>460</v>
+        <v>461</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>462</v>
+        <v>463</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>464</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>480</v>
+        <v>481</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>482</v>
+        <v>483</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>490</v>
+        <v>491</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>492</v>
+        <v>493</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>494</v>
+        <v>495</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>496</v>
+        <v>497</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>500</v>
+        <v>501</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
   </sheetData>
@@ -4165,18 +4191,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>505</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="3">
@@ -4189,122 +4215,122 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>513</v>
+        <v>514</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>517</v>
+        <v>518</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>519</v>
+        <v>520</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>523</v>
+        <v>524</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>531</v>
+        <v>532</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -4337,7 +4363,7 @@
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4345,218 +4371,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>543</v>
+        <v>544</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>545</v>
+        <v>546</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>549</v>
+        <v>550</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>553</v>
+        <v>554</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>555</v>
+        <v>556</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>557</v>
+        <v>558</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>565</v>
+        <v>566</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>487</v>
+        <v>571</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>488</v>
+        <v>572</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>570</v>
+        <v>573</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>572</v>
+        <v>488</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>573</v>
+        <v>489</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>591</v>
+        <v>592</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="0">
+        <v>593</v>
+      </c>
+      <c r="B28" t="s" s="0">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>595</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>596</v>
       </c>
     </row>
   </sheetData>
@@ -4606,18 +4648,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>597</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>598</v>
+        <v>603</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>599</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7">
@@ -4638,10 +4680,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>601</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -4675,10 +4717,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>603</v>
+        <v>608</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>604</v>
+        <v>609</v>
       </c>
     </row>
     <row r="4">
@@ -4691,10 +4733,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>605</v>
+        <v>610</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>606</v>
+        <v>611</v>
       </c>
     </row>
     <row r="6">
@@ -4715,90 +4757,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>607</v>
+        <v>612</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>608</v>
+        <v>613</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>609</v>
+        <v>614</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>610</v>
+        <v>615</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>611</v>
+        <v>616</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>612</v>
+        <v>617</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>613</v>
+        <v>618</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>614</v>
+        <v>619</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>615</v>
+        <v>620</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>616</v>
+        <v>621</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>617</v>
+        <v>622</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>618</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>620</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>622</v>
+        <v>627</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>623</v>
+        <v>628</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>624</v>
+        <v>629</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>626</v>
+        <v>631</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>627</v>
+        <v>632</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>628</v>
+        <v>633</v>
       </c>
     </row>
   </sheetData>
@@ -4816,98 +4858,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>630</v>
+        <v>635</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>631</v>
+        <v>636</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>632</v>
+        <v>637</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>633</v>
+        <v>638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>634</v>
+        <v>639</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>635</v>
+        <v>640</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>484</v>
+        <v>485</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>636</v>
+        <v>641</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>637</v>
+        <v>642</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>638</v>
+        <v>643</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>639</v>
+        <v>644</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>640</v>
+        <v>645</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>641</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>642</v>
+        <v>647</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>643</v>
+        <v>648</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>644</v>
+        <v>649</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>645</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>647</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -4954,226 +4996,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>652</v>
+        <v>657</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>653</v>
+        <v>658</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>654</v>
+        <v>659</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>655</v>
+        <v>660</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>656</v>
+        <v>661</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>657</v>
+        <v>662</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>658</v>
+        <v>663</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>659</v>
+        <v>664</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>660</v>
+        <v>665</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>661</v>
+        <v>666</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>662</v>
+        <v>667</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>663</v>
+        <v>668</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>664</v>
+        <v>669</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>665</v>
+        <v>670</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>666</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>667</v>
+        <v>672</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>668</v>
+        <v>673</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>669</v>
+        <v>674</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>670</v>
+        <v>675</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>671</v>
+        <v>676</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>672</v>
+        <v>677</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>673</v>
+        <v>678</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>674</v>
+        <v>679</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>675</v>
+        <v>680</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>676</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>677</v>
+        <v>682</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>678</v>
+        <v>683</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>679</v>
+        <v>684</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>680</v>
+        <v>685</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>681</v>
+        <v>686</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>682</v>
+        <v>687</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>683</v>
+        <v>688</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>684</v>
+        <v>689</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>685</v>
+        <v>690</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>686</v>
+        <v>691</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>687</v>
+        <v>692</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>688</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>689</v>
+        <v>694</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>690</v>
+        <v>695</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>691</v>
+        <v>696</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>692</v>
+        <v>697</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>693</v>
+        <v>698</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>694</v>
+        <v>699</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>695</v>
+        <v>700</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>696</v>
+        <v>701</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>697</v>
+        <v>702</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>698</v>
+        <v>703</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>699</v>
+        <v>704</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>700</v>
+        <v>705</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>701</v>
+        <v>706</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>702</v>
+        <v>707</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>703</v>
+        <v>708</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>704</v>
+        <v>709</v>
       </c>
     </row>
   </sheetData>
@@ -5361,16 +5403,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>708</v>
+        <v>713</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>709</v>
+        <v>714</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>711</v>
+        <v>716</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>713</v>
+        <v>718</v>
       </c>
     </row>
     <row r="2">
@@ -5378,13 +5420,13 @@
         <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>710</v>
+        <v>715</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>712</v>
+        <v>717</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>714</v>
+        <v>719</v>
       </c>
     </row>
   </sheetData>
@@ -6389,7 +6431,7 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A7"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6427,6 +6469,16 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="0">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="0">
         <v>210</v>
       </c>
     </row>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="796" uniqueCount="720">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="724">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1890,6 +1890,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000342</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 48 rxns; PN 1000356</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000467</t>
+  </si>
+  <si>
     <t>Illumina; TruSeq Stranded mRNA Library Prep (96 samples); PN 20020595</t>
   </si>
   <si>
@@ -1956,6 +1962,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000338</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell 5' HT Kit v2, 8 rxns; PN 1000374</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000466</t>
+  </si>
+  <si>
     <t>10X Genomics; Visium CytAssist Spatial Gene Expression for FFPE, Human Transcriptome, 6.5mm, 4 reactions; PN 1000520</t>
   </si>
   <si>
@@ -2601,7 +2613,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-21T12:14:45-07:00</t>
+    <t>2025-10-24T14:05:47-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2897,52 +2909,52 @@
         <v>437</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2">
@@ -2950,7 +2962,7 @@
         <v>98</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>712</v>
+        <v>716</v>
       </c>
     </row>
   </sheetData>
@@ -3053,7 +3065,7 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$33</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$35</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'sample_indexing_kit'!$A$1:$A$18</formula1>
@@ -3906,7 +3918,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4174,6 +4186,22 @@
       </c>
       <c r="B33" t="s" s="0">
         <v>503</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="0">
+        <v>504</v>
+      </c>
+      <c r="B34" t="s" s="0">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="0">
+        <v>506</v>
+      </c>
+      <c r="B35" t="s" s="0">
+        <v>507</v>
       </c>
     </row>
   </sheetData>
@@ -4191,18 +4219,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
     </row>
     <row r="3">
@@ -4215,122 +4243,122 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
   </sheetData>
@@ -4371,234 +4399,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
   </sheetData>
@@ -4648,18 +4676,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="7">
@@ -4680,10 +4708,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -4717,10 +4745,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="4">
@@ -4733,10 +4761,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="6">
@@ -4757,90 +4785,90 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>
@@ -4858,98 +4886,98 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -4996,226 +5024,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
   </sheetData>
@@ -5403,16 +5431,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>718</v>
+        <v>722</v>
       </c>
     </row>
     <row r="2">
@@ -5420,13 +5448,13 @@
         <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="724">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="732">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1806,6 +1806,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000337</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Next GEM Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000175</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000471</t>
+  </si>
+  <si>
     <t>10x Genomics; Library Construction Kit C, 16 rxns; PN 1000694</t>
   </si>
   <si>
@@ -1878,6 +1884,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000394</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Single Cell ATAC Library &amp; Gel Bead Kit, 16 rxns; PN 1000110</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000469</t>
+  </si>
+  <si>
     <t>10x Genomics; Library Construction Kit, 16 rxns; PN 1000190</t>
   </si>
   <si>
@@ -2031,6 +2043,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000359</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium i7 Multiplex Kit N, Set A, 96 rxn; PN 1000084</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000468</t>
+  </si>
+  <si>
     <t>Parse Biosciences; Fragmentation Reagents; PN WX100</t>
   </si>
   <si>
@@ -2367,42 +2385,54 @@
     <t>preparation_instrument_kit</t>
   </si>
   <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000462</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000367</t>
+  </si>
+  <si>
+    <t>10x Genomics; Chromium Chip E Single Cell ATAC Kit, 48 rxns; PN 1000155</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000470</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000378</t>
+  </si>
+  <si>
+    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000368</t>
+  </si>
+  <si>
     <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 16 rxns; PN 1000127</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000379</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Chip K Automated Single Cell Kit, 48 rxns; PN 1000289</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000373</t>
-  </si>
-  <si>
-    <t>10x Genomics; Chromium Single Cell B Chip Kit, 16 rxns; PN 1000074</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000462</t>
-  </si>
-  <si>
     <t>10x Genomics; Chromium GEM-X Single Cell 3' Kit v4, 16 rxns; PN 1000691</t>
   </si>
   <si>
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000400</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 48 rxns; PN 1000286</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000367</t>
-  </si>
-  <si>
-    <t>10X Genomics; Chromium Next GEM Chip G Single Cell Kit, 48 rxns; PN 1000120</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000378</t>
-  </si>
-  <si>
     <t>10X Genomics; Visium FFPE Reagent Kit v2-Small, PN 1000436</t>
   </si>
   <si>
@@ -2415,12 +2445,6 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000325</t>
   </si>
   <si>
-    <t>10X Genomics; Chromium Next GEM Chip K Single Cell Kit, 16 rxns; PN 1000287</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000368</t>
-  </si>
-  <si>
     <t>probe_hybridization_time_value</t>
   </si>
   <si>
@@ -2613,7 +2637,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-24T14:05:47-07:00</t>
+    <t>2025-10-29T11:31:53-07:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2909,52 +2933,52 @@
         <v>437</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>541</v>
+        <v>547</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>542</v>
+        <v>548</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>543</v>
+        <v>549</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>544</v>
+        <v>550</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>601</v>
+        <v>607</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>602</v>
+        <v>608</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>603</v>
+        <v>609</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>604</v>
+        <v>610</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>611</v>
+        <v>617</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>638</v>
+        <v>644</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>657</v>
+        <v>665</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>658</v>
+        <v>666</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>659</v>
+        <v>667</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>715</v>
+        <v>723</v>
       </c>
     </row>
     <row r="2">
@@ -2962,7 +2986,7 @@
         <v>98</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>716</v>
+        <v>724</v>
       </c>
     </row>
   </sheetData>
@@ -3065,10 +3089,10 @@
       <formula2>2147483647</formula2>
     </dataValidation>
     <dataValidation type="list" sqref="AJ2:AJ1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'library_preparation_kit'!$A$1:$A$35</formula1>
+      <formula1>'library_preparation_kit'!$A$1:$A$37</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AK2:AK1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'sample_indexing_kit'!$A$1:$A$18</formula1>
+      <formula1>'sample_indexing_kit'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AM2:AM1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_technical_replicate'!$A$1:$A$2</formula1>
@@ -3081,13 +3105,13 @@
       <formula1>'sequencing_reagent_kit'!$A$1:$A$29</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$9</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$10</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_model'!$A$1:$A$18</formula1>
+      <formula1>'preparation_instrument_model'!$A$1:$A$19</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AU2:AU1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_kit'!$A$1:$A$12</formula1>
+      <formula1>'preparation_instrument_kit'!$A$1:$A$13</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="between" sqref="AV2:AV1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be a number" showErrorMessage="true">
       <formula1>-3.4028235E38</formula1>
@@ -3918,7 +3942,7 @@
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B35"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4204,6 +4228,22 @@
         <v>507</v>
       </c>
     </row>
+    <row r="36">
+      <c r="A36" t="s" s="0">
+        <v>508</v>
+      </c>
+      <c r="B36" t="s" s="0">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="0">
+        <v>510</v>
+      </c>
+      <c r="B37" t="s" s="0">
+        <v>511</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4211,7 +4251,7 @@
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4219,18 +4259,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
     </row>
     <row r="3">
@@ -4243,122 +4283,130 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>516</v>
+        <v>520</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>545</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>546</v>
       </c>
     </row>
   </sheetData>
@@ -4399,234 +4447,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>545</v>
+        <v>551</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>546</v>
+        <v>552</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>547</v>
+        <v>553</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>548</v>
+        <v>554</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>550</v>
+        <v>556</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>551</v>
+        <v>557</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>552</v>
+        <v>558</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>553</v>
+        <v>559</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>554</v>
+        <v>560</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>555</v>
+        <v>561</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>556</v>
+        <v>562</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>557</v>
+        <v>563</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>558</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>559</v>
+        <v>565</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>560</v>
+        <v>566</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>561</v>
+        <v>567</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>562</v>
+        <v>568</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>563</v>
+        <v>569</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>564</v>
+        <v>570</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>565</v>
+        <v>571</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>566</v>
+        <v>572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>567</v>
+        <v>573</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>568</v>
+        <v>574</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>569</v>
+        <v>575</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>570</v>
+        <v>576</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>571</v>
+        <v>577</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>572</v>
+        <v>578</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>573</v>
+        <v>579</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>574</v>
+        <v>580</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>575</v>
+        <v>581</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>576</v>
+        <v>582</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>577</v>
+        <v>583</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>578</v>
+        <v>584</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>579</v>
+        <v>585</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>580</v>
+        <v>586</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>581</v>
+        <v>587</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>582</v>
+        <v>588</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>583</v>
+        <v>589</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>584</v>
+        <v>590</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>585</v>
+        <v>591</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>586</v>
+        <v>592</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>587</v>
+        <v>593</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>588</v>
+        <v>594</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>590</v>
+        <v>596</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>591</v>
+        <v>597</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>592</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>593</v>
+        <v>599</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>594</v>
+        <v>600</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>595</v>
+        <v>601</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>596</v>
+        <v>602</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>598</v>
+        <v>604</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>599</v>
+        <v>605</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>600</v>
+        <v>606</v>
       </c>
     </row>
   </sheetData>
@@ -4636,7 +4684,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4676,18 +4724,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>605</v>
+        <v>611</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>606</v>
+        <v>612</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>607</v>
+        <v>613</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="7">
@@ -4708,10 +4756,18 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>609</v>
+        <v>169</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>610</v>
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="0">
+        <v>615</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>616</v>
       </c>
     </row>
   </sheetData>
@@ -4721,7 +4777,7 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4745,10 +4801,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>612</v>
+        <v>618</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>613</v>
+        <v>619</v>
       </c>
     </row>
     <row r="4">
@@ -4761,114 +4817,122 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>614</v>
+        <v>620</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>615</v>
+        <v>621</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>262</v>
+        <v>494</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>263</v>
+        <v>495</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>339</v>
+        <v>262</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>340</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>616</v>
+        <v>339</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>617</v>
+        <v>340</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>637</v>
+        <v>641</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="0">
+        <v>642</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>643</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +4942,7 @@
 
 <file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4886,98 +4950,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>639</v>
+        <v>645</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>640</v>
+        <v>646</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>641</v>
+        <v>647</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>642</v>
+        <v>648</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>501</v>
+        <v>491</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>643</v>
+        <v>649</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>644</v>
+        <v>650</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>486</v>
+        <v>651</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>487</v>
+        <v>652</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>645</v>
+        <v>653</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>646</v>
+        <v>654</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>647</v>
+        <v>494</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>648</v>
+        <v>495</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>649</v>
+        <v>655</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>650</v>
+        <v>656</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>651</v>
+        <v>657</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>652</v>
+        <v>658</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>491</v>
+        <v>505</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>653</v>
+        <v>659</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>654</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>655</v>
+        <v>661</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>656</v>
+        <v>662</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="0">
+        <v>663</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>664</v>
       </c>
     </row>
   </sheetData>
@@ -5024,226 +5096,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>660</v>
+        <v>668</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>661</v>
+        <v>669</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>662</v>
+        <v>670</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>663</v>
+        <v>671</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>664</v>
+        <v>672</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>665</v>
+        <v>673</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>666</v>
+        <v>674</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>667</v>
+        <v>675</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>668</v>
+        <v>676</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>669</v>
+        <v>677</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>670</v>
+        <v>678</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>671</v>
+        <v>679</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>672</v>
+        <v>680</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>673</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>674</v>
+        <v>682</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>675</v>
+        <v>683</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>676</v>
+        <v>684</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>677</v>
+        <v>685</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>678</v>
+        <v>686</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>681</v>
+        <v>689</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>682</v>
+        <v>690</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>683</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>684</v>
+        <v>692</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>685</v>
+        <v>693</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>686</v>
+        <v>694</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>687</v>
+        <v>695</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>688</v>
+        <v>696</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>689</v>
+        <v>697</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>690</v>
+        <v>698</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>691</v>
+        <v>699</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>693</v>
+        <v>701</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>694</v>
+        <v>702</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>695</v>
+        <v>703</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>696</v>
+        <v>704</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>697</v>
+        <v>705</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>698</v>
+        <v>706</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>699</v>
+        <v>707</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>700</v>
+        <v>708</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>701</v>
+        <v>709</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>702</v>
+        <v>710</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>703</v>
+        <v>711</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>704</v>
+        <v>712</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>705</v>
+        <v>713</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>706</v>
+        <v>714</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>707</v>
+        <v>715</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>708</v>
+        <v>716</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>709</v>
+        <v>717</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>710</v>
+        <v>718</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>711</v>
+        <v>719</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>712</v>
+        <v>720</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>713</v>
+        <v>721</v>
       </c>
     </row>
   </sheetData>
@@ -5431,16 +5503,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>717</v>
+        <v>725</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>718</v>
+        <v>726</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>720</v>
+        <v>728</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>722</v>
+        <v>730</v>
       </c>
     </row>
     <row r="2">
@@ -5448,13 +5520,13 @@
         <v>98</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>719</v>
+        <v>727</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>721</v>
+        <v>729</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>723</v>
+        <v>731</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="812" uniqueCount="732">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="734">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -516,6 +516,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000217</t>
   </si>
   <si>
+    <t>Virtual Histology</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000473</t>
+  </si>
+  <si>
     <t>DBiT-seq</t>
   </si>
   <si>
@@ -771,18 +777,18 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
-    <t>Nucleic acid + protein</t>
-  </si>
-  <si>
-    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
-  </si>
-  <si>
     <t>Chromatin</t>
   </si>
   <si>
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>RNA + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000474</t>
+  </si>
+  <si>
     <t>RNA</t>
   </si>
   <si>
@@ -2637,7 +2643,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-10-29T11:31:53-07:00</t>
+    <t>2025-11-19T14:40:34-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2837,162 +2843,162 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>608</v>
+        <v>610</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>724</v>
+        <v>726</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="41">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$50</formula1>
+      <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$16</formula1>
@@ -3105,7 +3111,7 @@
       <formula1>'sequencing_reagent_kit'!$A$1:$A$29</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AS2:AS1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'preparation_instrument_vendor'!$A$1:$A$10</formula1>
+      <formula1>'preparation_instrument_vendor'!$A$1:$A$11</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AT2:AT1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'preparation_instrument_model'!$A$1:$A$19</formula1>
@@ -3143,26 +3149,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3180,32 +3186,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3223,22 +3229,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3256,26 +3262,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
   </sheetData>
@@ -3293,27 +3299,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -3331,42 +3337,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
   </sheetData>
@@ -3384,18 +3390,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3413,18 +3419,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3442,18 +3448,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
   </sheetData>
@@ -3471,26 +3477,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
   </sheetData>
@@ -3500,7 +3506,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3904,6 +3910,14 @@
       </c>
       <c r="B50" t="s" s="0">
         <v>103</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="0">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s" s="0">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -3921,18 +3935,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -3950,298 +3964,298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
   </sheetData>
@@ -4259,154 +4273,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
   </sheetData>
@@ -4424,12 +4438,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -4447,234 +4461,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
   </sheetData>
@@ -4684,7 +4698,7 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4692,82 +4706,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>615</v>
+        <v>159</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>616</v>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="0">
+        <v>617</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>618</v>
       </c>
     </row>
   </sheetData>
@@ -4785,154 +4807,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>618</v>
+        <v>620</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>619</v>
+        <v>621</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
   </sheetData>
@@ -4950,106 +4972,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
   </sheetData>
@@ -5067,18 +5089,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -5096,226 +5118,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
   </sheetData>
@@ -5333,130 +5355,130 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>134</v>
+        <v>136</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
   </sheetData>
@@ -5474,12 +5496,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5503,30 +5525,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>725</v>
+        <v>727</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>730</v>
+        <v>732</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
   </sheetData>
@@ -5544,12 +5566,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>138</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -5567,242 +5589,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>
@@ -5820,618 +5842,618 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
   </sheetData>
@@ -6449,42 +6471,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -6502,26 +6524,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -6539,47 +6561,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="816" uniqueCount="734">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="736">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -777,6 +777,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000327</t>
   </si>
   <si>
+    <t>Nucleic acid + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000273</t>
+  </si>
+  <si>
     <t>Chromatin</t>
   </si>
   <si>
@@ -2643,7 +2649,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-19T14:40:34-08:00</t>
+    <t>2025-11-20T09:41:36-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2846,145 +2852,145 @@
         <v>106</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>610</v>
+        <v>612</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>612</v>
+        <v>614</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="2">
@@ -2992,7 +2998,7 @@
         <v>100</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>726</v>
+        <v>728</v>
       </c>
     </row>
   </sheetData>
@@ -3001,7 +3007,7 @@
       <formula1>'dataset_type'!$A$1:$A$51</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$16</formula1>
+      <formula1>'analyte_class'!$A$1:$A$17</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
@@ -3149,26 +3155,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3186,32 +3192,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>388</v>
+        <v>390</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3229,22 +3235,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3262,26 +3268,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -3299,27 +3305,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -3337,42 +3343,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>400</v>
+        <v>402</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>402</v>
+        <v>404</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
   </sheetData>
@@ -3390,18 +3396,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3419,18 +3425,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3448,18 +3454,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
   </sheetData>
@@ -3477,26 +3483,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -3935,18 +3941,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
   </sheetData>
@@ -3964,298 +3970,298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>441</v>
+        <v>443</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>449</v>
+        <v>451</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>451</v>
+        <v>453</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
   </sheetData>
@@ -4273,154 +4279,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>544</v>
+        <v>546</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
   </sheetData>
@@ -4438,12 +4444,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -4461,234 +4467,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
   </sheetData>
@@ -4706,90 +4712,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
   </sheetData>
@@ -4807,154 +4813,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>620</v>
+        <v>622</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>621</v>
+        <v>623</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>622</v>
+        <v>624</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>623</v>
+        <v>625</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>625</v>
+        <v>627</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>626</v>
+        <v>628</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>627</v>
+        <v>629</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>628</v>
+        <v>630</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>629</v>
+        <v>631</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>630</v>
+        <v>632</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>633</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>635</v>
+        <v>637</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>637</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>639</v>
+        <v>641</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>640</v>
+        <v>642</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>641</v>
+        <v>643</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>643</v>
+        <v>645</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>645</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -4972,106 +4978,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>652</v>
+        <v>654</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>653</v>
+        <v>655</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>654</v>
+        <v>656</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>655</v>
+        <v>657</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>656</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>657</v>
+        <v>659</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>658</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>659</v>
+        <v>661</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>660</v>
+        <v>662</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>661</v>
+        <v>663</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>662</v>
+        <v>664</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>663</v>
+        <v>665</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>666</v>
+        <v>668</v>
       </c>
     </row>
   </sheetData>
@@ -5089,18 +5095,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5118,226 +5124,226 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>679</v>
+        <v>681</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>680</v>
+        <v>682</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>681</v>
+        <v>683</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>683</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>687</v>
+        <v>689</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>688</v>
+        <v>690</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>689</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>690</v>
+        <v>692</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>691</v>
+        <v>693</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>693</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>694</v>
+        <v>696</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>695</v>
+        <v>697</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>696</v>
+        <v>698</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>697</v>
+        <v>699</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>698</v>
+        <v>700</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>699</v>
+        <v>701</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>701</v>
+        <v>703</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
   </sheetData>
@@ -5347,7 +5353,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B16"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5479,6 +5485,14 @@
       </c>
       <c r="B16" t="s" s="0">
         <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="0">
+        <v>139</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -5496,12 +5510,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5525,16 +5539,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>727</v>
+        <v>729</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>732</v>
+        <v>734</v>
       </c>
     </row>
     <row r="2">
@@ -5542,13 +5556,13 @@
         <v>100</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>729</v>
+        <v>731</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>731</v>
+        <v>733</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
   </sheetData>
@@ -5566,12 +5580,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -5589,242 +5603,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>198</v>
+        <v>200</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>202</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5842,474 +5856,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>219</v>
+        <v>221</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>221</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>227</v>
+        <v>229</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>235</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>237</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>259</v>
+        <v>261</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>263</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>267</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>299</v>
+        <v>301</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>301</v>
+        <v>303</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>305</v>
+        <v>307</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>307</v>
+        <v>309</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>313</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>315</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>321</v>
+        <v>323</v>
       </c>
     </row>
     <row r="60">
@@ -6317,143 +6331,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>324</v>
+        <v>326</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>326</v>
+        <v>328</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>328</v>
+        <v>330</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>332</v>
+        <v>334</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>334</v>
+        <v>336</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>338</v>
+        <v>340</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>342</v>
+        <v>344</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>344</v>
+        <v>346</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>346</v>
+        <v>348</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>352</v>
+        <v>354</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
   </sheetData>
@@ -6471,42 +6485,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>358</v>
+        <v>360</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>366</v>
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -6524,26 +6538,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>362</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>366</v>
       </c>
     </row>
   </sheetData>
@@ -6561,47 +6575,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>375</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>377</v>
+        <v>379</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="742">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -750,6 +750,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000301</t>
   </si>
   <si>
+    <t>Raman Imaging</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000475</t>
+  </si>
+  <si>
     <t>RNAseq (with probes)</t>
   </si>
   <si>
@@ -762,6 +768,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000405</t>
   </si>
   <si>
+    <t>STARmap</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000476</t>
+  </si>
+  <si>
     <t>MPLEx</t>
   </si>
   <si>
@@ -2550,6 +2562,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000436</t>
   </si>
   <si>
+    <t>10x Genomics; Chromium Fixed RNA Kit, Human Transcriptome 16 rxns x 16 BC; PN 1000547</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000477</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Mouse Transcriptome Probe Kit - Small; PN 1000365</t>
   </si>
   <si>
@@ -2649,7 +2667,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-11-20T09:41:36-08:00</t>
+    <t>2025-12-08T11:16:37-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2849,162 +2867,162 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>726</v>
+        <v>732</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>727</v>
+        <v>733</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>728</v>
+        <v>734</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="41">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$51</formula1>
+      <formula1>'dataset_type'!$A$1:$A$53</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'analyte_class'!$A$1:$A$17</formula1>
@@ -3133,7 +3151,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$28</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$29</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -3155,26 +3173,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3192,32 +3210,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>388</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>390</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>391</v>
+        <v>395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>392</v>
+        <v>396</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3235,22 +3253,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>389</v>
+        <v>393</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>394</v>
+        <v>398</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3268,26 +3286,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>384</v>
+        <v>388</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>386</v>
+        <v>390</v>
       </c>
     </row>
   </sheetData>
@@ -3305,27 +3323,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>397</v>
+        <v>401</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>398</v>
+        <v>402</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>399</v>
+        <v>403</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>
@@ -3343,42 +3361,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>404</v>
+        <v>408</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>406</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>410</v>
+        <v>414</v>
       </c>
     </row>
   </sheetData>
@@ -3396,18 +3414,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>415</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -3425,18 +3443,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -3454,18 +3472,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>423</v>
+        <v>427</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>417</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -3483,26 +3501,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>429</v>
+        <v>433</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>431</v>
+        <v>435</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>433</v>
+        <v>437</v>
       </c>
     </row>
   </sheetData>
@@ -3512,7 +3530,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3924,6 +3942,22 @@
       </c>
       <c r="B51" t="s" s="0">
         <v>105</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s" s="0">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="0">
+        <v>108</v>
+      </c>
+      <c r="B53" t="s" s="0">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -3941,18 +3975,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>436</v>
+        <v>440</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>438</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3970,298 +4004,298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>443</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>445</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>447</v>
+        <v>451</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>449</v>
+        <v>453</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>451</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>453</v>
+        <v>457</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>455</v>
+        <v>459</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>457</v>
+        <v>461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>459</v>
+        <v>463</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>461</v>
+        <v>465</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>463</v>
+        <v>467</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>465</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>467</v>
+        <v>471</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>471</v>
+        <v>475</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>473</v>
+        <v>477</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>475</v>
+        <v>479</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>477</v>
+        <v>481</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>481</v>
+        <v>485</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>483</v>
+        <v>487</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>485</v>
+        <v>489</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>487</v>
+        <v>491</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>489</v>
+        <v>493</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>491</v>
+        <v>495</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>493</v>
+        <v>497</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>497</v>
+        <v>501</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>501</v>
+        <v>505</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>505</v>
+        <v>509</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>507</v>
+        <v>511</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>511</v>
+        <v>515</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>513</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>515</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -4279,154 +4313,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>518</v>
+        <v>522</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>520</v>
+        <v>524</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>524</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>526</v>
+        <v>530</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>528</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>530</v>
+        <v>534</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>532</v>
+        <v>536</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>534</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>536</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>538</v>
+        <v>542</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>542</v>
+        <v>546</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>544</v>
+        <v>548</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
   </sheetData>
@@ -4444,12 +4478,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -4467,234 +4501,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>558</v>
+        <v>562</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>560</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>562</v>
+        <v>566</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>566</v>
+        <v>570</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>568</v>
+        <v>572</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>570</v>
+        <v>574</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>572</v>
+        <v>576</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>574</v>
+        <v>578</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>576</v>
+        <v>580</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>578</v>
+        <v>582</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>580</v>
+        <v>584</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>603</v>
+        <v>607</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
@@ -4712,90 +4746,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
   </sheetData>
@@ -4813,154 +4847,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>624</v>
+        <v>628</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>638</v>
+        <v>642</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
   </sheetData>
@@ -4978,106 +5012,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>651</v>
+        <v>655</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>495</v>
+        <v>499</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>499</v>
+        <v>503</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>509</v>
+        <v>513</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
   </sheetData>
@@ -5095,18 +5129,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -5116,7 +5150,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5124,226 +5158,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>695</v>
+        <v>699</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>699</v>
+        <v>703</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>701</v>
+        <v>705</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>703</v>
+        <v>707</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>705</v>
+        <v>709</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>707</v>
+        <v>711</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>709</v>
+        <v>713</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>498</v>
+        <v>716</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>499</v>
+        <v>717</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>712</v>
+        <v>502</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>713</v>
+        <v>503</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>715</v>
+        <v>719</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>717</v>
+        <v>721</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>719</v>
+        <v>723</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>721</v>
+        <v>725</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>723</v>
+        <v>727</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>725</v>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="0">
+        <v>730</v>
+      </c>
+      <c r="B29" t="s" s="0">
+        <v>731</v>
       </c>
     </row>
   </sheetData>
@@ -5361,138 +5403,138 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>108</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -5510,12 +5552,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5539,30 +5581,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>729</v>
+        <v>735</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>730</v>
+        <v>736</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>732</v>
+        <v>738</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>734</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>731</v>
+        <v>737</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>733</v>
+        <v>739</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>735</v>
+        <v>741</v>
       </c>
     </row>
   </sheetData>
@@ -5580,12 +5622,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -5603,242 +5645,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>162</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>164</v>
+        <v>168</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>188</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>190</v>
+        <v>194</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -5856,474 +5898,474 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>207</v>
+        <v>211</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>215</v>
+        <v>219</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>219</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>223</v>
+        <v>227</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>229</v>
+        <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>233</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>237</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>241</v>
+        <v>245</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>245</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>273</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>275</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>279</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>281</v>
+        <v>285</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>287</v>
+        <v>291</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>289</v>
+        <v>293</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>293</v>
+        <v>297</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>297</v>
+        <v>301</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>299</v>
+        <v>303</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>301</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>303</v>
+        <v>307</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>305</v>
+        <v>309</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>307</v>
+        <v>311</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>309</v>
+        <v>313</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>311</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>313</v>
+        <v>317</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>315</v>
+        <v>319</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>317</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>319</v>
+        <v>323</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>321</v>
+        <v>325</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="60">
@@ -6331,143 +6373,143 @@
         <v>70</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>324</v>
+        <v>328</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>326</v>
+        <v>330</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>328</v>
+        <v>332</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>330</v>
+        <v>334</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>332</v>
+        <v>336</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>334</v>
+        <v>338</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>336</v>
+        <v>340</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>338</v>
+        <v>342</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>340</v>
+        <v>344</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>342</v>
+        <v>346</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>352</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
   </sheetData>
@@ -6485,42 +6527,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>368</v>
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -6538,26 +6580,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>362</v>
+        <v>366</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>366</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
@@ -6575,47 +6617,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>374</v>
+        <v>378</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>375</v>
+        <v>379</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>376</v>
+        <v>380</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>377</v>
+        <v>381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>378</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>379</v>
+        <v>383</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>380</v>
+        <v>384</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>381</v>
+        <v>385</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>214</v>
+        <v>218</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="770">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -552,6 +552,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000168</t>
   </si>
   <si>
+    <t>iCLAP</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000479</t>
+  </si>
+  <si>
     <t>seqFISH</t>
   </si>
   <si>
@@ -618,6 +624,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000207</t>
   </si>
   <si>
+    <t>MACSima</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000480</t>
+  </si>
+  <si>
     <t>CyTOF</t>
   </si>
   <si>
@@ -801,6 +813,12 @@
     <t>http://ncicb.nci.nih.gov/xml/owl/EVS/Thesaurus.owl#C13201</t>
   </si>
   <si>
+    <t>Lipid + metabolite + protein</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000478</t>
+  </si>
+  <si>
     <t>RNA + protein</t>
   </si>
   <si>
@@ -987,6 +1005,12 @@
     <t>https://identifiers.org/RRID:SCR_023605</t>
   </si>
   <si>
+    <t>Waters</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_024589</t>
+  </si>
+  <si>
     <t>In-House</t>
   </si>
   <si>
@@ -1041,12 +1065,24 @@
     <t>https://identifiers.org/RRID:SCR_023604</t>
   </si>
   <si>
+    <t>Miltenyi Biotec</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_008984</t>
+  </si>
+  <si>
     <t>Leica Biosystems</t>
   </si>
   <si>
     <t>https://identifiers.org/RRID:SCR_023603</t>
   </si>
   <si>
+    <t>Revvity</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027779</t>
+  </si>
+  <si>
     <t>Cytek Biosciences</t>
   </si>
   <si>
@@ -1176,6 +1212,18 @@
     <t>https://identifiers.org/RRID:SCR_026452</t>
   </si>
   <si>
+    <t>DMi8</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_026672</t>
+  </si>
+  <si>
+    <t>Opera Phenix Plus HCS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027780</t>
+  </si>
+  <si>
     <t>timsTOF Pro 2</t>
   </si>
   <si>
@@ -1218,6 +1266,12 @@
     <t>https://identifiers.org/RRID:SCR_027101</t>
   </si>
   <si>
+    <t>Orbitrap Fusion Tribrid</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020559</t>
+  </si>
+  <si>
     <t>Custom: Multiphoton</t>
   </si>
   <si>
@@ -1344,6 +1398,18 @@
     <t>https://identifiers.org/RRID:SCR_027072</t>
   </si>
   <si>
+    <t>Opera Phenix HCS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027817</t>
+  </si>
+  <si>
+    <t>Zeiss LightSheet Z.1</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_020919</t>
+  </si>
+  <si>
     <t>IN Cell Analyzer 2200</t>
   </si>
   <si>
@@ -1485,6 +1551,18 @@
     <t>https://identifiers.org/RRID:SCR_023613</t>
   </si>
   <si>
+    <t>SYNAPT G2-Si</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027782</t>
+  </si>
+  <si>
+    <t>MACSima System</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_027923</t>
+  </si>
+  <si>
     <t>Biomark HD</t>
   </si>
   <si>
@@ -2502,6 +2580,12 @@
     <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000442</t>
   </si>
   <si>
+    <t>10x Genomics; GEM-X Flex Human Transcriptome Probe Kit, 16 samples; PN 1000785</t>
+  </si>
+  <si>
+    <t>https://purl.humanatlas.io/vocab/hravs#HRAVS_0000481</t>
+  </si>
+  <si>
     <t>10x Genomics; Visium Human Transcriptome Probe Kit-Small; PN 1000363</t>
   </si>
   <si>
@@ -2667,7 +2751,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2025-12-08T11:16:37-08:00</t>
+    <t>2026-02-11T13:56:48-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2867,174 +2951,174 @@
         <v>3</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>361</v>
+        <v>387</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>362</v>
+        <v>388</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>373</v>
+        <v>399</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>374</v>
+        <v>400</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>375</v>
+        <v>401</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>376</v>
+        <v>402</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>377</v>
+        <v>403</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>386</v>
+        <v>412</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>391</v>
+        <v>417</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>397</v>
+        <v>423</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>399</v>
+        <v>425</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>400</v>
+        <v>426</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>404</v>
+        <v>430</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>415</v>
+        <v>441</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>417</v>
+        <v>443</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>422</v>
+        <v>448</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>424</v>
+        <v>450</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>425</v>
+        <v>451</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>428</v>
+        <v>454</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>429</v>
+        <v>455</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>430</v>
+        <v>456</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>438</v>
+        <v>464</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>443</v>
+        <v>469</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>444</v>
+        <v>470</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>445</v>
+        <v>471</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>520</v>
+        <v>546</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>555</v>
+        <v>581</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>556</v>
+        <v>582</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>557</v>
+        <v>583</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>558</v>
+        <v>584</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>615</v>
+        <v>641</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>616</v>
+        <v>642</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>617</v>
+        <v>643</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>618</v>
+        <v>644</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>625</v>
+        <v>651</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>652</v>
+        <v>678</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>673</v>
+        <v>699</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>674</v>
+        <v>700</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>675</v>
+        <v>701</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>733</v>
+        <v>761</v>
       </c>
     </row>
     <row r="2">
       <c r="D2" t="s" s="5">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>734</v>
+        <v>762</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="41">
     <dataValidation type="list" sqref="D2:D1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'dataset_type'!$A$1:$A$53</formula1>
+      <formula1>'dataset_type'!$A$1:$A$55</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="E2:E1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'analyte_class'!$A$1:$A$17</formula1>
+      <formula1>'analyte_class'!$A$1:$A$18</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="F2:F1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_targeted'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="G2:G1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_vendor'!$A$1:$A$30</formula1>
+      <formula1>'acquisition_instrument_vendor'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$77</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$84</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -3151,7 +3235,7 @@
       <formula1>'probe_hybridization_time_unit'!$A$1:$A$2</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AX2:AX1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'oligo_probe_panel'!$A$1:$A$29</formula1>
+      <formula1>'oligo_probe_panel'!$A$1:$A$30</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="AY2:AY1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'is_custom_probes_used'!$A$1:$A$2</formula1>
@@ -3173,26 +3257,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3210,32 +3294,32 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>392</v>
+        <v>418</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>394</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>395</v>
+        <v>421</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>396</v>
+        <v>422</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3253,22 +3337,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>378</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>398</v>
+        <v>424</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3286,26 +3370,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>387</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>388</v>
+        <v>414</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>390</v>
+        <v>416</v>
       </c>
     </row>
   </sheetData>
@@ -3323,27 +3407,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>379</v>
+        <v>405</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>401</v>
+        <v>427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>402</v>
+        <v>428</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>403</v>
+        <v>429</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -3361,42 +3445,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>405</v>
+        <v>431</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>406</v>
+        <v>432</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>407</v>
+        <v>433</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>408</v>
+        <v>434</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>409</v>
+        <v>435</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>410</v>
+        <v>436</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>411</v>
+        <v>437</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>412</v>
+        <v>438</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>413</v>
+        <v>439</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>414</v>
+        <v>440</v>
       </c>
     </row>
   </sheetData>
@@ -3414,18 +3498,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>418</v>
+        <v>444</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>419</v>
+        <v>445</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>421</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -3443,18 +3527,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>427</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>421</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -3472,18 +3556,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>426</v>
+        <v>452</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>427</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>420</v>
+        <v>446</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>421</v>
+        <v>447</v>
       </c>
     </row>
   </sheetData>
@@ -3501,26 +3585,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>432</v>
+        <v>458</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>433</v>
+        <v>459</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>434</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>435</v>
+        <v>461</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>436</v>
+        <v>462</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>437</v>
+        <v>463</v>
       </c>
     </row>
   </sheetData>
@@ -3530,7 +3614,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B53"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3958,6 +4042,22 @@
       </c>
       <c r="B53" t="s" s="0">
         <v>109</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s" s="0">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="0">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s" s="0">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
@@ -3975,18 +4075,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>439</v>
+        <v>465</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>440</v>
+        <v>466</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>441</v>
+        <v>467</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>442</v>
+        <v>468</v>
       </c>
     </row>
   </sheetData>
@@ -4004,298 +4104,298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>446</v>
+        <v>472</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>447</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>448</v>
+        <v>474</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>449</v>
+        <v>475</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>450</v>
+        <v>476</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>451</v>
+        <v>477</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>453</v>
+        <v>479</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>454</v>
+        <v>480</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>455</v>
+        <v>481</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>456</v>
+        <v>482</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>457</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>458</v>
+        <v>484</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>459</v>
+        <v>485</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>460</v>
+        <v>486</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>461</v>
+        <v>487</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>462</v>
+        <v>488</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>463</v>
+        <v>489</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>464</v>
+        <v>490</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>465</v>
+        <v>491</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>466</v>
+        <v>492</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>467</v>
+        <v>493</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>468</v>
+        <v>494</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>469</v>
+        <v>495</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>470</v>
+        <v>496</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>471</v>
+        <v>497</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>472</v>
+        <v>498</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>473</v>
+        <v>499</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>474</v>
+        <v>500</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>475</v>
+        <v>501</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>476</v>
+        <v>502</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>477</v>
+        <v>503</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>478</v>
+        <v>504</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>479</v>
+        <v>505</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>480</v>
+        <v>506</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>481</v>
+        <v>507</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>482</v>
+        <v>508</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>483</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>484</v>
+        <v>510</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>485</v>
+        <v>511</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>486</v>
+        <v>512</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>487</v>
+        <v>513</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>488</v>
+        <v>514</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>489</v>
+        <v>515</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>490</v>
+        <v>516</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>491</v>
+        <v>517</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>492</v>
+        <v>518</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>493</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>494</v>
+        <v>520</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>495</v>
+        <v>521</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>496</v>
+        <v>522</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>497</v>
+        <v>523</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>499</v>
+        <v>525</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>500</v>
+        <v>526</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>501</v>
+        <v>527</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>503</v>
+        <v>529</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>504</v>
+        <v>530</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>505</v>
+        <v>531</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>506</v>
+        <v>532</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>507</v>
+        <v>533</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>508</v>
+        <v>534</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>509</v>
+        <v>535</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>510</v>
+        <v>536</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>511</v>
+        <v>537</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>513</v>
+        <v>539</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>514</v>
+        <v>540</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>515</v>
+        <v>541</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>516</v>
+        <v>542</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>517</v>
+        <v>543</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>518</v>
+        <v>544</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>519</v>
+        <v>545</v>
       </c>
     </row>
   </sheetData>
@@ -4313,154 +4413,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>521</v>
+        <v>547</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>522</v>
+        <v>548</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>523</v>
+        <v>549</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>524</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>525</v>
+        <v>551</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>526</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>527</v>
+        <v>553</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>528</v>
+        <v>554</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>529</v>
+        <v>555</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>530</v>
+        <v>556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>531</v>
+        <v>557</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>532</v>
+        <v>558</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>533</v>
+        <v>559</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>534</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>535</v>
+        <v>561</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>536</v>
+        <v>562</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>537</v>
+        <v>563</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>538</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>503</v>
+        <v>529</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>539</v>
+        <v>565</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>540</v>
+        <v>566</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>541</v>
+        <v>567</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>542</v>
+        <v>568</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>543</v>
+        <v>569</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>544</v>
+        <v>570</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>545</v>
+        <v>571</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>546</v>
+        <v>572</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>547</v>
+        <v>573</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>548</v>
+        <v>574</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>549</v>
+        <v>575</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>550</v>
+        <v>576</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>551</v>
+        <v>577</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>552</v>
+        <v>578</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>553</v>
+        <v>579</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>554</v>
+        <v>580</v>
       </c>
     </row>
   </sheetData>
@@ -4478,12 +4578,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4501,234 +4601,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>559</v>
+        <v>585</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>560</v>
+        <v>586</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>561</v>
+        <v>587</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>562</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>563</v>
+        <v>589</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>564</v>
+        <v>590</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>565</v>
+        <v>591</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>566</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>567</v>
+        <v>593</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>568</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>569</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>570</v>
+        <v>596</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>571</v>
+        <v>597</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>572</v>
+        <v>598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>573</v>
+        <v>599</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>574</v>
+        <v>600</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>575</v>
+        <v>601</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>576</v>
+        <v>602</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>577</v>
+        <v>603</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>578</v>
+        <v>604</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>579</v>
+        <v>605</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>580</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>581</v>
+        <v>607</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>582</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>583</v>
+        <v>609</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>584</v>
+        <v>610</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>585</v>
+        <v>611</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>586</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>587</v>
+        <v>613</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>588</v>
+        <v>614</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>589</v>
+        <v>615</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>590</v>
+        <v>616</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>591</v>
+        <v>617</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>592</v>
+        <v>618</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>503</v>
+        <v>529</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>593</v>
+        <v>619</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>594</v>
+        <v>620</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>595</v>
+        <v>621</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>596</v>
+        <v>622</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>597</v>
+        <v>623</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>598</v>
+        <v>624</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>599</v>
+        <v>625</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>600</v>
+        <v>626</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>601</v>
+        <v>627</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>602</v>
+        <v>628</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>603</v>
+        <v>629</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>604</v>
+        <v>630</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>605</v>
+        <v>631</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>606</v>
+        <v>632</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>607</v>
+        <v>633</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>608</v>
+        <v>634</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>609</v>
+        <v>635</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>610</v>
+        <v>636</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>611</v>
+        <v>637</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>612</v>
+        <v>638</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>613</v>
+        <v>639</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>614</v>
+        <v>640</v>
       </c>
     </row>
   </sheetData>
@@ -4746,90 +4846,90 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>198</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>619</v>
+        <v>645</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>620</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>621</v>
+        <v>647</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>622</v>
+        <v>648</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>202</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>205</v>
+        <v>217</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>206</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>623</v>
+        <v>649</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>624</v>
+        <v>650</v>
       </c>
     </row>
   </sheetData>
@@ -4847,154 +4947,154 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>290</v>
+        <v>308</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>291</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>626</v>
+        <v>652</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>627</v>
+        <v>653</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>628</v>
+        <v>654</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>629</v>
+        <v>655</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>503</v>
+        <v>529</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>271</v>
+        <v>289</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>347</v>
+        <v>373</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>348</v>
+        <v>374</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>630</v>
+        <v>656</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>631</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>632</v>
+        <v>658</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>633</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>634</v>
+        <v>660</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>635</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>636</v>
+        <v>662</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>637</v>
+        <v>663</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>638</v>
+        <v>664</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>639</v>
+        <v>665</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>640</v>
+        <v>666</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>641</v>
+        <v>667</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>642</v>
+        <v>668</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>643</v>
+        <v>669</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>644</v>
+        <v>670</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>645</v>
+        <v>671</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>646</v>
+        <v>672</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>647</v>
+        <v>673</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>648</v>
+        <v>674</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>649</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>650</v>
+        <v>676</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>651</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>
@@ -5012,106 +5112,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>653</v>
+        <v>679</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>654</v>
+        <v>680</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>655</v>
+        <v>681</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>656</v>
+        <v>682</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>498</v>
+        <v>524</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>499</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>657</v>
+        <v>683</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>658</v>
+        <v>684</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>659</v>
+        <v>685</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>660</v>
+        <v>686</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>661</v>
+        <v>687</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>662</v>
+        <v>688</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>502</v>
+        <v>528</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>503</v>
+        <v>529</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>663</v>
+        <v>689</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>664</v>
+        <v>690</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>665</v>
+        <v>691</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>666</v>
+        <v>692</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>512</v>
+        <v>538</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>513</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>668</v>
+        <v>694</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>669</v>
+        <v>695</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>670</v>
+        <v>696</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>671</v>
+        <v>697</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>672</v>
+        <v>698</v>
       </c>
     </row>
   </sheetData>
@@ -5129,18 +5229,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>372</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -5150,7 +5250,7 @@
 
 <file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5158,234 +5258,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>676</v>
+        <v>702</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>677</v>
+        <v>703</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>678</v>
+        <v>704</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>679</v>
+        <v>705</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>680</v>
+        <v>706</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>681</v>
+        <v>707</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>682</v>
+        <v>708</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>683</v>
+        <v>709</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>684</v>
+        <v>710</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>685</v>
+        <v>711</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>686</v>
+        <v>712</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>687</v>
+        <v>713</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>688</v>
+        <v>714</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>689</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>690</v>
+        <v>716</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>691</v>
+        <v>717</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>692</v>
+        <v>718</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>693</v>
+        <v>719</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>694</v>
+        <v>720</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>695</v>
+        <v>721</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>696</v>
+        <v>722</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>697</v>
+        <v>723</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>698</v>
+        <v>724</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>699</v>
+        <v>725</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>700</v>
+        <v>726</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>701</v>
+        <v>727</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>702</v>
+        <v>728</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>703</v>
+        <v>729</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>704</v>
+        <v>730</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>705</v>
+        <v>731</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>706</v>
+        <v>732</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>707</v>
+        <v>733</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>708</v>
+        <v>734</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>709</v>
+        <v>735</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>710</v>
+        <v>736</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>711</v>
+        <v>737</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>712</v>
+        <v>738</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>713</v>
+        <v>739</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>714</v>
+        <v>740</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>715</v>
+        <v>741</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>716</v>
+        <v>742</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>717</v>
+        <v>743</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>502</v>
+        <v>744</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>503</v>
+        <v>745</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>718</v>
+        <v>528</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>719</v>
+        <v>529</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>720</v>
+        <v>746</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>721</v>
+        <v>747</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>723</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>724</v>
+        <v>750</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>725</v>
+        <v>751</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>726</v>
+        <v>752</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>727</v>
+        <v>753</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>729</v>
+        <v>755</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>730</v>
+        <v>756</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>731</v>
+        <v>757</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="0">
+        <v>758</v>
+      </c>
+      <c r="B30" t="s" s="0">
+        <v>759</v>
       </c>
     </row>
   </sheetData>
@@ -5395,7 +5503,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5403,138 +5511,146 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>120</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>122</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>126</v>
+        <v>130</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>128</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>132</v>
+        <v>136</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>134</v>
+        <v>138</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>140</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>144</v>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="0">
+        <v>149</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -5552,12 +5668,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5581,30 +5697,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>735</v>
+        <v>763</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>736</v>
+        <v>764</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>738</v>
+        <v>766</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>740</v>
+        <v>768</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>737</v>
+        <v>765</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>739</v>
+        <v>767</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>741</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -5622,12 +5738,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>146</v>
+        <v>152</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>147</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5637,7 +5753,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B30"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5645,242 +5761,266 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>150</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>152</v>
+        <v>158</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>153</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>154</v>
+        <v>160</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>156</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>157</v>
+        <v>163</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>158</v>
+        <v>164</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>160</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>162</v>
+        <v>168</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>163</v>
+        <v>169</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>164</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>166</v>
+        <v>172</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>168</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>170</v>
+        <v>176</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>172</v>
+        <v>178</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>173</v>
+        <v>179</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>174</v>
+        <v>180</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>176</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>180</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>182</v>
+        <v>188</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>183</v>
+        <v>189</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>184</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>185</v>
+        <v>191</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>186</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>188</v>
+        <v>194</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>190</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>191</v>
+        <v>197</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>192</v>
+        <v>198</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>193</v>
+        <v>199</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>194</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>196</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>200</v>
+        <v>206</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>204</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>206</v>
+        <v>212</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>208</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="0">
+        <v>215</v>
+      </c>
+      <c r="B31" t="s" s="0">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="0">
+        <v>217</v>
+      </c>
+      <c r="B32" t="s" s="0">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="0">
+        <v>219</v>
+      </c>
+      <c r="B33" t="s" s="0">
+        <v>220</v>
       </c>
     </row>
   </sheetData>
@@ -5890,7 +6030,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B84"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5898,618 +6038,674 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>211</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>212</v>
+        <v>224</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>213</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>214</v>
+        <v>226</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>215</v>
+        <v>227</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>216</v>
+        <v>228</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>217</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>219</v>
+        <v>231</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>221</v>
+        <v>233</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>223</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>224</v>
+        <v>236</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>225</v>
+        <v>237</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>226</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>227</v>
+        <v>239</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>228</v>
+        <v>240</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>229</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>231</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>232</v>
+        <v>244</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>233</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>235</v>
+        <v>247</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>237</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>238</v>
+        <v>250</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>239</v>
+        <v>251</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>240</v>
+        <v>252</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>241</v>
+        <v>253</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>242</v>
+        <v>254</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>243</v>
+        <v>255</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>245</v>
+        <v>257</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>246</v>
+        <v>258</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>247</v>
+        <v>259</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>248</v>
+        <v>260</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>249</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>251</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>253</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>255</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>257</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>259</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>261</v>
+        <v>273</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>265</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>267</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>269</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>271</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>273</v>
+        <v>285</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>275</v>
+        <v>287</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>276</v>
+        <v>288</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>277</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>278</v>
+        <v>290</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>279</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>280</v>
+        <v>292</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>281</v>
+        <v>293</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>282</v>
+        <v>294</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>283</v>
+        <v>295</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="0">
-        <v>284</v>
+        <v>296</v>
       </c>
       <c r="B38" t="s" s="0">
-        <v>285</v>
+        <v>297</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="0">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="B39" t="s" s="0">
-        <v>287</v>
+        <v>299</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="0">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="B40" t="s" s="0">
-        <v>289</v>
+        <v>301</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="0">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B41" t="s" s="0">
-        <v>291</v>
+        <v>303</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="0">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B42" t="s" s="0">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="0">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="B43" t="s" s="0">
-        <v>295</v>
+        <v>307</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="0">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="B44" t="s" s="0">
-        <v>297</v>
+        <v>309</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="0">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="B45" t="s" s="0">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="0">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="B46" t="s" s="0">
-        <v>301</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="0">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="0">
-        <v>303</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s" s="0">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="B48" t="s" s="0">
-        <v>305</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="0">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="B49" t="s" s="0">
-        <v>307</v>
+        <v>319</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="0">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="B50" t="s" s="0">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="0">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="B51" t="s" s="0">
-        <v>311</v>
+        <v>323</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="0">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="B52" t="s" s="0">
-        <v>313</v>
+        <v>325</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="0">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="B53" t="s" s="0">
-        <v>315</v>
+        <v>327</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="0">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="B54" t="s" s="0">
-        <v>317</v>
+        <v>329</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="0">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="B55" t="s" s="0">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="0">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="B56" t="s" s="0">
-        <v>321</v>
+        <v>333</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="0">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="B57" t="s" s="0">
-        <v>323</v>
+        <v>335</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s" s="0">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B58" t="s" s="0">
-        <v>325</v>
+        <v>337</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s" s="0">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="B59" t="s" s="0">
-        <v>327</v>
+        <v>339</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s" s="0">
-        <v>70</v>
+        <v>340</v>
       </c>
       <c r="B60" t="s" s="0">
-        <v>328</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s" s="0">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="B61" t="s" s="0">
-        <v>330</v>
+        <v>343</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s" s="0">
-        <v>331</v>
+        <v>344</v>
       </c>
       <c r="B62" t="s" s="0">
-        <v>332</v>
+        <v>345</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s" s="0">
-        <v>333</v>
+        <v>346</v>
       </c>
       <c r="B63" t="s" s="0">
-        <v>334</v>
+        <v>347</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s" s="0">
-        <v>179</v>
+        <v>348</v>
       </c>
       <c r="B64" t="s" s="0">
-        <v>180</v>
+        <v>349</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>335</v>
+        <v>74</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>336</v>
+        <v>350</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>337</v>
+        <v>351</v>
       </c>
       <c r="B66" t="s" s="0">
-        <v>338</v>
+        <v>352</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s" s="0">
-        <v>339</v>
+        <v>353</v>
       </c>
       <c r="B67" t="s" s="0">
-        <v>340</v>
+        <v>354</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="0">
-        <v>341</v>
+        <v>355</v>
       </c>
       <c r="B68" t="s" s="0">
-        <v>342</v>
+        <v>356</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>343</v>
+        <v>187</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>344</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>346</v>
+        <v>358</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s" s="0">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="B71" t="s" s="0">
-        <v>348</v>
+        <v>360</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s" s="0">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="B72" t="s" s="0">
-        <v>350</v>
+        <v>362</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s" s="0">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="B73" t="s" s="0">
-        <v>352</v>
+        <v>364</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="0">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="B74" t="s" s="0">
-        <v>354</v>
+        <v>366</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="0">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B75" t="s" s="0">
-        <v>356</v>
+        <v>368</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="0">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="B76" t="s" s="0">
-        <v>358</v>
+        <v>370</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="0">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="B77" t="s" s="0">
-        <v>360</v>
+        <v>372</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="0">
+        <v>373</v>
+      </c>
+      <c r="B78" t="s" s="0">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="s" s="0">
+        <v>375</v>
+      </c>
+      <c r="B79" t="s" s="0">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s" s="0">
+        <v>377</v>
+      </c>
+      <c r="B80" t="s" s="0">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s" s="0">
+        <v>379</v>
+      </c>
+      <c r="B81" t="s" s="0">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="s" s="0">
+        <v>381</v>
+      </c>
+      <c r="B82" t="s" s="0">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="s" s="0">
+        <v>383</v>
+      </c>
+      <c r="B83" t="s" s="0">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="s" s="0">
+        <v>385</v>
+      </c>
+      <c r="B84" t="s" s="0">
+        <v>386</v>
       </c>
     </row>
   </sheetData>
@@ -6527,42 +6723,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>363</v>
+        <v>389</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>364</v>
+        <v>390</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>366</v>
+        <v>392</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>368</v>
+        <v>394</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>370</v>
+        <v>396</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>371</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>372</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -6580,26 +6776,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>365</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>366</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>367</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>368</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>369</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>370</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6617,47 +6813,47 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>378</v>
+        <v>404</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>379</v>
+        <v>405</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>380</v>
+        <v>406</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>381</v>
+        <v>407</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>382</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>383</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>384</v>
+        <v>410</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>385</v>
+        <v>411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>218</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
+++ b/rnaseq-with-probes/v5.0.0/rnaseq-with-probes-v5.0.0.xlsx
@@ -448,7 +448,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="852" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="772">
   <si>
     <t>parent_sample_id</t>
   </si>
@@ -1482,6 +1482,12 @@
     <t>https://identifiers.org/RRID:SCR_023692</t>
   </si>
   <si>
+    <t>NanoZoomer 2.0-RS</t>
+  </si>
+  <si>
+    <t>https://identifiers.org/RRID:SCR_028001</t>
+  </si>
+  <si>
     <t>Axio Observer 3</t>
   </si>
   <si>
@@ -2751,7 +2757,7 @@
     <t>pav:createdOn</t>
   </si>
   <si>
-    <t>2026-02-11T13:56:48-08:00</t>
+    <t>2026-02-23T13:18:56-08:00</t>
   </si>
   <si>
     <t>pav:derivedFrom</t>
@@ -2963,136 +2969,136 @@
         <v>221</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>581</v>
+        <v>583</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>582</v>
+        <v>584</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>583</v>
+        <v>585</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>584</v>
+        <v>586</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="AR1" t="s" s="1">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="AS1" t="s" s="1">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="AT1" t="s" s="1">
-        <v>651</v>
+        <v>653</v>
       </c>
       <c r="AU1" t="s" s="1">
-        <v>678</v>
+        <v>680</v>
       </c>
       <c r="AV1" t="s" s="1">
-        <v>699</v>
+        <v>701</v>
       </c>
       <c r="AW1" t="s" s="1">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="AX1" t="s" s="1">
-        <v>701</v>
+        <v>703</v>
       </c>
       <c r="AY1" t="s" s="1">
-        <v>760</v>
+        <v>762</v>
       </c>
       <c r="AZ1" t="s" s="1">
-        <v>761</v>
+        <v>763</v>
       </c>
     </row>
     <row r="2">
@@ -3100,7 +3106,7 @@
         <v>106</v>
       </c>
       <c r="AZ2" t="s" s="53">
-        <v>762</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
@@ -3118,7 +3124,7 @@
       <formula1>'acquisition_instrument_vendor'!$A$1:$A$33</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="H2:H1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'acquisition_instrument_model'!$A$1:$A$84</formula1>
+      <formula1>'acquisition_instrument_model'!$A$1:$A$85</formula1>
     </dataValidation>
     <dataValidation type="decimal" operator="greaterThanOrEqual" sqref="I2:I1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="Value should be greater than 0" showErrorMessage="true">
       <formula1>0</formula1>
@@ -3150,7 +3156,7 @@
       <formula1>'umi_read'!$A$1:$A$3</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="T2:T1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
-      <formula1>'umi_size'!$A$1:$A$5</formula1>
+      <formula1>'umi_size'!$A$1:$A$6</formula1>
     </dataValidation>
     <dataValidation type="list" sqref="U2:U1001" allowBlank="true" errorStyle="stop" errorTitle="Validation Error" error="" showErrorMessage="true">
       <formula1>'assay_input_entity'!$A$1:$A$5</formula1>
@@ -3257,10 +3263,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2">
@@ -3273,10 +3279,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3294,27 +3300,27 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>422</v>
+        <v>424</v>
       </c>
     </row>
     <row r="6">
@@ -3337,17 +3343,17 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="4">
@@ -3370,10 +3376,10 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2">
@@ -3386,10 +3392,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>
@@ -3399,7 +3405,7 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3407,26 +3413,31 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>427</v>
+        <v>429</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>429</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="0">
         <v>230</v>
       </c>
     </row>
@@ -3445,42 +3456,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>436</v>
+        <v>438</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
   </sheetData>
@@ -3498,18 +3509,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>445</v>
+        <v>447</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3527,18 +3538,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3556,18 +3567,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>453</v>
+        <v>455</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
   </sheetData>
@@ -3585,26 +3596,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
   </sheetData>
@@ -4075,18 +4086,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>466</v>
+        <v>468</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>468</v>
+        <v>470</v>
       </c>
     </row>
   </sheetData>
@@ -4104,298 +4115,298 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>475</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>477</v>
+        <v>479</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>481</v>
+        <v>483</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>487</v>
+        <v>489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>501</v>
+        <v>503</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>503</v>
+        <v>505</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>511</v>
+        <v>513</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>515</v>
+        <v>517</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>517</v>
+        <v>519</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="0">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="B31" t="s" s="0">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="0">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="B32" t="s" s="0">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="0">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B33" t="s" s="0">
-        <v>537</v>
+        <v>539</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B34" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="0">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="B35" t="s" s="0">
-        <v>541</v>
+        <v>543</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="0">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="B36" t="s" s="0">
-        <v>543</v>
+        <v>545</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="0">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="B37" t="s" s="0">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -4413,18 +4424,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="3">
@@ -4437,130 +4448,130 @@
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>552</v>
+        <v>554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>554</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>558</v>
+        <v>560</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>562</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>564</v>
+        <v>566</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>569</v>
+        <v>571</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>571</v>
+        <v>573</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>573</v>
+        <v>575</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>579</v>
+        <v>581</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
   </sheetData>
@@ -4601,234 +4612,234 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>585</v>
+        <v>587</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>586</v>
+        <v>588</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>587</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>588</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>589</v>
+        <v>591</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>590</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>591</v>
+        <v>593</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>592</v>
+        <v>594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>594</v>
+        <v>596</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>595</v>
+        <v>597</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>596</v>
+        <v>598</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>597</v>
+        <v>599</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>598</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>599</v>
+        <v>601</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>600</v>
+        <v>602</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>601</v>
+        <v>603</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>602</v>
+        <v>604</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>604</v>
+        <v>606</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>605</v>
+        <v>607</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>606</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>607</v>
+        <v>609</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>608</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>609</v>
+        <v>611</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>610</v>
+        <v>612</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>611</v>
+        <v>613</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>612</v>
+        <v>614</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>613</v>
+        <v>615</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>614</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>615</v>
+        <v>617</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>616</v>
+        <v>618</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>617</v>
+        <v>619</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>618</v>
+        <v>620</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>619</v>
+        <v>621</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>620</v>
+        <v>622</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>621</v>
+        <v>623</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>622</v>
+        <v>624</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>623</v>
+        <v>625</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>624</v>
+        <v>626</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>625</v>
+        <v>627</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>626</v>
+        <v>628</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>627</v>
+        <v>629</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>628</v>
+        <v>630</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>629</v>
+        <v>631</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>630</v>
+        <v>632</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>631</v>
+        <v>633</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>632</v>
+        <v>634</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>634</v>
+        <v>636</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>636</v>
+        <v>638</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>638</v>
+        <v>640</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -4878,18 +4889,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>646</v>
+        <v>648</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>647</v>
+        <v>649</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>648</v>
+        <v>650</v>
       </c>
     </row>
     <row r="7">
@@ -4926,10 +4937,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>649</v>
+        <v>651</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>650</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -4963,10 +4974,10 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>653</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4">
@@ -4979,18 +4990,18 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>654</v>
+        <v>656</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>655</v>
+        <v>657</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7">
@@ -5003,98 +5014,98 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>374</v>
+        <v>376</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>656</v>
+        <v>658</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>657</v>
+        <v>659</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>658</v>
+        <v>660</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>659</v>
+        <v>661</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>660</v>
+        <v>662</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>661</v>
+        <v>663</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>665</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>667</v>
+        <v>669</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>669</v>
+        <v>671</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>673</v>
+        <v>675</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>674</v>
+        <v>676</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>675</v>
+        <v>677</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>676</v>
+        <v>678</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>677</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -5112,106 +5123,106 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>679</v>
+        <v>681</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>680</v>
+        <v>682</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>682</v>
+        <v>684</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>684</v>
+        <v>686</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>685</v>
+        <v>687</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>686</v>
+        <v>688</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>688</v>
+        <v>690</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>689</v>
+        <v>691</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>690</v>
+        <v>692</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>691</v>
+        <v>693</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>692</v>
+        <v>694</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>694</v>
+        <v>696</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>695</v>
+        <v>697</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>696</v>
+        <v>698</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>697</v>
+        <v>699</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>698</v>
+        <v>700</v>
       </c>
     </row>
   </sheetData>
@@ -5229,18 +5240,18 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -5258,242 +5269,242 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>703</v>
+        <v>705</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>704</v>
+        <v>706</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>705</v>
+        <v>707</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>706</v>
+        <v>708</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>707</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>708</v>
+        <v>710</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>709</v>
+        <v>711</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>710</v>
+        <v>712</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>711</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>712</v>
+        <v>714</v>
       </c>
       <c r="B6" t="s" s="0">
-        <v>713</v>
+        <v>715</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>714</v>
+        <v>716</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>715</v>
+        <v>717</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>716</v>
+        <v>718</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>717</v>
+        <v>719</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>718</v>
+        <v>720</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>719</v>
+        <v>721</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>720</v>
+        <v>722</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>721</v>
+        <v>723</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
-        <v>722</v>
+        <v>724</v>
       </c>
       <c r="B11" t="s" s="0">
-        <v>723</v>
+        <v>725</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>726</v>
+        <v>728</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>727</v>
+        <v>729</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>728</v>
+        <v>730</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>729</v>
+        <v>731</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>730</v>
+        <v>732</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>731</v>
+        <v>733</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
-        <v>732</v>
+        <v>734</v>
       </c>
       <c r="B16" t="s" s="0">
-        <v>733</v>
+        <v>735</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>734</v>
+        <v>736</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>735</v>
+        <v>737</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
-        <v>736</v>
+        <v>738</v>
       </c>
       <c r="B18" t="s" s="0">
-        <v>737</v>
+        <v>739</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
-        <v>738</v>
+        <v>740</v>
       </c>
       <c r="B19" t="s" s="0">
-        <v>739</v>
+        <v>741</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
-        <v>740</v>
+        <v>742</v>
       </c>
       <c r="B20" t="s" s="0">
-        <v>741</v>
+        <v>743</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
-        <v>742</v>
+        <v>744</v>
       </c>
       <c r="B21" t="s" s="0">
-        <v>743</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="0">
-        <v>744</v>
+        <v>746</v>
       </c>
       <c r="B22" t="s" s="0">
-        <v>745</v>
+        <v>747</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="0">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="B23" t="s" s="0">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="0">
-        <v>746</v>
+        <v>748</v>
       </c>
       <c r="B24" t="s" s="0">
-        <v>747</v>
+        <v>749</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="0">
-        <v>748</v>
+        <v>750</v>
       </c>
       <c r="B25" t="s" s="0">
-        <v>749</v>
+        <v>751</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="0">
-        <v>750</v>
+        <v>752</v>
       </c>
       <c r="B26" t="s" s="0">
-        <v>751</v>
+        <v>753</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="0">
-        <v>752</v>
+        <v>754</v>
       </c>
       <c r="B27" t="s" s="0">
-        <v>753</v>
+        <v>755</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="0">
-        <v>754</v>
+        <v>756</v>
       </c>
       <c r="B28" t="s" s="0">
-        <v>755</v>
+        <v>757</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="0">
-        <v>756</v>
+        <v>758</v>
       </c>
       <c r="B29" t="s" s="0">
-        <v>757</v>
+        <v>759</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="0">
-        <v>758</v>
+        <v>760</v>
       </c>
       <c r="B30" t="s" s="0">
-        <v>759</v>
+        <v>761</v>
       </c>
     </row>
   </sheetData>
@@ -5697,16 +5708,16 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>763</v>
+        <v>765</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>764</v>
+        <v>766</v>
       </c>
       <c r="C1" t="s" s="0">
-        <v>766</v>
+        <v>768</v>
       </c>
       <c r="D1" t="s" s="0">
-        <v>768</v>
+        <v>770</v>
       </c>
     </row>
     <row r="2">
@@ -5714,13 +5725,13 @@
         <v>106</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>765</v>
+        <v>767</v>
       </c>
       <c r="C2" t="s" s="0">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>769</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -6030,7 +6041,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B84"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6550,15 +6561,15 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="0">
-        <v>74</v>
+        <v>350</v>
       </c>
       <c r="B65" t="s" s="0">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s" s="0">
-        <v>351</v>
+        <v>74</v>
       </c>
       <c r="B66" t="s" s="0">
         <v>352</v>
@@ -6582,18 +6593,18 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="0">
-        <v>187</v>
+        <v>357</v>
       </c>
       <c r="B69" t="s" s="0">
-        <v>188</v>
+        <v>358</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s" s="0">
-        <v>357</v>
+        <v>187</v>
       </c>
       <c r="B70" t="s" s="0">
-        <v>358</v>
+        <v>188</v>
       </c>
     </row>
     <row r="71">
@@ -6706,6 +6717,14 @@
       </c>
       <c r="B84" t="s" s="0">
         <v>386</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="s" s="0">
+        <v>387</v>
+      </c>
+      <c r="B85" t="s" s="0">
+        <v>388</v>
       </c>
     </row>
   </sheetData>
@@ -6723,42 +6742,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s" s="0">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -6776,26 +6795,26 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="B1" t="s" s="0">
-        <v>392</v>
+        <v>394</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
@@ -6813,42 +6832,42 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>405</v>
+        <v>407</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
-        <v>409</v>
+        <v>411</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>410</v>
+        <v>412</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="9">
